--- a/result/NCDC_weather_data/stations_imputed/59211099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59211099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.388988</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>7.279988150495049</v>
+      </c>
       <c r="O2" t="n">
         <v>135.68</v>
       </c>
@@ -625,7 +627,9 @@
       <c r="M3" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>7.279988150495049</v>
+      </c>
       <c r="O3" t="n">
         <v>141.44</v>
       </c>

--- a/result/NCDC_weather_data/stations_imputed/59211099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59211099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R508"/>
+  <dimension ref="A1:S508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>130.28</v>
       </c>
       <c r="H2" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I2" t="n">
         <v>102.7</v>
@@ -582,6 +587,9 @@
         <v>0.000508</v>
       </c>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4.669183266244636</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -610,7 +618,7 @@
         <v>135.5</v>
       </c>
       <c r="H3" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I3" t="n">
         <v>102.29</v>
@@ -640,6 +648,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>3.810905677663824</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,7 +679,7 @@
         <v>146.84</v>
       </c>
       <c r="H4" t="n">
-        <v>131.36</v>
+        <v>55.2</v>
       </c>
       <c r="I4" t="n">
         <v>101.84</v>
@@ -698,6 +709,9 @@
         <v>0</v>
       </c>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>3.398770770624753</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -726,7 +740,7 @@
         <v>148.28</v>
       </c>
       <c r="H5" t="n">
-        <v>133.7</v>
+        <v>56.5</v>
       </c>
       <c r="I5" t="n">
         <v>101.57</v>
@@ -756,6 +770,9 @@
         <v>0</v>
       </c>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>3.474042581973324</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -784,7 +801,7 @@
         <v>146.3</v>
       </c>
       <c r="H6" t="n">
-        <v>134.96</v>
+        <v>57.2</v>
       </c>
       <c r="I6" t="n">
         <v>101.59</v>
@@ -814,6 +831,9 @@
         <v>0</v>
       </c>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>3.798061982468774</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -842,7 +862,7 @@
         <v>148.82</v>
       </c>
       <c r="H7" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I7" t="n">
         <v>101.88</v>
@@ -872,6 +892,9 @@
         <v>0.000254</v>
       </c>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>3.554969927710482</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -900,7 +923,7 @@
         <v>132.98</v>
       </c>
       <c r="H8" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I8" t="n">
         <v>102.18</v>
@@ -930,6 +953,9 @@
         <v>0.000762</v>
       </c>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4.235926765287497</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -958,7 +984,7 @@
         <v>127.76</v>
       </c>
       <c r="H9" t="n">
-        <v>122.18</v>
+        <v>50.1</v>
       </c>
       <c r="I9" t="n">
         <v>102.23</v>
@@ -988,6 +1014,9 @@
         <v>0.001016</v>
       </c>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4.66313866863169</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1016,7 +1045,7 @@
         <v>130.28</v>
       </c>
       <c r="H10" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I10" t="n">
         <v>101.91</v>
@@ -1046,6 +1075,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3.764200386115965</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1074,7 +1106,7 @@
         <v>130.1</v>
       </c>
       <c r="H11" t="n">
-        <v>122.72</v>
+        <v>50.4</v>
       </c>
       <c r="I11" t="n">
         <v>102.17</v>
@@ -1104,6 +1136,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4.402002069173241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1132,7 +1167,7 @@
         <v>137.3</v>
       </c>
       <c r="H12" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I12" t="n">
         <v>102.18</v>
@@ -1162,6 +1197,9 @@
         <v>0</v>
       </c>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2.863549067001291</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1190,7 +1228,7 @@
         <v>133.34</v>
       </c>
       <c r="H13" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I13" t="n">
         <v>102.16</v>
@@ -1220,6 +1258,9 @@
         <v>0</v>
       </c>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>3.428294652762689</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1248,7 +1289,7 @@
         <v>134.06</v>
       </c>
       <c r="H14" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I14" t="n">
         <v>102.19</v>
@@ -1278,6 +1319,9 @@
         <v>0</v>
       </c>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>3.582618697157337</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1306,7 +1350,7 @@
         <v>137.3</v>
       </c>
       <c r="H15" t="n">
-        <v>124.7</v>
+        <v>51.5</v>
       </c>
       <c r="I15" t="n">
         <v>101.7</v>
@@ -1336,6 +1380,9 @@
         <v>0</v>
       </c>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>3.739289454452944</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1364,7 +1411,7 @@
         <v>141.08</v>
       </c>
       <c r="H16" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I16" t="n">
         <v>101.76</v>
@@ -1394,6 +1441,9 @@
         <v>0.000762</v>
       </c>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4.287507651050274</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1422,7 +1472,7 @@
         <v>128.48</v>
       </c>
       <c r="H17" t="n">
-        <v>125.96</v>
+        <v>52.2</v>
       </c>
       <c r="I17" t="n">
         <v>102.35</v>
@@ -1452,6 +1502,9 @@
         <v>0.04318</v>
       </c>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>5.0598249183511</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1480,7 +1533,7 @@
         <v>127.76</v>
       </c>
       <c r="H18" t="n">
-        <v>118.04</v>
+        <v>47.8</v>
       </c>
       <c r="I18" t="n">
         <v>102.5</v>
@@ -1510,6 +1563,9 @@
         <v>0.001524</v>
       </c>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4.153618333930451</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1538,7 +1594,7 @@
         <v>129.38</v>
       </c>
       <c r="H19" t="n">
-        <v>115.7</v>
+        <v>46.5</v>
       </c>
       <c r="I19" t="n">
         <v>102.32</v>
@@ -1568,6 +1624,9 @@
         <v>0</v>
       </c>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>3.696612427657799</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1596,7 +1655,7 @@
         <v>133.52</v>
       </c>
       <c r="H20" t="n">
-        <v>122.18</v>
+        <v>50.1</v>
       </c>
       <c r="I20" t="n">
         <v>101.92</v>
@@ -1626,6 +1685,9 @@
         <v>0.000254</v>
       </c>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>3.906456895460628</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1654,7 +1716,7 @@
         <v>134.96</v>
       </c>
       <c r="H21" t="n">
-        <v>124.7</v>
+        <v>51.5</v>
       </c>
       <c r="I21" t="n">
         <v>101.69</v>
@@ -1684,6 +1746,9 @@
         <v>0.001778</v>
       </c>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4.009860896670469</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1712,7 +1777,7 @@
         <v>134.78</v>
       </c>
       <c r="H22" t="n">
-        <v>130.1</v>
+        <v>54.5</v>
       </c>
       <c r="I22" t="n">
         <v>101.53</v>
@@ -1742,6 +1807,9 @@
         <v>0.00127</v>
       </c>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4.669245604432564</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1770,7 +1838,7 @@
         <v>140.54</v>
       </c>
       <c r="H23" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I23" t="n">
         <v>101.02</v>
@@ -1800,6 +1868,9 @@
         <v>0.00127</v>
       </c>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4.857308195356648</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1828,7 +1899,7 @@
         <v>148.1</v>
       </c>
       <c r="H24" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I24" t="n">
         <v>101.06</v>
@@ -1858,6 +1929,9 @@
         <v>0</v>
       </c>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4.236483972478102</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1886,7 +1960,7 @@
         <v>139.82</v>
       </c>
       <c r="H25" t="n">
-        <v>131.18</v>
+        <v>55.1</v>
       </c>
       <c r="I25" t="n">
         <v>101.46</v>
@@ -1916,6 +1990,9 @@
         <v>0</v>
       </c>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4.139015990524924</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1944,7 +2021,7 @@
         <v>136.22</v>
       </c>
       <c r="H26" t="n">
-        <v>128.12</v>
+        <v>53.4</v>
       </c>
       <c r="I26" t="n">
         <v>101.52</v>
@@ -1974,6 +2051,9 @@
         <v>0</v>
       </c>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>4.239179716744542</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2002,7 +2082,7 @@
         <v>142.88</v>
       </c>
       <c r="H27" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I27" t="n">
         <v>101.32</v>
@@ -2032,6 +2112,9 @@
         <v>0</v>
       </c>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>4.329384325297108</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2060,7 +2143,7 @@
         <v>150.44</v>
       </c>
       <c r="H28" t="n">
-        <v>142.88</v>
+        <v>61.6</v>
       </c>
       <c r="I28" t="n">
         <v>101.4</v>
@@ -2090,6 +2173,9 @@
         <v>0.000508</v>
       </c>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>4.157205869938572</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2118,7 +2204,7 @@
         <v>132.08</v>
       </c>
       <c r="H29" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I29" t="n">
         <v>101.68</v>
@@ -2148,6 +2234,9 @@
         <v>0</v>
       </c>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>4.163369122618233</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2176,7 +2265,7 @@
         <v>123.44</v>
       </c>
       <c r="H30" t="n">
-        <v>114.44</v>
+        <v>45.8</v>
       </c>
       <c r="I30" t="n">
         <v>101.97</v>
@@ -2206,6 +2295,9 @@
         <v>0.000762</v>
       </c>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>4.298685371531544</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2234,7 +2326,7 @@
         <v>125.78</v>
       </c>
       <c r="H31" t="n">
-        <v>110.12</v>
+        <v>43.4</v>
       </c>
       <c r="I31" t="n">
         <v>102</v>
@@ -2264,6 +2356,9 @@
         <v>0.000762</v>
       </c>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>3.52398928559239</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2292,7 +2387,7 @@
         <v>123.26</v>
       </c>
       <c r="H32" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I32" t="n">
         <v>102.23</v>
@@ -2322,6 +2417,9 @@
         <v>0.000762</v>
       </c>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>3.719051021301388</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2350,7 +2448,7 @@
         <v>122</v>
       </c>
       <c r="H33" t="n">
-        <v>106.34</v>
+        <v>41.3</v>
       </c>
       <c r="I33" t="n">
         <v>102.19</v>
@@ -2380,6 +2478,9 @@
         <v>0.000254</v>
       </c>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>3.559111391599146</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2408,7 +2509,7 @@
         <v>120.92</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I34" t="n">
         <v>102.38</v>
@@ -2438,6 +2539,9 @@
         <v>0.000762</v>
       </c>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>4.137971914910889</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2466,7 +2570,7 @@
         <v>125.6</v>
       </c>
       <c r="H35" t="n">
-        <v>109.94</v>
+        <v>43.3</v>
       </c>
       <c r="I35" t="n">
         <v>102.22</v>
@@ -2496,6 +2600,9 @@
         <v>0</v>
       </c>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>3.525586030640268</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2524,7 +2631,7 @@
         <v>128.84</v>
       </c>
       <c r="H36" t="n">
-        <v>111.38</v>
+        <v>44.1</v>
       </c>
       <c r="I36" t="n">
         <v>102.47</v>
@@ -2554,6 +2661,9 @@
         <v>0</v>
       </c>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>3.321247464514629</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2582,7 +2692,7 @@
         <v>128.3</v>
       </c>
       <c r="H37" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I37" t="n">
         <v>102.3</v>
@@ -2612,6 +2722,9 @@
         <v>0.004318</v>
       </c>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>3.222509026207146</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2640,7 +2753,7 @@
         <v>125.06</v>
       </c>
       <c r="H38" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I38" t="n">
         <v>101.81</v>
@@ -2670,6 +2783,9 @@
         <v>0.01016</v>
       </c>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>4.732128967595121</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2698,7 +2814,7 @@
         <v>133.88</v>
       </c>
       <c r="H39" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I39" t="n">
         <v>101.7</v>
@@ -2728,6 +2844,9 @@
         <v>0.001778</v>
       </c>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>4.162994900220628</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2756,7 +2875,7 @@
         <v>124.88</v>
       </c>
       <c r="H40" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I40" t="n">
         <v>102.05</v>
@@ -2786,6 +2905,9 @@
         <v>0</v>
       </c>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>4.191289363990788</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2814,7 +2936,7 @@
         <v>122.54</v>
       </c>
       <c r="H41" t="n">
-        <v>108.68</v>
+        <v>42.6</v>
       </c>
       <c r="I41" t="n">
         <v>102.11</v>
@@ -2844,6 +2966,9 @@
         <v>0</v>
       </c>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>3.746384635495265</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2872,7 +2997,7 @@
         <v>124.16</v>
       </c>
       <c r="H42" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I42" t="n">
         <v>101.66</v>
@@ -2902,6 +3027,9 @@
         <v>0</v>
       </c>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>4.244487328624118</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2930,7 +3058,7 @@
         <v>128.12</v>
       </c>
       <c r="H43" t="n">
-        <v>120.74</v>
+        <v>49.3</v>
       </c>
       <c r="I43" t="n">
         <v>101.84</v>
@@ -2960,6 +3088,9 @@
         <v>0</v>
       </c>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>4.430096797583398</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2988,7 +3119,7 @@
         <v>125.6</v>
       </c>
       <c r="H44" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I44" t="n">
         <v>101.8</v>
@@ -3018,6 +3149,9 @@
         <v>0.002286</v>
       </c>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>4.965515363099861</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3046,7 +3180,7 @@
         <v>127.22</v>
       </c>
       <c r="H45" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I45" t="n">
         <v>101.97</v>
@@ -3076,6 +3210,9 @@
         <v>0.00127</v>
       </c>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>4.420953722352593</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3104,7 +3241,7 @@
         <v>132.44</v>
       </c>
       <c r="H46" t="n">
-        <v>117.14</v>
+        <v>47.3</v>
       </c>
       <c r="I46" t="n">
         <v>101.88</v>
@@ -3134,6 +3271,9 @@
         <v>0</v>
       </c>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>3.505421119489624</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3162,7 +3302,7 @@
         <v>136.22</v>
       </c>
       <c r="H47" t="n">
-        <v>123.98</v>
+        <v>51.1</v>
       </c>
       <c r="I47" t="n">
         <v>101.69</v>
@@ -3192,6 +3332,9 @@
         <v>0</v>
       </c>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>3.785691949558593</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3220,7 +3363,7 @@
         <v>139.1</v>
       </c>
       <c r="H48" t="n">
-        <v>131.54</v>
+        <v>55.3</v>
       </c>
       <c r="I48" t="n">
         <v>101.12</v>
@@ -3250,6 +3393,9 @@
         <v>0</v>
       </c>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>4.268345187863011</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3278,7 +3424,7 @@
         <v>147.74</v>
       </c>
       <c r="H49" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I49" t="n">
         <v>100.94</v>
@@ -3308,6 +3454,9 @@
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>4.008451423338523</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3336,7 +3485,7 @@
         <v>132.62</v>
       </c>
       <c r="H50" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I50" t="n">
         <v>101.63</v>
@@ -3366,6 +3515,9 @@
         <v>0.006858</v>
       </c>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>4.565719795959936</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3394,7 +3546,7 @@
         <v>118.04</v>
       </c>
       <c r="H51" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I51" t="n">
         <v>102.48</v>
@@ -3424,6 +3576,9 @@
         <v>0.008128</v>
       </c>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>4.359477945910541</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3452,7 +3607,7 @@
         <v>111.02</v>
       </c>
       <c r="H52" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I52" t="n">
         <v>102.68</v>
@@ -3482,6 +3637,9 @@
         <v>0.010668</v>
       </c>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>5.152117830681856</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3510,7 +3668,7 @@
         <v>114.26</v>
       </c>
       <c r="H53" t="n">
-        <v>107.6</v>
+        <v>42</v>
       </c>
       <c r="I53" t="n">
         <v>102.71</v>
@@ -3540,6 +3698,9 @@
         <v>0.000508</v>
       </c>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>4.764696108976583</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3568,7 +3729,7 @@
         <v>111.92</v>
       </c>
       <c r="H54" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I54" t="n">
         <v>103.02</v>
@@ -3598,6 +3759,9 @@
         <v>0.003302</v>
       </c>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>5.239538954811884</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3626,7 +3790,7 @@
         <v>119.3</v>
       </c>
       <c r="H55" t="n">
-        <v>98.96000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="I55" t="n">
         <v>103.01</v>
@@ -3656,6 +3820,9 @@
         <v>0</v>
       </c>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>3.115695146872808</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3684,7 +3851,7 @@
         <v>122.72</v>
       </c>
       <c r="H56" t="n">
-        <v>104.72</v>
+        <v>40.4</v>
       </c>
       <c r="I56" t="n">
         <v>102.84</v>
@@ -3714,6 +3881,9 @@
         <v>0</v>
       </c>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>3.31505372392649</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3742,7 +3912,7 @@
         <v>129.02</v>
       </c>
       <c r="H57" t="n">
-        <v>111.74</v>
+        <v>44.3</v>
       </c>
       <c r="I57" t="n">
         <v>102.39</v>
@@ -3772,6 +3942,9 @@
         <v>0</v>
       </c>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>3.337270529387396</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3800,7 +3973,7 @@
         <v>135.5</v>
       </c>
       <c r="H58" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I58" t="n">
         <v>102.35</v>
@@ -3830,6 +4003,9 @@
         <v>0</v>
       </c>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>3.483014240351565</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3858,7 +4034,7 @@
         <v>138.02</v>
       </c>
       <c r="H59" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I59" t="n">
         <v>101.64</v>
@@ -3888,6 +4064,9 @@
         <v>0</v>
       </c>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>3.678535874790854</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3916,7 +4095,7 @@
         <v>149.9</v>
       </c>
       <c r="H60" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I60" t="n">
         <v>101.39</v>
@@ -3946,6 +4125,9 @@
         <v>0</v>
       </c>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>3.368347381623692</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3974,7 +4156,7 @@
         <v>149</v>
       </c>
       <c r="H61" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I61" t="n">
         <v>101.81</v>
@@ -4004,6 +4186,9 @@
         <v>0</v>
       </c>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>4.035935301427082</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4032,7 +4217,7 @@
         <v>150.62</v>
       </c>
       <c r="H62" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I62" t="n">
         <v>101.52</v>
@@ -4062,6 +4247,9 @@
         <v>0</v>
       </c>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>3.595960507990635</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4090,7 +4278,7 @@
         <v>158</v>
       </c>
       <c r="H63" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I63" t="n">
         <v>101.08</v>
@@ -4120,6 +4308,9 @@
         <v>0</v>
       </c>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>3.337782681690872</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4148,7 +4339,7 @@
         <v>163.76</v>
       </c>
       <c r="H64" t="n">
-        <v>145.76</v>
+        <v>63.2</v>
       </c>
       <c r="I64" t="n">
         <v>101.04</v>
@@ -4178,6 +4369,9 @@
         <v>0</v>
       </c>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>3.130495238496912</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4206,7 +4400,7 @@
         <v>160.52</v>
       </c>
       <c r="H65" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I65" t="n">
         <v>101.01</v>
@@ -4236,6 +4430,9 @@
         <v>0</v>
       </c>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>3.748360274264669</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4264,7 +4461,7 @@
         <v>158.72</v>
       </c>
       <c r="H66" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I66" t="n">
         <v>101.43</v>
@@ -4294,6 +4491,9 @@
         <v>0.012954</v>
       </c>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>4.0028325621641</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4322,7 +4522,7 @@
         <v>152.42</v>
       </c>
       <c r="H67" t="n">
-        <v>133.7</v>
+        <v>56.5</v>
       </c>
       <c r="I67" t="n">
         <v>101.89</v>
@@ -4352,6 +4552,9 @@
         <v>0</v>
       </c>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>3.097145200357123</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4380,7 +4583,7 @@
         <v>157.1</v>
       </c>
       <c r="H68" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I68" t="n">
         <v>101.27</v>
@@ -4410,6 +4613,9 @@
         <v>0</v>
       </c>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>2.03566998280828</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4438,7 +4644,7 @@
         <v>159.44</v>
       </c>
       <c r="H69" t="n">
-        <v>128.48</v>
+        <v>53.6</v>
       </c>
       <c r="I69" t="n">
         <v>101.22</v>
@@ -4468,6 +4674,9 @@
         <v>0</v>
       </c>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>2.228111540911292</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4496,7 +4705,7 @@
         <v>152.06</v>
       </c>
       <c r="H70" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I70" t="n">
         <v>101.35</v>
@@ -4526,6 +4735,9 @@
         <v>0</v>
       </c>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>3.920549854960026</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4554,7 +4766,7 @@
         <v>162.32</v>
       </c>
       <c r="H71" t="n">
-        <v>145.4</v>
+        <v>63</v>
       </c>
       <c r="I71" t="n">
         <v>101.05</v>
@@ -4584,6 +4796,9 @@
         <v>0</v>
       </c>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>3.220462694077633</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4612,7 +4827,7 @@
         <v>161.78</v>
       </c>
       <c r="H72" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I72" t="n">
         <v>100.97</v>
@@ -4642,6 +4857,9 @@
         <v>0</v>
       </c>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>3.481563679609876</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4670,7 +4888,7 @@
         <v>167.54</v>
       </c>
       <c r="H73" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I73" t="n">
         <v>100.94</v>
@@ -4700,6 +4918,9 @@
         <v>0</v>
       </c>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>3.181851696125739</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4728,7 +4949,7 @@
         <v>165.56</v>
       </c>
       <c r="H74" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I74" t="n">
         <v>101.09</v>
@@ -4758,6 +4979,9 @@
         <v>0</v>
       </c>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>3.548027501176435</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4786,7 +5010,7 @@
         <v>170.24</v>
       </c>
       <c r="H75" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I75" t="n">
         <v>100.82</v>
@@ -4816,6 +5040,9 @@
         <v>0</v>
       </c>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>3.039274207935605</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4844,7 +5071,7 @@
         <v>171.86</v>
       </c>
       <c r="H76" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I76" t="n">
         <v>100.48</v>
@@ -4874,6 +5101,9 @@
         <v>0</v>
       </c>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>2.931584876458166</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4902,7 +5132,7 @@
         <v>168.44</v>
       </c>
       <c r="H77" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I77" t="n">
         <v>100.77</v>
@@ -4932,6 +5162,9 @@
         <v>0.010414</v>
       </c>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>3.209212828605555</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4960,7 +5193,7 @@
         <v>167.9</v>
       </c>
       <c r="H78" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I78" t="n">
         <v>100.75</v>
@@ -4990,6 +5223,9 @@
         <v>0</v>
       </c>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>3.21003554906697</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5018,7 +5254,7 @@
         <v>177.08</v>
       </c>
       <c r="H79" t="n">
-        <v>155.84</v>
+        <v>68.8</v>
       </c>
       <c r="I79" t="n">
         <v>100.37</v>
@@ -5048,6 +5284,9 @@
         <v>0</v>
       </c>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>2.881047875715428</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5076,7 +5315,7 @@
         <v>175.46</v>
       </c>
       <c r="H80" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I80" t="n">
         <v>100.43</v>
@@ -5106,6 +5345,9 @@
         <v>0</v>
       </c>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>3.023844638303764</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5134,7 +5376,7 @@
         <v>179.24</v>
       </c>
       <c r="H81" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I81" t="n">
         <v>100.48</v>
@@ -5164,6 +5406,9 @@
         <v>0</v>
       </c>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>2.857242551783609</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5192,7 +5437,7 @@
         <v>149.18</v>
       </c>
       <c r="H82" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I82" t="n">
         <v>101.45</v>
@@ -5222,6 +5467,9 @@
         <v>0.010414</v>
       </c>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>3.850011461592215</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5250,7 +5498,7 @@
         <v>141.44</v>
       </c>
       <c r="H83" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I83" t="n">
         <v>101.62</v>
@@ -5280,6 +5528,9 @@
         <v>0.00508</v>
       </c>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>4.20250641648447</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5308,7 +5559,7 @@
         <v>140.54</v>
       </c>
       <c r="H84" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I84" t="n">
         <v>100.87</v>
@@ -5338,6 +5589,9 @@
         <v>0.004826</v>
       </c>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>4.546265682097117</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5366,7 +5620,7 @@
         <v>162.68</v>
       </c>
       <c r="H85" t="n">
-        <v>151.7</v>
+        <v>66.5</v>
       </c>
       <c r="I85" t="n">
         <v>100.43</v>
@@ -5396,6 +5650,9 @@
         <v>0</v>
       </c>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>3.738264950648769</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5424,7 +5681,7 @@
         <v>166.64</v>
       </c>
       <c r="H86" t="n">
-        <v>144.68</v>
+        <v>62.6</v>
       </c>
       <c r="I86" t="n">
         <v>101.1</v>
@@ -5454,6 +5711,9 @@
         <v>0</v>
       </c>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>2.827820586263877</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5482,7 +5742,7 @@
         <v>149.54</v>
       </c>
       <c r="H87" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I87" t="n">
         <v>101.84</v>
@@ -5512,6 +5772,9 @@
         <v>0.001016</v>
       </c>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>3.227681541137315</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5540,7 +5803,7 @@
         <v>155.12</v>
       </c>
       <c r="H88" t="n">
-        <v>129.56</v>
+        <v>54.2</v>
       </c>
       <c r="I88" t="n">
         <v>101.55</v>
@@ -5570,6 +5833,9 @@
         <v>0.000254</v>
       </c>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>2.575556112863473</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5598,7 +5864,7 @@
         <v>151.16</v>
       </c>
       <c r="H89" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I89" t="n">
         <v>101.33</v>
@@ -5628,6 +5894,9 @@
         <v>0</v>
       </c>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>3.800913726518091</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5656,7 +5925,7 @@
         <v>157.82</v>
       </c>
       <c r="H90" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I90" t="n">
         <v>101.39</v>
@@ -5686,6 +5955,9 @@
         <v>0.000254</v>
       </c>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>4.100020122284479</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5714,7 +5986,7 @@
         <v>151.7</v>
       </c>
       <c r="H91" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I91" t="n">
         <v>102.03</v>
@@ -5744,6 +6016,9 @@
         <v>0.001524</v>
       </c>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>4.381098570898521</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5772,7 +6047,7 @@
         <v>143.96</v>
       </c>
       <c r="H92" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I92" t="n">
         <v>102.76</v>
@@ -5802,6 +6077,9 @@
         <v>0.001016</v>
       </c>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>3.094485532831208</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5830,7 +6108,7 @@
         <v>138.56</v>
       </c>
       <c r="H93" t="n">
-        <v>122.72</v>
+        <v>50.4</v>
       </c>
       <c r="I93" t="n">
         <v>102.76</v>
@@ -5860,6 +6138,9 @@
         <v>0.000508</v>
       </c>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>3.411129429401425</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5888,7 +6169,7 @@
         <v>145.4</v>
       </c>
       <c r="H94" t="n">
-        <v>116.78</v>
+        <v>47.1</v>
       </c>
       <c r="I94" t="n">
         <v>102.26</v>
@@ -5918,6 +6199,9 @@
         <v>0</v>
       </c>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>2.3696084423438</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5946,7 +6230,7 @@
         <v>155.12</v>
       </c>
       <c r="H95" t="n">
-        <v>118.22</v>
+        <v>47.9</v>
       </c>
       <c r="I95" t="n">
         <v>102.04</v>
@@ -5976,6 +6260,9 @@
         <v>0</v>
       </c>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>1.8843745102128</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6004,7 +6291,7 @@
         <v>160.7</v>
       </c>
       <c r="H96" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I96" t="n">
         <v>101.99</v>
@@ -6034,6 +6321,9 @@
         <v>0</v>
       </c>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>2.385750748084845</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6062,7 +6352,7 @@
         <v>161.42</v>
       </c>
       <c r="H97" t="n">
-        <v>132.44</v>
+        <v>55.8</v>
       </c>
       <c r="I97" t="n">
         <v>101.91</v>
@@ -6092,6 +6382,9 @@
         <v>0</v>
       </c>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>2.352293153589063</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6120,7 +6413,7 @@
         <v>163.76</v>
       </c>
       <c r="H98" t="n">
-        <v>129.56</v>
+        <v>54.2</v>
       </c>
       <c r="I98" t="n">
         <v>101.7</v>
@@ -6150,6 +6443,9 @@
         <v>0</v>
       </c>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>2.048431699696657</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6178,7 +6474,7 @@
         <v>164.84</v>
       </c>
       <c r="H99" t="n">
-        <v>125.96</v>
+        <v>52.2</v>
       </c>
       <c r="I99" t="n">
         <v>101.34</v>
@@ -6208,6 +6504,9 @@
         <v>0</v>
       </c>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>1.806475611971572</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6236,7 +6535,7 @@
         <v>168.26</v>
       </c>
       <c r="H100" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I100" t="n">
         <v>100.99</v>
@@ -6266,6 +6565,9 @@
         <v>0.002286</v>
       </c>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>2.317173954278824</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6294,7 +6596,7 @@
         <v>167</v>
       </c>
       <c r="H101" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I101" t="n">
         <v>100.97</v>
@@ -6324,6 +6626,9 @@
         <v>0</v>
       </c>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>2.426610635628732</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6352,7 +6657,7 @@
         <v>173.3</v>
       </c>
       <c r="H102" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I102" t="n">
         <v>100.7</v>
@@ -6382,6 +6687,9 @@
         <v>0</v>
       </c>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>2.347814003892863</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6410,7 +6718,7 @@
         <v>165.38</v>
       </c>
       <c r="H103" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I103" t="n">
         <v>100.58</v>
@@ -6440,6 +6748,9 @@
         <v>0.003556</v>
       </c>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>3.439160013507466</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6468,7 +6779,7 @@
         <v>167.18</v>
       </c>
       <c r="H104" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I104" t="n">
         <v>100.76</v>
@@ -6498,6 +6809,9 @@
         <v>0</v>
       </c>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>2.973407292193499</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6526,7 +6840,7 @@
         <v>179.24</v>
       </c>
       <c r="H105" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I105" t="n">
         <v>100.54</v>
@@ -6556,6 +6870,9 @@
         <v>0</v>
       </c>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>2.317983847033866</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6584,7 +6901,7 @@
         <v>169.34</v>
       </c>
       <c r="H106" t="n">
-        <v>152.42</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I106" t="n">
         <v>100.73</v>
@@ -6614,6 +6931,9 @@
         <v>0.006096</v>
       </c>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>3.207912382868185</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6642,7 +6962,7 @@
         <v>147.56</v>
       </c>
       <c r="H107" t="n">
-        <v>127.22</v>
+        <v>52.9</v>
       </c>
       <c r="I107" t="n">
         <v>101.54</v>
@@ -6672,6 +6992,9 @@
         <v>0.005842</v>
       </c>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>2.978270691506682</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6700,7 +7023,7 @@
         <v>141.62</v>
       </c>
       <c r="H108" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I108" t="n">
         <v>101.85</v>
@@ -6730,6 +7053,9 @@
         <v>0.003302</v>
       </c>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>4.042612898393295</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6758,7 +7084,7 @@
         <v>150.44</v>
       </c>
       <c r="H109" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I109" t="n">
         <v>101.99</v>
@@ -6788,6 +7114,9 @@
         <v>0.00254</v>
       </c>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>3.414393866183782</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6816,7 +7145,7 @@
         <v>156.56</v>
       </c>
       <c r="H110" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I110" t="n">
         <v>101.78</v>
@@ -6846,6 +7175,9 @@
         <v>0.001016</v>
       </c>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>2.754503270694371</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6874,7 +7206,7 @@
         <v>157.28</v>
       </c>
       <c r="H111" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I111" t="n">
         <v>101.31</v>
@@ -6904,6 +7236,9 @@
         <v>0.000762</v>
       </c>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>3.418454517655953</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6932,7 +7267,7 @@
         <v>163.58</v>
       </c>
       <c r="H112" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I112" t="n">
         <v>100.97</v>
@@ -6962,6 +7297,9 @@
         <v>0</v>
       </c>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>3.217794265055181</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6990,7 +7328,7 @@
         <v>170.06</v>
       </c>
       <c r="H113" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I113" t="n">
         <v>100.69</v>
@@ -7020,6 +7358,9 @@
         <v>0</v>
       </c>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>3.264510191604201</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7048,7 +7389,7 @@
         <v>175.28</v>
       </c>
       <c r="H114" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I114" t="n">
         <v>100.64</v>
@@ -7078,6 +7419,9 @@
         <v>0</v>
       </c>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>3.344093399976009</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7106,7 +7450,7 @@
         <v>181.22</v>
       </c>
       <c r="H115" t="n">
-        <v>161.06</v>
+        <v>71.7</v>
       </c>
       <c r="I115" t="n">
         <v>100.15</v>
@@ -7136,6 +7480,9 @@
         <v>0</v>
       </c>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>2.960006719294986</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7164,7 +7511,7 @@
         <v>187.7</v>
       </c>
       <c r="H116" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I116" t="n">
         <v>100.26</v>
@@ -7194,6 +7541,9 @@
         <v>0</v>
       </c>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>2.746870596168093</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7222,7 +7572,7 @@
         <v>192.74</v>
       </c>
       <c r="H117" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I117" t="n">
         <v>100.35</v>
@@ -7252,6 +7602,9 @@
         <v>0</v>
       </c>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>2.490006850483338</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7280,7 +7633,7 @@
         <v>190.4</v>
       </c>
       <c r="H118" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I118" t="n">
         <v>100.54</v>
@@ -7310,6 +7663,9 @@
         <v>0</v>
       </c>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>2.50511013133106</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7338,7 +7694,7 @@
         <v>182.48</v>
       </c>
       <c r="H119" t="n">
-        <v>160.52</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I119" t="n">
         <v>100.78</v>
@@ -7368,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>2.835510300781081</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7396,7 +7755,7 @@
         <v>166.82</v>
       </c>
       <c r="H120" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I120" t="n">
         <v>101.23</v>
@@ -7426,6 +7785,9 @@
         <v>0.019812</v>
       </c>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>3.528305514529223</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7454,7 +7816,7 @@
         <v>150.98</v>
       </c>
       <c r="H121" t="n">
-        <v>130.28</v>
+        <v>54.6</v>
       </c>
       <c r="I121" t="n">
         <v>101.9</v>
@@ -7484,6 +7846,9 @@
         <v>0.000762</v>
       </c>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>2.940967266933665</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7512,7 +7877,7 @@
         <v>162.32</v>
       </c>
       <c r="H122" t="n">
-        <v>127.58</v>
+        <v>53.1</v>
       </c>
       <c r="I122" t="n">
         <v>101.76</v>
@@ -7542,6 +7907,9 @@
         <v>0</v>
       </c>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>2.015688580574743</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7570,7 +7938,7 @@
         <v>153.32</v>
       </c>
       <c r="H123" t="n">
-        <v>133.16</v>
+        <v>56.2</v>
       </c>
       <c r="I123" t="n">
         <v>101.72</v>
@@ -7600,6 +7968,9 @@
         <v>0</v>
       </c>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>2.978668956183109</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7628,7 +7999,7 @@
         <v>160.88</v>
       </c>
       <c r="H124" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I124" t="n">
         <v>101.34</v>
@@ -7658,6 +8029,9 @@
         <v>0</v>
       </c>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>2.374473098130554</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7686,7 +8060,7 @@
         <v>170.6</v>
       </c>
       <c r="H125" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I125" t="n">
         <v>101.04</v>
@@ -7716,6 +8090,9 @@
         <v>0</v>
       </c>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>2.035034552103951</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7744,7 +8121,7 @@
         <v>165.38</v>
       </c>
       <c r="H126" t="n">
-        <v>149.36</v>
+        <v>65.2</v>
       </c>
       <c r="I126" t="n">
         <v>101.11</v>
@@ -7774,6 +8151,9 @@
         <v>0</v>
       </c>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>3.287812924795904</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7802,7 +8182,7 @@
         <v>179.24</v>
       </c>
       <c r="H127" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I127" t="n">
         <v>100.93</v>
@@ -7832,6 +8212,9 @@
         <v>0.000254</v>
       </c>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>2.971880573299785</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7860,7 +8243,7 @@
         <v>172.04</v>
       </c>
       <c r="H128" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I128" t="n">
         <v>100.97</v>
@@ -7890,6 +8273,9 @@
         <v>0.000508</v>
       </c>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>3.453358835319686</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7918,7 +8304,7 @@
         <v>170.6</v>
       </c>
       <c r="H129" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I129" t="n">
         <v>100.9</v>
@@ -7948,6 +8334,9 @@
         <v>0.037846</v>
       </c>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>3.772184474663413</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7976,7 +8365,7 @@
         <v>176</v>
       </c>
       <c r="H130" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I130" t="n">
         <v>100.6</v>
@@ -8006,6 +8395,9 @@
         <v>0.007873999999999999</v>
       </c>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>3.187006905209115</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8034,7 +8426,7 @@
         <v>166.82</v>
       </c>
       <c r="H131" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I131" t="n">
         <v>100.53</v>
@@ -8064,6 +8456,9 @@
         <v>0.04572</v>
       </c>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>4.297440439714125</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8092,7 +8487,7 @@
         <v>166.64</v>
       </c>
       <c r="H132" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I132" t="n">
         <v>100.58</v>
@@ -8122,6 +8517,9 @@
         <v>0.009398</v>
       </c>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>3.855013286797841</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8150,7 +8548,7 @@
         <v>162.68</v>
       </c>
       <c r="H133" t="n">
-        <v>156.38</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I133" t="n">
         <v>100.7</v>
@@ -8180,6 +8578,9 @@
         <v>0.01778</v>
       </c>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>4.195707949057423</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8208,7 +8609,7 @@
         <v>164.66</v>
       </c>
       <c r="H134" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I134" t="n">
         <v>100.89</v>
@@ -8238,6 +8639,9 @@
         <v>0.026416</v>
       </c>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>3.898627419308334</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8266,7 +8670,7 @@
         <v>156.2</v>
       </c>
       <c r="H135" t="n">
-        <v>144.5</v>
+        <v>62.5</v>
       </c>
       <c r="I135" t="n">
         <v>101.49</v>
@@ -8296,6 +8700,9 @@
         <v>0.00127</v>
       </c>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>3.702191079213716</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8324,7 +8731,7 @@
         <v>155.48</v>
       </c>
       <c r="H136" t="n">
-        <v>142.88</v>
+        <v>61.6</v>
       </c>
       <c r="I136" t="n">
         <v>101.54</v>
@@ -8354,6 +8761,9 @@
         <v>0.002286</v>
       </c>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>3.621445028523159</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8382,7 +8792,7 @@
         <v>164.66</v>
       </c>
       <c r="H137" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I137" t="n">
         <v>101.3</v>
@@ -8412,6 +8822,9 @@
         <v>0</v>
       </c>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>2.725365693615999</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8440,7 +8853,7 @@
         <v>171.32</v>
       </c>
       <c r="H138" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I138" t="n">
         <v>101.1</v>
@@ -8470,6 +8883,9 @@
         <v>0</v>
       </c>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>2.905415948463356</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8498,7 +8914,7 @@
         <v>175.82</v>
       </c>
       <c r="H139" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I139" t="n">
         <v>100.95</v>
@@ -8528,6 +8944,9 @@
         <v>0</v>
       </c>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>2.893232438443889</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8556,7 +8975,7 @@
         <v>156.92</v>
       </c>
       <c r="H140" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I140" t="n">
         <v>100.57</v>
@@ -8586,6 +9005,9 @@
         <v>0.012192</v>
       </c>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>4.67518335490568</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8614,7 +9036,7 @@
         <v>160.7</v>
       </c>
       <c r="H141" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I141" t="n">
         <v>100.67</v>
@@ -8644,6 +9066,9 @@
         <v>0.011684</v>
       </c>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>4.577198600278538</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8672,7 +9097,7 @@
         <v>165.74</v>
       </c>
       <c r="H142" t="n">
-        <v>159.8</v>
+        <v>71</v>
       </c>
       <c r="I142" t="n">
         <v>100.9</v>
@@ -8702,6 +9127,9 @@
         <v>0.00254</v>
       </c>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>4.212300672190683</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8730,7 +9158,7 @@
         <v>168.8</v>
       </c>
       <c r="H143" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I143" t="n">
         <v>100.56</v>
@@ -8760,6 +9188,9 @@
         <v>0.032258</v>
       </c>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>4.414864308144996</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8788,7 +9219,7 @@
         <v>180.68</v>
       </c>
       <c r="H144" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I144" t="n">
         <v>100.16</v>
@@ -8818,6 +9249,9 @@
         <v>0.019304</v>
       </c>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>3.557817744551849</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8846,7 +9280,7 @@
         <v>184.1</v>
       </c>
       <c r="H145" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I145" t="n">
         <v>100.04</v>
@@ -8876,6 +9310,9 @@
         <v>0.004318</v>
       </c>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>3.393010126243749</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8904,7 +9341,7 @@
         <v>182.48</v>
       </c>
       <c r="H146" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I146" t="n">
         <v>100.16</v>
@@ -8934,6 +9371,9 @@
         <v>0</v>
       </c>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>3.510580067381435</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8962,7 +9402,7 @@
         <v>168.8</v>
       </c>
       <c r="H147" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I147" t="n">
         <v>100.54</v>
@@ -8992,6 +9432,9 @@
         <v>0.032512</v>
       </c>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>4.284545862153209</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9020,7 +9463,7 @@
         <v>178.34</v>
       </c>
       <c r="H148" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I148" t="n">
         <v>100.39</v>
@@ -9050,6 +9493,9 @@
         <v>0.01016</v>
       </c>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="n">
+        <v>3.546756133687027</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9078,7 +9524,7 @@
         <v>184.28</v>
       </c>
       <c r="H149" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I149" t="n">
         <v>100.14</v>
@@ -9108,6 +9554,9 @@
         <v>0.005333999999999999</v>
       </c>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>3.239223836781528</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9136,7 +9585,7 @@
         <v>186.98</v>
       </c>
       <c r="H150" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I150" t="n">
         <v>99.90000000000001</v>
@@ -9166,6 +9615,9 @@
         <v>0</v>
       </c>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="n">
+        <v>3.14555285156925</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9194,7 +9646,7 @@
         <v>185.36</v>
       </c>
       <c r="H151" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I151" t="n">
         <v>99.82000000000001</v>
@@ -9224,6 +9676,9 @@
         <v>0</v>
       </c>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="n">
+        <v>3.185010276446907</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9252,7 +9707,7 @@
         <v>170.06</v>
       </c>
       <c r="H152" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I152" t="n">
         <v>100.36</v>
@@ -9282,6 +9737,9 @@
         <v>0.005588</v>
       </c>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>4.519846124561226</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9310,7 +9768,7 @@
         <v>186.62</v>
       </c>
       <c r="H153" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I153" t="n">
         <v>100.35</v>
@@ -9340,6 +9798,9 @@
         <v>0.002286</v>
       </c>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>2.698145064305502</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9368,7 +9829,7 @@
         <v>172.76</v>
       </c>
       <c r="H154" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I154" t="n">
         <v>100.33</v>
@@ -9398,6 +9859,9 @@
         <v>0.007619999999999999</v>
       </c>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>4.351770410676675</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9426,7 +9890,7 @@
         <v>175.28</v>
       </c>
       <c r="H155" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I155" t="n">
         <v>100.39</v>
@@ -9456,6 +9920,9 @@
         <v>0</v>
       </c>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>3.804941250566241</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9484,7 +9951,7 @@
         <v>172.76</v>
       </c>
       <c r="H156" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I156" t="n">
         <v>100.61</v>
@@ -9514,6 +9981,9 @@
         <v>0.023622</v>
       </c>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>4.118668133120364</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9542,7 +10012,7 @@
         <v>179.96</v>
       </c>
       <c r="H157" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I157" t="n">
         <v>100.72</v>
@@ -9572,6 +10042,9 @@
         <v>0</v>
       </c>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="n">
+        <v>2.808222137372276</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9600,7 +10073,7 @@
         <v>177.62</v>
       </c>
       <c r="H158" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I158" t="n">
         <v>100.41</v>
@@ -9630,6 +10103,9 @@
         <v>0.004826</v>
       </c>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="n">
+        <v>3.797724064645615</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9658,7 +10134,7 @@
         <v>179.96</v>
       </c>
       <c r="H159" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I159" t="n">
         <v>100.01</v>
@@ -9688,6 +10164,9 @@
         <v>0.000508</v>
       </c>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="n">
+        <v>3.559005983113051</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9716,7 +10195,7 @@
         <v>185.18</v>
       </c>
       <c r="H160" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I160" t="n">
         <v>99.86</v>
@@ -9746,6 +10225,9 @@
         <v>0</v>
       </c>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="n">
+        <v>3.392375768542887</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9774,7 +10256,7 @@
         <v>183.2</v>
       </c>
       <c r="H161" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I161" t="n">
         <v>99.78</v>
@@ -9804,6 +10286,9 @@
         <v>0.00635</v>
       </c>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="n">
+        <v>3.598982474219738</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9832,7 +10317,7 @@
         <v>184.82</v>
       </c>
       <c r="H162" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I162" t="n">
         <v>99.72</v>
@@ -9862,6 +10347,9 @@
         <v>0</v>
       </c>
       <c r="R162" t="inlineStr"/>
+      <c r="S162" t="n">
+        <v>3.672066741141488</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9890,7 +10378,7 @@
         <v>184.82</v>
       </c>
       <c r="H163" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I163" t="n">
         <v>99.91</v>
@@ -9920,6 +10408,9 @@
         <v>0</v>
       </c>
       <c r="R163" t="inlineStr"/>
+      <c r="S163" t="n">
+        <v>3.507965036759207</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9948,7 +10439,7 @@
         <v>185</v>
       </c>
       <c r="H164" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I164" t="n">
         <v>100.57</v>
@@ -9978,6 +10469,9 @@
         <v>0</v>
       </c>
       <c r="R164" t="inlineStr"/>
+      <c r="S164" t="n">
+        <v>3.420995201707377</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10006,7 +10500,7 @@
         <v>187.34</v>
       </c>
       <c r="H165" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I165" t="n">
         <v>100.51</v>
@@ -10036,6 +10530,9 @@
         <v>0</v>
       </c>
       <c r="R165" t="inlineStr"/>
+      <c r="S165" t="n">
+        <v>2.990484816158995</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10064,7 +10561,7 @@
         <v>189.14</v>
       </c>
       <c r="H166" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I166" t="n">
         <v>100.34</v>
@@ -10094,6 +10591,9 @@
         <v>0</v>
       </c>
       <c r="R166" t="inlineStr"/>
+      <c r="S166" t="n">
+        <v>2.578511263777197</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10122,7 +10622,7 @@
         <v>189.68</v>
       </c>
       <c r="H167" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I167" t="n">
         <v>100.38</v>
@@ -10152,6 +10652,9 @@
         <v>0</v>
       </c>
       <c r="R167" t="inlineStr"/>
+      <c r="S167" t="n">
+        <v>2.704072302330372</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10180,7 +10683,7 @@
         <v>188.24</v>
       </c>
       <c r="H168" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I168" t="n">
         <v>100.28</v>
@@ -10210,6 +10713,9 @@
         <v>0</v>
       </c>
       <c r="R168" t="inlineStr"/>
+      <c r="S168" t="n">
+        <v>2.978828906837942</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10238,7 +10744,7 @@
         <v>181.94</v>
       </c>
       <c r="H169" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I169" t="n">
         <v>100.05</v>
@@ -10268,6 +10774,9 @@
         <v>0</v>
       </c>
       <c r="R169" t="inlineStr"/>
+      <c r="S169" t="n">
+        <v>3.337553801876044</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10296,7 +10805,7 @@
         <v>179.42</v>
       </c>
       <c r="H170" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I170" t="n">
         <v>100.12</v>
@@ -10326,6 +10835,9 @@
         <v>0</v>
       </c>
       <c r="R170" t="inlineStr"/>
+      <c r="S170" t="n">
+        <v>3.651519464124463</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10354,7 +10866,7 @@
         <v>178.88</v>
       </c>
       <c r="H171" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I171" t="n">
         <v>100.32</v>
@@ -10384,6 +10896,9 @@
         <v>0.00508</v>
       </c>
       <c r="R171" t="inlineStr"/>
+      <c r="S171" t="n">
+        <v>3.68372043167686</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10412,7 +10927,7 @@
         <v>177.62</v>
       </c>
       <c r="H172" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I172" t="n">
         <v>100.09</v>
@@ -10442,6 +10957,9 @@
         <v>0.000254</v>
       </c>
       <c r="R172" t="inlineStr"/>
+      <c r="S172" t="n">
+        <v>3.961218549479672</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10470,7 +10988,7 @@
         <v>184.46</v>
       </c>
       <c r="H173" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I173" t="n">
         <v>99.77000000000001</v>
@@ -10500,6 +11018,9 @@
         <v>0.001778</v>
       </c>
       <c r="R173" t="inlineStr"/>
+      <c r="S173" t="n">
+        <v>3.09159917012625</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10528,7 +11049,7 @@
         <v>188.6</v>
       </c>
       <c r="H174" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I174" t="n">
         <v>99.71000000000001</v>
@@ -10558,6 +11079,9 @@
         <v>0</v>
       </c>
       <c r="R174" t="inlineStr"/>
+      <c r="S174" t="n">
+        <v>2.831667320642693</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10586,7 +11110,7 @@
         <v>192.74</v>
       </c>
       <c r="H175" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I175" t="n">
         <v>99.78999999999999</v>
@@ -10616,6 +11140,9 @@
         <v>0</v>
       </c>
       <c r="R175" t="inlineStr"/>
+      <c r="S175" t="n">
+        <v>2.543666352585362</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10644,7 +11171,7 @@
         <v>180.14</v>
       </c>
       <c r="H176" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I176" t="n">
         <v>100.14</v>
@@ -10674,6 +11201,9 @@
         <v>0</v>
       </c>
       <c r="R176" t="inlineStr"/>
+      <c r="S176" t="n">
+        <v>3.513778030137554</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10702,7 +11232,7 @@
         <v>187.7</v>
       </c>
       <c r="H177" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I177" t="n">
         <v>100.2</v>
@@ -10732,6 +11262,9 @@
         <v>0</v>
       </c>
       <c r="R177" t="inlineStr"/>
+      <c r="S177" t="n">
+        <v>3.003524456879682</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10760,7 +11293,7 @@
         <v>188.24</v>
       </c>
       <c r="H178" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I178" t="n">
         <v>100.35</v>
@@ -10790,6 +11323,9 @@
         <v>0</v>
       </c>
       <c r="R178" t="inlineStr"/>
+      <c r="S178" t="n">
+        <v>2.843164860692324</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10818,7 +11354,7 @@
         <v>175.1</v>
       </c>
       <c r="H179" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I179" t="n">
         <v>100.54</v>
@@ -10848,6 +11384,9 @@
         <v>0.012446</v>
       </c>
       <c r="R179" t="inlineStr"/>
+      <c r="S179" t="n">
+        <v>4.194845402202995</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10876,7 +11415,7 @@
         <v>173.66</v>
       </c>
       <c r="H180" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I180" t="n">
         <v>100.5</v>
@@ -10906,6 +11445,9 @@
         <v>0.007619999999999999</v>
       </c>
       <c r="R180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>4.255798705474162</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10934,7 +11476,7 @@
         <v>179.78</v>
       </c>
       <c r="H181" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I181" t="n">
         <v>100.47</v>
@@ -10964,6 +11506,9 @@
         <v>0</v>
       </c>
       <c r="R181" t="inlineStr"/>
+      <c r="S181" t="n">
+        <v>3.650763942649837</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10992,7 +11537,7 @@
         <v>188.6</v>
       </c>
       <c r="H182" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I182" t="n">
         <v>100.47</v>
@@ -11022,6 +11567,9 @@
         <v>0</v>
       </c>
       <c r="R182" t="inlineStr"/>
+      <c r="S182" t="n">
+        <v>2.916973832244945</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11050,7 +11598,7 @@
         <v>192.38</v>
       </c>
       <c r="H183" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I183" t="n">
         <v>100.38</v>
@@ -11080,6 +11628,9 @@
         <v>0</v>
       </c>
       <c r="R183" t="inlineStr"/>
+      <c r="S183" t="n">
+        <v>2.755902537929536</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11108,7 +11659,7 @@
         <v>188.6</v>
       </c>
       <c r="H184" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I184" t="n">
         <v>100.35</v>
@@ -11138,6 +11689,9 @@
         <v>0</v>
       </c>
       <c r="R184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>2.807688099704887</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11166,7 +11720,7 @@
         <v>193.82</v>
       </c>
       <c r="H185" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I185" t="n">
         <v>100.34</v>
@@ -11196,6 +11750,9 @@
         <v>0</v>
       </c>
       <c r="R185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>2.388875178277674</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11224,7 +11781,7 @@
         <v>191.3</v>
       </c>
       <c r="H186" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I186" t="n">
         <v>100.29</v>
@@ -11254,6 +11811,9 @@
         <v>0</v>
       </c>
       <c r="R186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>2.78881044198665</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11282,7 +11842,7 @@
         <v>196.7</v>
       </c>
       <c r="H187" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I187" t="n">
         <v>100.18</v>
@@ -11312,6 +11872,9 @@
         <v>0</v>
       </c>
       <c r="R187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>2.543905085532845</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11340,7 +11903,7 @@
         <v>199.4</v>
       </c>
       <c r="H188" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I188" t="n">
         <v>99.92999999999999</v>
@@ -11370,6 +11933,9 @@
         <v>0</v>
       </c>
       <c r="R188" t="inlineStr"/>
+      <c r="S188" t="n">
+        <v>2.573244586713996</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11398,7 +11964,7 @@
         <v>182.3</v>
       </c>
       <c r="H189" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I189" t="n">
         <v>100.04</v>
@@ -11428,6 +11994,9 @@
         <v>0.005842</v>
       </c>
       <c r="R189" t="inlineStr"/>
+      <c r="S189" t="n">
+        <v>3.466732019024966</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11456,7 +12025,7 @@
         <v>189.14</v>
       </c>
       <c r="H190" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I190" t="n">
         <v>100.15</v>
@@ -11486,6 +12055,9 @@
         <v>0.000762</v>
       </c>
       <c r="R190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>3.030410133622553</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11514,7 +12086,7 @@
         <v>180.14</v>
       </c>
       <c r="H191" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I191" t="n">
         <v>100.73</v>
@@ -11544,6 +12116,9 @@
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>3.48409691202047</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11572,7 +12147,7 @@
         <v>183.92</v>
       </c>
       <c r="H192" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I192" t="n">
         <v>100.98</v>
@@ -11602,6 +12177,9 @@
         <v>0.00254</v>
       </c>
       <c r="R192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>3.239255801986701</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11630,7 +12208,7 @@
         <v>187.16</v>
       </c>
       <c r="H193" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I193" t="n">
         <v>100.91</v>
@@ -11660,6 +12238,9 @@
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>2.915116841528798</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11688,7 +12269,7 @@
         <v>194.9</v>
       </c>
       <c r="H194" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I194" t="n">
         <v>100.71</v>
@@ -11718,6 +12299,9 @@
         <v>0</v>
       </c>
       <c r="R194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>2.321705332160902</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11746,7 +12330,7 @@
         <v>198.14</v>
       </c>
       <c r="H195" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I195" t="n">
         <v>100.47</v>
@@ -11776,6 +12360,9 @@
         <v>0</v>
       </c>
       <c r="R195" t="inlineStr"/>
+      <c r="S195" t="n">
+        <v>2.254683922836207</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11804,7 +12391,7 @@
         <v>198.14</v>
       </c>
       <c r="H196" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I196" t="n">
         <v>100.54</v>
@@ -11834,6 +12421,9 @@
         <v>0</v>
       </c>
       <c r="R196" t="inlineStr"/>
+      <c r="S196" t="n">
+        <v>2.245102008239219</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11862,7 +12452,7 @@
         <v>191.84</v>
       </c>
       <c r="H197" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I197" t="n">
         <v>100.43</v>
@@ -11892,6 +12482,9 @@
         <v>0</v>
       </c>
       <c r="R197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>2.607137723462195</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11920,7 +12513,7 @@
         <v>185.18</v>
       </c>
       <c r="H198" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I198" t="n">
         <v>100.45</v>
@@ -11950,6 +12543,9 @@
         <v>0</v>
       </c>
       <c r="R198" t="inlineStr"/>
+      <c r="S198" t="n">
+        <v>2.963067699039388</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11978,7 +12574,7 @@
         <v>187.34</v>
       </c>
       <c r="H199" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I199" t="n">
         <v>100.42</v>
@@ -12008,6 +12604,9 @@
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr"/>
+      <c r="S199" t="n">
+        <v>2.653414680381311</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12036,7 +12635,7 @@
         <v>196.34</v>
       </c>
       <c r="H200" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I200" t="n">
         <v>100.32</v>
@@ -12066,6 +12665,9 @@
         <v>0</v>
       </c>
       <c r="R200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>2.238675914384952</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12094,7 +12696,7 @@
         <v>182.84</v>
       </c>
       <c r="H201" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I201" t="n">
         <v>100.2</v>
@@ -12124,6 +12726,9 @@
         <v>0.003302</v>
       </c>
       <c r="R201" t="inlineStr"/>
+      <c r="S201" t="n">
+        <v>3.437097151756602</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12152,7 +12757,7 @@
         <v>184.1</v>
       </c>
       <c r="H202" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I202" t="n">
         <v>100.3</v>
@@ -12182,6 +12787,9 @@
         <v>0</v>
       </c>
       <c r="R202" t="inlineStr"/>
+      <c r="S202" t="n">
+        <v>2.849682805128038</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12210,7 +12818,7 @@
         <v>187.34</v>
       </c>
       <c r="H203" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I203" t="n">
         <v>100.59</v>
@@ -12240,6 +12848,9 @@
         <v>0</v>
       </c>
       <c r="R203" t="inlineStr"/>
+      <c r="S203" t="n">
+        <v>2.81765558578423</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12268,7 +12879,7 @@
         <v>178.16</v>
       </c>
       <c r="H204" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I204" t="n">
         <v>100.51</v>
@@ -12298,6 +12909,9 @@
         <v>0.001016</v>
       </c>
       <c r="R204" t="inlineStr"/>
+      <c r="S204" t="n">
+        <v>3.942698669549522</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12326,7 +12940,7 @@
         <v>187.16</v>
       </c>
       <c r="H205" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I205" t="n">
         <v>100.39</v>
@@ -12356,6 +12970,9 @@
         <v>0</v>
       </c>
       <c r="R205" t="inlineStr"/>
+      <c r="S205" t="n">
+        <v>2.977658538770457</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12384,7 +13001,7 @@
         <v>188.42</v>
       </c>
       <c r="H206" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I206" t="n">
         <v>100.36</v>
@@ -12414,6 +13031,9 @@
         <v>0</v>
       </c>
       <c r="R206" t="inlineStr"/>
+      <c r="S206" t="n">
+        <v>2.91673339549885</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12442,7 +13062,7 @@
         <v>202.28</v>
       </c>
       <c r="H207" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I207" t="n">
         <v>100.24</v>
@@ -12472,6 +13092,9 @@
         <v>0</v>
       </c>
       <c r="R207" t="inlineStr"/>
+      <c r="S207" t="n">
+        <v>2.00759541321881</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12500,7 +13123,7 @@
         <v>198.14</v>
       </c>
       <c r="H208" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I208" t="n">
         <v>100.27</v>
@@ -12530,6 +13153,9 @@
         <v>0</v>
       </c>
       <c r="R208" t="inlineStr"/>
+      <c r="S208" t="n">
+        <v>2.160415289584047</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12558,7 +13184,7 @@
         <v>179.6</v>
       </c>
       <c r="H209" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I209" t="n">
         <v>100.49</v>
@@ -12588,6 +13214,9 @@
         <v>0.007619999999999999</v>
       </c>
       <c r="R209" t="inlineStr"/>
+      <c r="S209" t="n">
+        <v>3.574737747828973</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12616,7 +13245,7 @@
         <v>185.72</v>
       </c>
       <c r="H210" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I210" t="n">
         <v>100.49</v>
@@ -12646,6 +13275,9 @@
         <v>0</v>
       </c>
       <c r="R210" t="inlineStr"/>
+      <c r="S210" t="n">
+        <v>3.158321577772124</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12674,7 +13306,7 @@
         <v>196.52</v>
       </c>
       <c r="H211" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I211" t="n">
         <v>100.45</v>
@@ -12704,6 +13336,9 @@
         <v>0</v>
       </c>
       <c r="R211" t="inlineStr"/>
+      <c r="S211" t="n">
+        <v>2.554096981881386</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12732,7 +13367,7 @@
         <v>185.36</v>
       </c>
       <c r="H212" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I212" t="n">
         <v>100.15</v>
@@ -12762,6 +13397,9 @@
         <v>0.005333999999999999</v>
       </c>
       <c r="R212" t="inlineStr"/>
+      <c r="S212" t="n">
+        <v>3.001387301451757</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12790,7 +13428,7 @@
         <v>191.84</v>
       </c>
       <c r="H213" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I213" t="n">
         <v>100.75</v>
@@ -12820,6 +13458,9 @@
         <v>0</v>
       </c>
       <c r="R213" t="inlineStr"/>
+      <c r="S213" t="n">
+        <v>2.663107485613462</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12848,7 +13489,7 @@
         <v>194.18</v>
       </c>
       <c r="H214" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I214" t="n">
         <v>100.67</v>
@@ -12878,6 +13519,9 @@
         <v>0</v>
       </c>
       <c r="R214" t="inlineStr"/>
+      <c r="S214" t="n">
+        <v>2.483493019921751</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12906,7 +13550,7 @@
         <v>189.68</v>
       </c>
       <c r="H215" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I215" t="n">
         <v>100.68</v>
@@ -12936,6 +13580,9 @@
         <v>0.00127</v>
       </c>
       <c r="R215" t="inlineStr"/>
+      <c r="S215" t="n">
+        <v>2.681101737192445</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12964,7 +13611,7 @@
         <v>179.06</v>
       </c>
       <c r="H216" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I216" t="n">
         <v>100.81</v>
@@ -12994,6 +13641,9 @@
         <v>0</v>
       </c>
       <c r="R216" t="inlineStr"/>
+      <c r="S216" t="n">
+        <v>2.457240631133875</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13022,7 +13672,7 @@
         <v>172.76</v>
       </c>
       <c r="H217" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I217" t="n">
         <v>101.4</v>
@@ -13052,6 +13702,9 @@
         <v>0.010414</v>
       </c>
       <c r="R217" t="inlineStr"/>
+      <c r="S217" t="n">
+        <v>4.031891582216372</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13080,7 +13733,7 @@
         <v>175.82</v>
       </c>
       <c r="H218" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I218" t="n">
         <v>101.37</v>
@@ -13110,6 +13763,9 @@
         <v>0.004826</v>
       </c>
       <c r="R218" t="inlineStr"/>
+      <c r="S218" t="n">
+        <v>3.917933081598552</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13138,7 +13794,7 @@
         <v>180.86</v>
       </c>
       <c r="H219" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I219" t="n">
         <v>100.92</v>
@@ -13168,6 +13824,9 @@
         <v>0.001016</v>
       </c>
       <c r="R219" t="inlineStr"/>
+      <c r="S219" t="n">
+        <v>3.338307489806223</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13196,7 +13855,7 @@
         <v>177.98</v>
       </c>
       <c r="H220" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I220" t="n">
         <v>100.98</v>
@@ -13226,6 +13885,9 @@
         <v>0.001016</v>
       </c>
       <c r="R220" t="inlineStr"/>
+      <c r="S220" t="n">
+        <v>3.577790133616395</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13254,7 +13916,7 @@
         <v>178.52</v>
       </c>
       <c r="H221" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I221" t="n">
         <v>100.85</v>
@@ -13284,6 +13946,9 @@
         <v>0</v>
       </c>
       <c r="R221" t="inlineStr"/>
+      <c r="S221" t="n">
+        <v>3.747406273133557</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13312,7 +13977,7 @@
         <v>178.52</v>
       </c>
       <c r="H222" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I222" t="n">
         <v>100.43</v>
@@ -13342,6 +14007,9 @@
         <v>0.001778</v>
       </c>
       <c r="R222" t="inlineStr"/>
+      <c r="S222" t="n">
+        <v>3.991276136772509</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13370,7 +14038,7 @@
         <v>191.66</v>
       </c>
       <c r="H223" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I223" t="n">
         <v>100.54</v>
@@ -13400,6 +14068,9 @@
         <v>0</v>
       </c>
       <c r="R223" t="inlineStr"/>
+      <c r="S223" t="n">
+        <v>2.487031661640326</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13428,7 +14099,7 @@
         <v>179.42</v>
       </c>
       <c r="H224" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I224" t="n">
         <v>100.82</v>
@@ -13458,6 +14129,9 @@
         <v>0</v>
       </c>
       <c r="R224" t="inlineStr"/>
+      <c r="S224" t="n">
+        <v>3.792654790908699</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13486,7 +14160,7 @@
         <v>181.58</v>
       </c>
       <c r="H225" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I225" t="n">
         <v>100.91</v>
@@ -13516,6 +14190,9 @@
         <v>0</v>
       </c>
       <c r="R225" t="inlineStr"/>
+      <c r="S225" t="n">
+        <v>3.253608071217198</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13544,7 +14221,7 @@
         <v>181.4</v>
       </c>
       <c r="H226" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I226" t="n">
         <v>101.02</v>
@@ -13574,6 +14251,9 @@
         <v>0</v>
       </c>
       <c r="R226" t="inlineStr"/>
+      <c r="S226" t="n">
+        <v>2.573619312413101</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13602,7 +14282,7 @@
         <v>172.94</v>
       </c>
       <c r="H227" t="n">
-        <v>156.38</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I227" t="n">
         <v>101.28</v>
@@ -13632,6 +14312,9 @@
         <v>0</v>
       </c>
       <c r="R227" t="inlineStr"/>
+      <c r="S227" t="n">
+        <v>3.231929334007221</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13660,7 +14343,7 @@
         <v>170.24</v>
       </c>
       <c r="H228" t="n">
-        <v>155.84</v>
+        <v>68.8</v>
       </c>
       <c r="I228" t="n">
         <v>101.32</v>
@@ -13690,6 +14373,9 @@
         <v>0</v>
       </c>
       <c r="R228" t="inlineStr"/>
+      <c r="S228" t="n">
+        <v>3.411943480810906</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13718,7 +14404,7 @@
         <v>169.88</v>
       </c>
       <c r="H229" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I229" t="n">
         <v>101.2</v>
@@ -13748,6 +14434,9 @@
         <v>0</v>
       </c>
       <c r="R229" t="inlineStr"/>
+      <c r="S229" t="n">
+        <v>3.942253714551448</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13776,7 +14465,7 @@
         <v>175.64</v>
       </c>
       <c r="H230" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I230" t="n">
         <v>100.75</v>
@@ -13806,6 +14495,9 @@
         <v>0</v>
       </c>
       <c r="R230" t="inlineStr"/>
+      <c r="S230" t="n">
+        <v>3.13195684860118</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13834,7 +14526,7 @@
         <v>185.18</v>
       </c>
       <c r="H231" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I231" t="n">
         <v>100.83</v>
@@ -13864,6 +14556,9 @@
         <v>0</v>
       </c>
       <c r="R231" t="inlineStr"/>
+      <c r="S231" t="n">
+        <v>2.58096582381029</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13892,7 +14587,7 @@
         <v>171.14</v>
       </c>
       <c r="H232" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I232" t="n">
         <v>101.05</v>
@@ -13922,6 +14617,9 @@
         <v>0.02870199999999999</v>
       </c>
       <c r="R232" t="inlineStr"/>
+      <c r="S232" t="n">
+        <v>4.745523017964763</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13950,7 +14648,7 @@
         <v>179.6</v>
       </c>
       <c r="H233" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I233" t="n">
         <v>101.24</v>
@@ -13980,6 +14678,9 @@
         <v>0</v>
       </c>
       <c r="R233" t="inlineStr"/>
+      <c r="S233" t="n">
+        <v>3.455327797482707</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14008,7 +14709,7 @@
         <v>173.3</v>
       </c>
       <c r="H234" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I234" t="n">
         <v>101.33</v>
@@ -14038,6 +14739,9 @@
         <v>0</v>
       </c>
       <c r="R234" t="inlineStr"/>
+      <c r="S234" t="n">
+        <v>4.029444252322778</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14066,7 +14770,7 @@
         <v>190.94</v>
       </c>
       <c r="H235" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I235" t="n">
         <v>101.11</v>
@@ -14096,6 +14800,9 @@
         <v>0</v>
       </c>
       <c r="R235" t="inlineStr"/>
+      <c r="S235" t="n">
+        <v>2.229999948016983</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14124,7 +14831,7 @@
         <v>179.24</v>
       </c>
       <c r="H236" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I236" t="n">
         <v>101.37</v>
@@ -14154,6 +14861,9 @@
         <v>0</v>
       </c>
       <c r="R236" t="inlineStr"/>
+      <c r="S236" t="n">
+        <v>3.185392147624602</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14182,7 +14892,7 @@
         <v>167.9</v>
       </c>
       <c r="H237" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I237" t="n">
         <v>101.61</v>
@@ -14212,6 +14922,9 @@
         <v>0</v>
       </c>
       <c r="R237" t="inlineStr"/>
+      <c r="S237" t="n">
+        <v>3.224472583336343</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14240,7 +14953,7 @@
         <v>167.18</v>
       </c>
       <c r="H238" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I238" t="n">
         <v>101.61</v>
@@ -14270,6 +14983,9 @@
         <v>0</v>
       </c>
       <c r="R238" t="inlineStr"/>
+      <c r="S238" t="n">
+        <v>3.153819046697251</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14298,7 +15014,7 @@
         <v>156.92</v>
       </c>
       <c r="H239" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I239" t="n">
         <v>102.4</v>
@@ -14328,6 +15044,9 @@
         <v>0.001524</v>
       </c>
       <c r="R239" t="inlineStr"/>
+      <c r="S239" t="n">
+        <v>3.129810152333857</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14356,7 +15075,7 @@
         <v>165.38</v>
       </c>
       <c r="H240" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I240" t="n">
         <v>101.72</v>
@@ -14386,6 +15105,9 @@
         <v>0</v>
       </c>
       <c r="R240" t="inlineStr"/>
+      <c r="S240" t="n">
+        <v>2.529504743127597</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14414,7 +15136,7 @@
         <v>164.12</v>
       </c>
       <c r="H241" t="n">
-        <v>134.06</v>
+        <v>56.7</v>
       </c>
       <c r="I241" t="n">
         <v>101.63</v>
@@ -14444,6 +15166,9 @@
         <v>0</v>
       </c>
       <c r="R241" t="inlineStr"/>
+      <c r="S241" t="n">
+        <v>2.288976808624667</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14472,7 +15197,7 @@
         <v>161.78</v>
       </c>
       <c r="H242" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I242" t="n">
         <v>101.52</v>
@@ -14502,6 +15227,9 @@
         <v>0</v>
       </c>
       <c r="R242" t="inlineStr"/>
+      <c r="S242" t="n">
+        <v>2.456143947368187</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14530,7 +15258,7 @@
         <v>165.92</v>
       </c>
       <c r="H243" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I243" t="n">
         <v>101.44</v>
@@ -14560,6 +15288,9 @@
         <v>0</v>
       </c>
       <c r="R243" t="inlineStr"/>
+      <c r="S243" t="n">
+        <v>2.113191487745914</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14588,7 +15319,7 @@
         <v>155.3</v>
       </c>
       <c r="H244" t="n">
-        <v>138.92</v>
+        <v>59.4</v>
       </c>
       <c r="I244" t="n">
         <v>101.69</v>
@@ -14618,6 +15349,9 @@
         <v>0</v>
       </c>
       <c r="R244" t="inlineStr"/>
+      <c r="S244" t="n">
+        <v>3.284823904533184</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14646,7 +15380,7 @@
         <v>163.58</v>
       </c>
       <c r="H245" t="n">
-        <v>112.46</v>
+        <v>44.7</v>
       </c>
       <c r="I245" t="n">
         <v>101.69</v>
@@ -14676,6 +15410,9 @@
         <v>0</v>
       </c>
       <c r="R245" t="inlineStr"/>
+      <c r="S245" t="n">
+        <v>1.278043009874299</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14704,7 +15441,7 @@
         <v>159.44</v>
       </c>
       <c r="H246" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I246" t="n">
         <v>101.82</v>
@@ -14734,6 +15471,9 @@
         <v>0</v>
       </c>
       <c r="R246" t="inlineStr"/>
+      <c r="S246" t="n">
+        <v>2.132192024955549</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14762,7 +15502,7 @@
         <v>144.32</v>
       </c>
       <c r="H247" t="n">
-        <v>143.78</v>
+        <v>62.1</v>
       </c>
       <c r="I247" t="n">
         <v>102.08</v>
@@ -14792,6 +15532,9 @@
         <v>0.017018</v>
       </c>
       <c r="R247" t="inlineStr"/>
+      <c r="S247" t="n">
+        <v>5.054467948494242</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14820,7 +15563,7 @@
         <v>182.48</v>
       </c>
       <c r="H248" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I248" t="n">
         <v>101.52</v>
@@ -14850,6 +15593,9 @@
         <v>0</v>
       </c>
       <c r="R248" t="inlineStr"/>
+      <c r="S248" t="n">
+        <v>2.714733086936989</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14878,7 +15624,7 @@
         <v>177.98</v>
       </c>
       <c r="H249" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I249" t="n">
         <v>101.41</v>
@@ -14908,6 +15654,9 @@
         <v>0</v>
       </c>
       <c r="R249" t="inlineStr"/>
+      <c r="S249" t="n">
+        <v>2.422173544228545</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14936,7 +15685,7 @@
         <v>172.4</v>
       </c>
       <c r="H250" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I250" t="n">
         <v>101.27</v>
@@ -14966,6 +15715,9 @@
         <v>0</v>
       </c>
       <c r="R250" t="inlineStr"/>
+      <c r="S250" t="n">
+        <v>3.21831929427477</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14994,7 +15746,7 @@
         <v>162.68</v>
       </c>
       <c r="H251" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I251" t="n">
         <v>101.7</v>
@@ -15024,6 +15776,9 @@
         <v>0</v>
       </c>
       <c r="R251" t="inlineStr"/>
+      <c r="S251" t="n">
+        <v>3.339363177632684</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15052,7 +15807,7 @@
         <v>162.68</v>
       </c>
       <c r="H252" t="n">
-        <v>141.8</v>
+        <v>61</v>
       </c>
       <c r="I252" t="n">
         <v>101.67</v>
@@ -15082,6 +15837,9 @@
         <v>0</v>
       </c>
       <c r="R252" t="inlineStr"/>
+      <c r="S252" t="n">
+        <v>2.9093350284488</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15110,7 +15868,7 @@
         <v>154.76</v>
       </c>
       <c r="H253" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I253" t="n">
         <v>101.86</v>
@@ -15140,6 +15898,9 @@
         <v>0</v>
       </c>
       <c r="R253" t="inlineStr"/>
+      <c r="S253" t="n">
+        <v>2.947496611519415</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15168,7 +15929,7 @@
         <v>159.08</v>
       </c>
       <c r="H254" t="n">
-        <v>132.44</v>
+        <v>55.8</v>
       </c>
       <c r="I254" t="n">
         <v>101.58</v>
@@ -15198,6 +15959,9 @@
         <v>0</v>
       </c>
       <c r="R254" t="inlineStr"/>
+      <c r="S254" t="n">
+        <v>2.502158814661243</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15226,7 +15990,7 @@
         <v>158.36</v>
       </c>
       <c r="H255" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I255" t="n">
         <v>101.58</v>
@@ -15256,6 +16020,9 @@
         <v>0</v>
       </c>
       <c r="R255" t="inlineStr"/>
+      <c r="S255" t="n">
+        <v>2.714134158231734</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15284,7 +16051,7 @@
         <v>150.26</v>
       </c>
       <c r="H256" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I256" t="n">
         <v>101.97</v>
@@ -15314,6 +16081,9 @@
         <v>0</v>
       </c>
       <c r="R256" t="inlineStr"/>
+      <c r="S256" t="n">
+        <v>3.564091882228505</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15342,7 +16112,7 @@
         <v>155.84</v>
       </c>
       <c r="H257" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I257" t="n">
         <v>101.8</v>
@@ -15372,6 +16142,9 @@
         <v>0</v>
       </c>
       <c r="R257" t="inlineStr"/>
+      <c r="S257" t="n">
+        <v>2.987839257276086</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15400,7 +16173,7 @@
         <v>159.62</v>
       </c>
       <c r="H258" t="n">
-        <v>142.16</v>
+        <v>61.2</v>
       </c>
       <c r="I258" t="n">
         <v>101.59</v>
@@ -15430,6 +16203,9 @@
         <v>0</v>
       </c>
       <c r="R258" t="inlineStr"/>
+      <c r="S258" t="n">
+        <v>3.182312892650421</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15458,7 +16234,7 @@
         <v>158.18</v>
       </c>
       <c r="H259" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I259" t="n">
         <v>101.74</v>
@@ -15488,6 +16264,9 @@
         <v>0</v>
       </c>
       <c r="R259" t="inlineStr"/>
+      <c r="S259" t="n">
+        <v>3.185786185240311</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15516,7 +16295,7 @@
         <v>164.84</v>
       </c>
       <c r="H260" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I260" t="n">
         <v>101.54</v>
@@ -15546,6 +16325,9 @@
         <v>0</v>
       </c>
       <c r="R260" t="inlineStr"/>
+      <c r="S260" t="n">
+        <v>2.712730794276669</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15574,7 +16356,7 @@
         <v>167.9</v>
       </c>
       <c r="H261" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I261" t="n">
         <v>101.37</v>
@@ -15604,6 +16386,9 @@
         <v>0</v>
       </c>
       <c r="R261" t="inlineStr"/>
+      <c r="S261" t="n">
+        <v>3.238965164560793</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15632,7 +16417,7 @@
         <v>172.58</v>
       </c>
       <c r="H262" t="n">
-        <v>150.62</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I262" t="n">
         <v>101.38</v>
@@ -15662,6 +16447,9 @@
         <v>0</v>
       </c>
       <c r="R262" t="inlineStr"/>
+      <c r="S262" t="n">
+        <v>2.828262431445032</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15690,7 +16478,7 @@
         <v>165.92</v>
       </c>
       <c r="H263" t="n">
-        <v>152.24</v>
+        <v>66.8</v>
       </c>
       <c r="I263" t="n">
         <v>101.47</v>
@@ -15720,6 +16508,9 @@
         <v>0</v>
       </c>
       <c r="R263" t="inlineStr"/>
+      <c r="S263" t="n">
+        <v>3.484106530478771</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15748,7 +16539,7 @@
         <v>167.36</v>
       </c>
       <c r="H264" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I264" t="n">
         <v>101.25</v>
@@ -15778,6 +16569,9 @@
         <v>0.00127</v>
       </c>
       <c r="R264" t="inlineStr"/>
+      <c r="S264" t="n">
+        <v>4.444156595391589</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15806,7 +16600,7 @@
         <v>154.58</v>
       </c>
       <c r="H265" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I265" t="n">
         <v>101.61</v>
@@ -15836,6 +16630,9 @@
         <v>0.0127</v>
       </c>
       <c r="R265" t="inlineStr"/>
+      <c r="S265" t="n">
+        <v>4.84909490998449</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15864,7 +16661,7 @@
         <v>157.82</v>
       </c>
       <c r="H266" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I266" t="n">
         <v>101.42</v>
@@ -15894,6 +16691,9 @@
         <v>0</v>
       </c>
       <c r="R266" t="inlineStr"/>
+      <c r="S266" t="n">
+        <v>3.990580238798622</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15922,7 +16722,7 @@
         <v>168.44</v>
       </c>
       <c r="H267" t="n">
-        <v>154.94</v>
+        <v>68.3</v>
       </c>
       <c r="I267" t="n">
         <v>101.13</v>
@@ -15952,6 +16752,9 @@
         <v>0</v>
       </c>
       <c r="R267" t="inlineStr"/>
+      <c r="S267" t="n">
+        <v>3.492541819069363</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15980,7 +16783,7 @@
         <v>164.48</v>
       </c>
       <c r="H268" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I268" t="n">
         <v>101.26</v>
@@ -16010,6 +16813,9 @@
         <v>0</v>
       </c>
       <c r="R268" t="inlineStr"/>
+      <c r="S268" t="n">
+        <v>4.021793179605124</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16038,7 +16844,7 @@
         <v>164.12</v>
       </c>
       <c r="H269" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I269" t="n">
         <v>101.37</v>
@@ -16068,6 +16874,9 @@
         <v>0</v>
       </c>
       <c r="R269" t="inlineStr"/>
+      <c r="S269" t="n">
+        <v>3.489603466297565</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16096,7 +16905,7 @@
         <v>163.22</v>
       </c>
       <c r="H270" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I270" t="n">
         <v>101.47</v>
@@ -16126,6 +16935,9 @@
         <v>0.000254</v>
       </c>
       <c r="R270" t="inlineStr"/>
+      <c r="S270" t="n">
+        <v>3.636830628232365</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16154,7 +16966,7 @@
         <v>154.76</v>
       </c>
       <c r="H271" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I271" t="n">
         <v>101.57</v>
@@ -16184,6 +16996,9 @@
         <v>0.019812</v>
       </c>
       <c r="R271" t="inlineStr"/>
+      <c r="S271" t="n">
+        <v>4.977743367113382</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16212,7 +17027,7 @@
         <v>156.56</v>
       </c>
       <c r="H272" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I272" t="n">
         <v>101.1</v>
@@ -16242,6 +17057,9 @@
         <v>0.006096</v>
       </c>
       <c r="R272" t="inlineStr"/>
+      <c r="S272" t="n">
+        <v>4.890517456818311</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16270,7 +17088,7 @@
         <v>171.68</v>
       </c>
       <c r="H273" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I273" t="n">
         <v>100.52</v>
@@ -16300,6 +17118,9 @@
         <v>0</v>
       </c>
       <c r="R273" t="inlineStr"/>
+      <c r="S273" t="n">
+        <v>3.561443604155457</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16328,7 +17149,7 @@
         <v>171.68</v>
       </c>
       <c r="H274" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I274" t="n">
         <v>100.58</v>
@@ -16358,6 +17179,9 @@
         <v>0</v>
       </c>
       <c r="R274" t="inlineStr"/>
+      <c r="S274" t="n">
+        <v>3.36435267912116</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16386,7 +17210,7 @@
         <v>176</v>
       </c>
       <c r="H275" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I275" t="n">
         <v>100.91</v>
@@ -16416,6 +17240,9 @@
         <v>0</v>
       </c>
       <c r="R275" t="inlineStr"/>
+      <c r="S275" t="n">
+        <v>3.299941684611815</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16444,7 +17271,7 @@
         <v>140.54</v>
       </c>
       <c r="H276" t="n">
-        <v>125.96</v>
+        <v>52.2</v>
       </c>
       <c r="I276" t="n">
         <v>102.06</v>
@@ -16474,6 +17301,9 @@
         <v>0.00127</v>
       </c>
       <c r="R276" t="inlineStr"/>
+      <c r="S276" t="n">
+        <v>3.518721272193606</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -16502,7 +17332,7 @@
         <v>124.52</v>
       </c>
       <c r="H277" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I277" t="n">
         <v>102.57</v>
@@ -16532,6 +17362,9 @@
         <v>0</v>
       </c>
       <c r="R277" t="inlineStr"/>
+      <c r="S277" t="n">
+        <v>3.686621555211936</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16560,7 +17393,7 @@
         <v>124.7</v>
       </c>
       <c r="H278" t="n">
-        <v>106.16</v>
+        <v>41.2</v>
       </c>
       <c r="I278" t="n">
         <v>102.28</v>
@@ -16590,6 +17423,9 @@
         <v>0.000254</v>
       </c>
       <c r="R278" t="inlineStr"/>
+      <c r="S278" t="n">
+        <v>3.247485777778242</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16618,7 +17454,7 @@
         <v>127.76</v>
       </c>
       <c r="H279" t="n">
-        <v>119.3</v>
+        <v>48.5</v>
       </c>
       <c r="I279" t="n">
         <v>102.06</v>
@@ -16648,6 +17484,9 @@
         <v>0</v>
       </c>
       <c r="R279" t="inlineStr"/>
+      <c r="S279" t="n">
+        <v>4.303327503056323</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16676,7 +17515,7 @@
         <v>139.1</v>
       </c>
       <c r="H280" t="n">
-        <v>115.34</v>
+        <v>46.3</v>
       </c>
       <c r="I280" t="n">
         <v>102.28</v>
@@ -16706,6 +17545,9 @@
         <v>0</v>
       </c>
       <c r="R280" t="inlineStr"/>
+      <c r="S280" t="n">
+        <v>2.729255972515634</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16734,7 +17576,7 @@
         <v>136.94</v>
       </c>
       <c r="H281" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I281" t="n">
         <v>101.95</v>
@@ -16764,6 +17606,9 @@
         <v>0</v>
       </c>
       <c r="R281" t="inlineStr"/>
+      <c r="S281" t="n">
+        <v>2.894330109007121</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16792,7 +17637,7 @@
         <v>134.24</v>
       </c>
       <c r="H282" t="n">
-        <v>120.92</v>
+        <v>49.4</v>
       </c>
       <c r="I282" t="n">
         <v>102.08</v>
@@ -16822,6 +17667,9 @@
         <v>0</v>
       </c>
       <c r="R282" t="inlineStr"/>
+      <c r="S282" t="n">
+        <v>3.690842820576318</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16850,7 +17698,7 @@
         <v>135.14</v>
       </c>
       <c r="H283" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I283" t="n">
         <v>101.96</v>
@@ -16880,6 +17728,9 @@
         <v>0</v>
       </c>
       <c r="R283" t="inlineStr"/>
+      <c r="S283" t="n">
+        <v>4.508285814959031</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16908,7 +17759,7 @@
         <v>138.38</v>
       </c>
       <c r="H284" t="n">
-        <v>131.54</v>
+        <v>55.3</v>
       </c>
       <c r="I284" t="n">
         <v>101.78</v>
@@ -16938,6 +17789,9 @@
         <v>0</v>
       </c>
       <c r="R284" t="inlineStr"/>
+      <c r="S284" t="n">
+        <v>4.359812930623027</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16966,7 +17820,7 @@
         <v>146.66</v>
       </c>
       <c r="H285" t="n">
-        <v>124.34</v>
+        <v>51.3</v>
       </c>
       <c r="I285" t="n">
         <v>101.82</v>
@@ -16996,6 +17850,9 @@
         <v>0</v>
       </c>
       <c r="R285" t="inlineStr"/>
+      <c r="S285" t="n">
+        <v>2.823385519339122</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17024,7 +17881,7 @@
         <v>142.16</v>
       </c>
       <c r="H286" t="n">
-        <v>122.72</v>
+        <v>50.4</v>
       </c>
       <c r="I286" t="n">
         <v>101.95</v>
@@ -17054,6 +17911,9 @@
         <v>0</v>
       </c>
       <c r="R286" t="inlineStr"/>
+      <c r="S286" t="n">
+        <v>3.070742701607979</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17082,7 +17942,7 @@
         <v>139.1</v>
       </c>
       <c r="H287" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I287" t="n">
         <v>102.14</v>
@@ -17112,6 +17972,9 @@
         <v>0</v>
       </c>
       <c r="R287" t="inlineStr"/>
+      <c r="S287" t="n">
+        <v>3.209708048687268</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17140,7 +18003,7 @@
         <v>139.1</v>
       </c>
       <c r="H288" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I288" t="n">
         <v>102.1</v>
@@ -17170,6 +18033,9 @@
         <v>0</v>
       </c>
       <c r="R288" t="inlineStr"/>
+      <c r="S288" t="n">
+        <v>2.193923713720567</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17198,7 +18064,7 @@
         <v>133.34</v>
       </c>
       <c r="H289" t="n">
-        <v>110.12</v>
+        <v>43.4</v>
       </c>
       <c r="I289" t="n">
         <v>101.54</v>
@@ -17228,6 +18094,9 @@
         <v>0</v>
       </c>
       <c r="R289" t="inlineStr"/>
+      <c r="S289" t="n">
+        <v>2.789458481505159</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17256,7 +18125,7 @@
         <v>139.46</v>
       </c>
       <c r="H290" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I290" t="n">
         <v>102.35</v>
@@ -17286,6 +18155,9 @@
         <v>0</v>
       </c>
       <c r="R290" t="inlineStr"/>
+      <c r="S290" t="n">
+        <v>2.5918156364184</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17314,7 +18186,7 @@
         <v>131.72</v>
       </c>
       <c r="H291" t="n">
-        <v>91.40000000000001</v>
+        <v>33</v>
       </c>
       <c r="I291" t="n">
         <v>103.34</v>
@@ -17344,6 +18216,9 @@
         <v>0</v>
       </c>
       <c r="R291" t="inlineStr"/>
+      <c r="S291" t="n">
+        <v>1.667057021870102</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17372,7 +18247,7 @@
         <v>130.82</v>
       </c>
       <c r="H292" t="n">
-        <v>93.73999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="I292" t="n">
         <v>102.62</v>
@@ -17402,6 +18277,9 @@
         <v>0</v>
       </c>
       <c r="R292" t="inlineStr"/>
+      <c r="S292" t="n">
+        <v>1.843103293897555</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -17430,7 +18308,7 @@
         <v>134.24</v>
       </c>
       <c r="H293" t="n">
-        <v>99.68000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="I293" t="n">
         <v>102.02</v>
@@ -17460,6 +18338,9 @@
         <v>0</v>
       </c>
       <c r="R293" t="inlineStr"/>
+      <c r="S293" t="n">
+        <v>1.992134884856223</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -17488,7 +18369,7 @@
         <v>133.16</v>
       </c>
       <c r="H294" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I294" t="n">
         <v>101.86</v>
@@ -17518,6 +18399,9 @@
         <v>0</v>
       </c>
       <c r="R294" t="inlineStr"/>
+      <c r="S294" t="n">
+        <v>3.360376535968719</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -17546,7 +18430,7 @@
         <v>132.62</v>
       </c>
       <c r="H295" t="n">
-        <v>113.72</v>
+        <v>45.4</v>
       </c>
       <c r="I295" t="n">
         <v>102.1</v>
@@ -17576,6 +18460,9 @@
         <v>0</v>
       </c>
       <c r="R295" t="inlineStr"/>
+      <c r="S295" t="n">
+        <v>3.163015084150969</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17604,7 +18491,7 @@
         <v>136.58</v>
       </c>
       <c r="H296" t="n">
-        <v>112.28</v>
+        <v>44.6</v>
       </c>
       <c r="I296" t="n">
         <v>102.11</v>
@@ -17634,6 +18521,9 @@
         <v>0</v>
       </c>
       <c r="R296" t="inlineStr"/>
+      <c r="S296" t="n">
+        <v>2.693881193386356</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17662,7 +18552,7 @@
         <v>142.16</v>
       </c>
       <c r="H297" t="n">
-        <v>112.82</v>
+        <v>44.9</v>
       </c>
       <c r="I297" t="n">
         <v>101.85</v>
@@ -17692,6 +18582,9 @@
         <v>0</v>
       </c>
       <c r="R297" t="inlineStr"/>
+      <c r="S297" t="n">
+        <v>2.322692800067557</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17720,7 +18613,7 @@
         <v>144.32</v>
       </c>
       <c r="H298" t="n">
-        <v>119.48</v>
+        <v>48.6</v>
       </c>
       <c r="I298" t="n">
         <v>102.07</v>
@@ -17750,6 +18643,9 @@
         <v>0</v>
       </c>
       <c r="R298" t="inlineStr"/>
+      <c r="S298" t="n">
+        <v>2.636803124186877</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17778,7 +18674,7 @@
         <v>138.56</v>
       </c>
       <c r="H299" t="n">
-        <v>119.48</v>
+        <v>48.6</v>
       </c>
       <c r="I299" t="n">
         <v>102.2</v>
@@ -17808,6 +18704,9 @@
         <v>0.002286</v>
       </c>
       <c r="R299" t="inlineStr"/>
+      <c r="S299" t="n">
+        <v>3.116868578853794</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17836,7 +18735,7 @@
         <v>120.38</v>
       </c>
       <c r="H300" t="n">
-        <v>108.14</v>
+        <v>42.3</v>
       </c>
       <c r="I300" t="n">
         <v>102.85</v>
@@ -17866,6 +18765,9 @@
         <v>0.00381</v>
       </c>
       <c r="R300" t="inlineStr"/>
+      <c r="S300" t="n">
+        <v>3.954208848290063</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17894,7 +18796,7 @@
         <v>119.66</v>
       </c>
       <c r="H301" t="n">
-        <v>115.34</v>
+        <v>46.3</v>
       </c>
       <c r="I301" t="n">
         <v>103.05</v>
@@ -17924,6 +18826,9 @@
         <v>0.004318</v>
       </c>
       <c r="R301" t="inlineStr"/>
+      <c r="S301" t="n">
+        <v>4.982931521737384</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17952,7 +18857,7 @@
         <v>130.46</v>
       </c>
       <c r="H302" t="n">
-        <v>117.14</v>
+        <v>47.3</v>
       </c>
       <c r="I302" t="n">
         <v>102.72</v>
@@ -17982,6 +18887,9 @@
         <v>0</v>
       </c>
       <c r="R302" t="inlineStr"/>
+      <c r="S302" t="n">
+        <v>3.724410125672382</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18010,7 +18918,7 @@
         <v>136.76</v>
       </c>
       <c r="H303" t="n">
-        <v>122.54</v>
+        <v>50.3</v>
       </c>
       <c r="I303" t="n">
         <v>102.49</v>
@@ -18040,6 +18948,9 @@
         <v>0</v>
       </c>
       <c r="R303" t="inlineStr"/>
+      <c r="S303" t="n">
+        <v>3.58002199468054</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18068,7 +18979,7 @@
         <v>136.22</v>
       </c>
       <c r="H304" t="n">
-        <v>122.18</v>
+        <v>50.1</v>
       </c>
       <c r="I304" t="n">
         <v>102.72</v>
@@ -18098,6 +19009,9 @@
         <v>0</v>
       </c>
       <c r="R304" t="inlineStr"/>
+      <c r="S304" t="n">
+        <v>3.601981081997464</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18126,7 +19040,7 @@
         <v>139.82</v>
       </c>
       <c r="H305" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I305" t="n">
         <v>102.5</v>
@@ -18156,6 +19070,9 @@
         <v>0</v>
       </c>
       <c r="R305" t="inlineStr"/>
+      <c r="S305" t="n">
+        <v>3.142619513819388</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18184,7 +19101,7 @@
         <v>145.76</v>
       </c>
       <c r="H306" t="n">
-        <v>118.76</v>
+        <v>48.2</v>
       </c>
       <c r="I306" t="n">
         <v>102.21</v>
@@ -18214,6 +19131,9 @@
         <v>0</v>
       </c>
       <c r="R306" t="inlineStr"/>
+      <c r="S306" t="n">
+        <v>2.480168251076393</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18242,7 +19162,7 @@
         <v>143.96</v>
       </c>
       <c r="H307" t="n">
-        <v>125.24</v>
+        <v>51.8</v>
       </c>
       <c r="I307" t="n">
         <v>102.56</v>
@@ -18272,6 +19192,9 @@
         <v>0</v>
       </c>
       <c r="R307" t="inlineStr"/>
+      <c r="S307" t="n">
+        <v>3.125194653679864</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18300,7 +19223,7 @@
         <v>134.96</v>
       </c>
       <c r="H308" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I308" t="n">
         <v>102.76</v>
@@ -18330,6 +19253,9 @@
         <v>0</v>
       </c>
       <c r="R308" t="inlineStr"/>
+      <c r="S308" t="n">
+        <v>2.9167736161924</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18358,7 +19284,7 @@
         <v>135.5</v>
       </c>
       <c r="H309" t="n">
-        <v>110.66</v>
+        <v>43.7</v>
       </c>
       <c r="I309" t="n">
         <v>102.1</v>
@@ -18388,6 +19314,9 @@
         <v>0</v>
       </c>
       <c r="R309" t="inlineStr"/>
+      <c r="S309" t="n">
+        <v>2.654990453393785</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -18416,7 +19345,7 @@
         <v>139.82</v>
       </c>
       <c r="H310" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I310" t="n">
         <v>101.93</v>
@@ -18446,6 +19375,9 @@
         <v>0</v>
       </c>
       <c r="R310" t="inlineStr"/>
+      <c r="S310" t="n">
+        <v>3.018777397180731</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -18474,7 +19406,7 @@
         <v>139.1</v>
       </c>
       <c r="H311" t="n">
-        <v>128.84</v>
+        <v>53.8</v>
       </c>
       <c r="I311" t="n">
         <v>102.01</v>
@@ -18504,6 +19436,9 @@
         <v>0</v>
       </c>
       <c r="R311" t="inlineStr"/>
+      <c r="S311" t="n">
+        <v>3.969235828920429</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -18532,7 +19467,7 @@
         <v>143.96</v>
       </c>
       <c r="H312" t="n">
-        <v>130.28</v>
+        <v>54.6</v>
       </c>
       <c r="I312" t="n">
         <v>101.82</v>
@@ -18562,6 +19497,9 @@
         <v>0</v>
       </c>
       <c r="R312" t="inlineStr"/>
+      <c r="S312" t="n">
+        <v>3.583549965195562</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -18590,7 +19528,7 @@
         <v>149.9</v>
       </c>
       <c r="H313" t="n">
-        <v>140.54</v>
+        <v>60.3</v>
       </c>
       <c r="I313" t="n">
         <v>101.33</v>
@@ -18620,6 +19558,9 @@
         <v>0</v>
       </c>
       <c r="R313" t="inlineStr"/>
+      <c r="S313" t="n">
+        <v>3.972872197886338</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18648,7 +19589,7 @@
         <v>153.32</v>
       </c>
       <c r="H314" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I314" t="n">
         <v>100.82</v>
@@ -18678,6 +19619,9 @@
         <v>0</v>
       </c>
       <c r="R314" t="inlineStr"/>
+      <c r="S314" t="n">
+        <v>3.683453997795798</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18706,7 +19650,7 @@
         <v>155.66</v>
       </c>
       <c r="H315" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I315" t="n">
         <v>100.38</v>
@@ -18736,6 +19680,9 @@
         <v>0</v>
       </c>
       <c r="R315" t="inlineStr"/>
+      <c r="S315" t="n">
+        <v>3.237791195842381</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18764,7 +19711,7 @@
         <v>156.38</v>
       </c>
       <c r="H316" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I316" t="n">
         <v>100.88</v>
@@ -18794,6 +19741,9 @@
         <v>0</v>
       </c>
       <c r="R316" t="inlineStr"/>
+      <c r="S316" t="n">
+        <v>2.821273730062223</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18822,7 +19772,7 @@
         <v>128.84</v>
       </c>
       <c r="H317" t="n">
-        <v>94.63999999999999</v>
+        <v>34.8</v>
       </c>
       <c r="I317" t="n">
         <v>102.24</v>
@@ -18852,6 +19802,9 @@
         <v>0</v>
       </c>
       <c r="R317" t="inlineStr"/>
+      <c r="S317" t="n">
+        <v>2.014562788149054</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18880,7 +19833,7 @@
         <v>122.18</v>
       </c>
       <c r="H318" t="n">
-        <v>86.72</v>
+        <v>30.4</v>
       </c>
       <c r="I318" t="n">
         <v>102.5</v>
@@ -18910,6 +19863,9 @@
         <v>0</v>
       </c>
       <c r="R318" t="inlineStr"/>
+      <c r="S318" t="n">
+        <v>1.939637495664054</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18938,7 +19894,7 @@
         <v>124.52</v>
       </c>
       <c r="H319" t="n">
-        <v>93.73999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="I319" t="n">
         <v>102.72</v>
@@ -18968,6 +19924,9 @@
         <v>0</v>
       </c>
       <c r="R319" t="inlineStr"/>
+      <c r="S319" t="n">
+        <v>2.243914664620076</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -18996,7 +19955,7 @@
         <v>125.24</v>
       </c>
       <c r="H320" t="n">
-        <v>97.34</v>
+        <v>36.3</v>
       </c>
       <c r="I320" t="n">
         <v>102.6</v>
@@ -19026,6 +19985,9 @@
         <v>0</v>
       </c>
       <c r="R320" t="inlineStr"/>
+      <c r="S320" t="n">
+        <v>2.45003714078483</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19054,7 +20016,7 @@
         <v>127.76</v>
       </c>
       <c r="H321" t="n">
-        <v>109.04</v>
+        <v>42.8</v>
       </c>
       <c r="I321" t="n">
         <v>102.48</v>
@@ -19084,6 +20046,9 @@
         <v>0</v>
       </c>
       <c r="R321" t="inlineStr"/>
+      <c r="S321" t="n">
+        <v>3.209210634406944</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19112,7 +20077,7 @@
         <v>133.52</v>
       </c>
       <c r="H322" t="n">
-        <v>110.48</v>
+        <v>43.6</v>
       </c>
       <c r="I322" t="n">
         <v>102.22</v>
@@ -19142,6 +20107,9 @@
         <v>0</v>
       </c>
       <c r="R322" t="inlineStr"/>
+      <c r="S322" t="n">
+        <v>2.803429804939704</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19170,7 +20138,7 @@
         <v>133.88</v>
       </c>
       <c r="H323" t="n">
-        <v>113.9</v>
+        <v>45.5</v>
       </c>
       <c r="I323" t="n">
         <v>101.48</v>
@@ -19200,6 +20168,9 @@
         <v>0</v>
       </c>
       <c r="R323" t="inlineStr"/>
+      <c r="S323" t="n">
+        <v>3.060213166536745</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19228,7 +20199,7 @@
         <v>128.84</v>
       </c>
       <c r="H324" t="n">
-        <v>91.03999999999999</v>
+        <v>32.8</v>
       </c>
       <c r="I324" t="n">
         <v>102.8</v>
@@ -19258,6 +20229,9 @@
         <v>0</v>
       </c>
       <c r="R324" t="inlineStr"/>
+      <c r="S324" t="n">
+        <v>1.801269227752974</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19286,7 +20260,7 @@
         <v>133.34</v>
       </c>
       <c r="H325" t="n">
-        <v>89.24000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="I325" t="n">
         <v>101.72</v>
@@ -19316,6 +20290,9 @@
         <v>0</v>
       </c>
       <c r="R325" t="inlineStr"/>
+      <c r="S325" t="n">
+        <v>1.482804575184419</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19344,7 +20321,7 @@
         <v>126.5</v>
       </c>
       <c r="H326" t="n">
-        <v>111.56</v>
+        <v>44.2</v>
       </c>
       <c r="I326" t="n">
         <v>102.14</v>
@@ -19374,6 +20351,9 @@
         <v>0</v>
       </c>
       <c r="R326" t="inlineStr"/>
+      <c r="S326" t="n">
+        <v>3.591688465678602</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -19402,7 +20382,7 @@
         <v>132.08</v>
       </c>
       <c r="H327" t="n">
-        <v>86.36</v>
+        <v>30.2</v>
       </c>
       <c r="I327" t="n">
         <v>102.8</v>
@@ -19432,6 +20412,9 @@
         <v>0</v>
       </c>
       <c r="R327" t="inlineStr"/>
+      <c r="S327" t="n">
+        <v>1.406178338029465</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -19460,7 +20443,7 @@
         <v>128.84</v>
       </c>
       <c r="H328" t="n">
-        <v>81.5</v>
+        <v>27.5</v>
       </c>
       <c r="I328" t="n">
         <v>102.71</v>
@@ -19490,6 +20473,9 @@
         <v>0</v>
       </c>
       <c r="R328" t="inlineStr"/>
+      <c r="S328" t="n">
+        <v>1.328352850125716</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -19518,7 +20504,7 @@
         <v>132.26</v>
       </c>
       <c r="H329" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I329" t="n">
         <v>102.39</v>
@@ -19548,6 +20534,9 @@
         <v>0</v>
       </c>
       <c r="R329" t="inlineStr"/>
+      <c r="S329" t="n">
+        <v>1.514960511068935</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -19576,7 +20565,7 @@
         <v>135.5</v>
       </c>
       <c r="H330" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I330" t="n">
         <v>101.85</v>
@@ -19606,6 +20595,9 @@
         <v>0</v>
       </c>
       <c r="R330" t="inlineStr"/>
+      <c r="S330" t="n">
+        <v>1.662698417622994</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -19634,7 +20626,7 @@
         <v>133.7</v>
       </c>
       <c r="H331" t="n">
-        <v>107.24</v>
+        <v>41.8</v>
       </c>
       <c r="I331" t="n">
         <v>101.06</v>
@@ -19664,6 +20656,9 @@
         <v>0</v>
       </c>
       <c r="R331" t="inlineStr"/>
+      <c r="S331" t="n">
+        <v>2.536652150345435</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19692,7 +20687,7 @@
         <v>147.56</v>
       </c>
       <c r="H332" t="n">
-        <v>124.88</v>
+        <v>51.6</v>
       </c>
       <c r="I332" t="n">
         <v>101.26</v>
@@ -19722,6 +20717,9 @@
         <v>0</v>
       </c>
       <c r="R332" t="inlineStr"/>
+      <c r="S332" t="n">
+        <v>2.793776223270003</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -19750,7 +20748,7 @@
         <v>150.98</v>
       </c>
       <c r="H333" t="n">
-        <v>143.06</v>
+        <v>61.7</v>
       </c>
       <c r="I333" t="n">
         <v>101.6</v>
@@ -19780,6 +20778,9 @@
         <v>0.000254</v>
       </c>
       <c r="R333" t="inlineStr"/>
+      <c r="S333" t="n">
+        <v>4.114481225236203</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19808,7 +20809,7 @@
         <v>140.36</v>
       </c>
       <c r="H334" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I334" t="n">
         <v>101.46</v>
@@ -19838,6 +20839,9 @@
         <v>0.000508</v>
       </c>
       <c r="R334" t="inlineStr"/>
+      <c r="S334" t="n">
+        <v>5.093466194208644</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19866,7 +20870,7 @@
         <v>133.52</v>
       </c>
       <c r="H335" t="n">
-        <v>131.9</v>
+        <v>55.5</v>
       </c>
       <c r="I335" t="n">
         <v>101.43</v>
@@ -19896,6 +20900,9 @@
         <v>0.001016</v>
       </c>
       <c r="R335" t="inlineStr"/>
+      <c r="S335" t="n">
+        <v>5.090108587464854</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19924,7 +20931,7 @@
         <v>135.68</v>
       </c>
       <c r="H336" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I336" t="n">
         <v>101.34</v>
@@ -19954,6 +20961,9 @@
         <v>0.000254</v>
       </c>
       <c r="R336" t="inlineStr"/>
+      <c r="S336" t="n">
+        <v>5.100577306091661</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -19982,7 +20992,7 @@
         <v>139.46</v>
       </c>
       <c r="H337" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I337" t="n">
         <v>101.38</v>
@@ -20012,6 +21022,9 @@
         <v>0.000508</v>
       </c>
       <c r="R337" t="inlineStr"/>
+      <c r="S337" t="n">
+        <v>5.156484845629834</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20040,7 +21053,7 @@
         <v>145.58</v>
       </c>
       <c r="H338" t="n">
-        <v>143.42</v>
+        <v>61.9</v>
       </c>
       <c r="I338" t="n">
         <v>101.26</v>
@@ -20070,6 +21083,9 @@
         <v>0</v>
       </c>
       <c r="R338" t="inlineStr"/>
+      <c r="S338" t="n">
+        <v>4.831340724602307</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20098,7 +21114,7 @@
         <v>141.62</v>
       </c>
       <c r="H339" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I339" t="n">
         <v>101.17</v>
@@ -20128,6 +21144,9 @@
         <v>0.001016</v>
       </c>
       <c r="R339" t="inlineStr"/>
+      <c r="S339" t="n">
+        <v>5.168333039341715</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20156,7 +21175,7 @@
         <v>168.26</v>
       </c>
       <c r="H340" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I340" t="n">
         <v>100.51</v>
@@ -20186,6 +21205,9 @@
         <v>0</v>
       </c>
       <c r="R340" t="inlineStr"/>
+      <c r="S340" t="n">
+        <v>2.416899068262742</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20214,7 +21236,7 @@
         <v>150.8</v>
       </c>
       <c r="H341" t="n">
-        <v>118.94</v>
+        <v>48.3</v>
       </c>
       <c r="I341" t="n">
         <v>101.68</v>
@@ -20244,6 +21266,9 @@
         <v>0</v>
       </c>
       <c r="R341" t="inlineStr"/>
+      <c r="S341" t="n">
+        <v>2.164296131677438</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20272,7 +21297,7 @@
         <v>138.02</v>
       </c>
       <c r="H342" t="n">
-        <v>105.08</v>
+        <v>40.6</v>
       </c>
       <c r="I342" t="n">
         <v>102.42</v>
@@ -20302,6 +21327,9 @@
         <v>0</v>
       </c>
       <c r="R342" t="inlineStr"/>
+      <c r="S342" t="n">
+        <v>2.091714077535444</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -20330,7 +21358,7 @@
         <v>150.26</v>
       </c>
       <c r="H343" t="n">
-        <v>128.3</v>
+        <v>53.5</v>
       </c>
       <c r="I343" t="n">
         <v>101.64</v>
@@ -20360,6 +21388,9 @@
         <v>0</v>
       </c>
       <c r="R343" t="inlineStr"/>
+      <c r="S343" t="n">
+        <v>2.844037939118508</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -20388,7 +21419,7 @@
         <v>153.5</v>
       </c>
       <c r="H344" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I344" t="n">
         <v>101.8</v>
@@ -20418,6 +21449,9 @@
         <v>0.00381</v>
       </c>
       <c r="R344" t="inlineStr"/>
+      <c r="S344" t="n">
+        <v>3.32215637038331</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -20446,7 +21480,7 @@
         <v>152.24</v>
       </c>
       <c r="H345" t="n">
-        <v>126.14</v>
+        <v>52.3</v>
       </c>
       <c r="I345" t="n">
         <v>101.9</v>
@@ -20476,6 +21510,9 @@
         <v>0</v>
       </c>
       <c r="R345" t="inlineStr"/>
+      <c r="S345" t="n">
+        <v>2.53903150039277</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -20504,7 +21541,7 @@
         <v>136.94</v>
       </c>
       <c r="H346" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I346" t="n">
         <v>101.91</v>
@@ -20534,6 +21571,9 @@
         <v>0.003556</v>
       </c>
       <c r="R346" t="inlineStr"/>
+      <c r="S346" t="n">
+        <v>5.249928505269915</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -20562,7 +21602,7 @@
         <v>145.04</v>
       </c>
       <c r="H347" t="n">
-        <v>137.66</v>
+        <v>58.7</v>
       </c>
       <c r="I347" t="n">
         <v>101.6</v>
@@ -20592,6 +21632,9 @@
         <v>0</v>
       </c>
       <c r="R347" t="inlineStr"/>
+      <c r="S347" t="n">
+        <v>4.226226083233609</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -20620,7 +21663,7 @@
         <v>136.58</v>
       </c>
       <c r="H348" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I348" t="n">
         <v>102.67</v>
@@ -20650,6 +21693,9 @@
         <v>0</v>
       </c>
       <c r="R348" t="inlineStr"/>
+      <c r="S348" t="n">
+        <v>3.110341573109971</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -20678,7 +21724,7 @@
         <v>136.58</v>
       </c>
       <c r="H349" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I349" t="n">
         <v>102.98</v>
@@ -20708,6 +21754,9 @@
         <v>0</v>
       </c>
       <c r="R349" t="inlineStr"/>
+      <c r="S349" t="n">
+        <v>2.504415221325849</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20736,7 +21785,7 @@
         <v>146.3</v>
       </c>
       <c r="H350" t="n">
-        <v>105.08</v>
+        <v>40.6</v>
       </c>
       <c r="I350" t="n">
         <v>102.68</v>
@@ -20766,6 +21815,9 @@
         <v>0</v>
       </c>
       <c r="R350" t="inlineStr"/>
+      <c r="S350" t="n">
+        <v>1.646131604260921</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20794,7 +21846,7 @@
         <v>142.16</v>
       </c>
       <c r="H351" t="n">
-        <v>111.2</v>
+        <v>44</v>
       </c>
       <c r="I351" t="n">
         <v>102.31</v>
@@ -20824,6 +21876,9 @@
         <v>0</v>
       </c>
       <c r="R351" t="inlineStr"/>
+      <c r="S351" t="n">
+        <v>2.216710160636718</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20852,7 +21907,7 @@
         <v>156.74</v>
       </c>
       <c r="H352" t="n">
-        <v>122.36</v>
+        <v>50.2</v>
       </c>
       <c r="I352" t="n">
         <v>101.94</v>
@@ -20882,6 +21937,9 @@
         <v>0</v>
       </c>
       <c r="R352" t="inlineStr"/>
+      <c r="S352" t="n">
+        <v>2.024933536702699</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20910,7 +21968,7 @@
         <v>151.7</v>
       </c>
       <c r="H353" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I353" t="n">
         <v>102.35</v>
@@ -20940,6 +21998,9 @@
         <v>0</v>
       </c>
       <c r="R353" t="inlineStr"/>
+      <c r="S353" t="n">
+        <v>2.911139109216098</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20968,7 +22029,7 @@
         <v>150.08</v>
       </c>
       <c r="H354" t="n">
-        <v>126.32</v>
+        <v>52.4</v>
       </c>
       <c r="I354" t="n">
         <v>102.39</v>
@@ -20998,6 +22059,9 @@
         <v>0</v>
       </c>
       <c r="R354" t="inlineStr"/>
+      <c r="S354" t="n">
+        <v>2.708424634147629</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21026,7 +22090,7 @@
         <v>139.46</v>
       </c>
       <c r="H355" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I355" t="n">
         <v>102.7</v>
@@ -21056,6 +22120,9 @@
         <v>0.003556</v>
       </c>
       <c r="R355" t="inlineStr"/>
+      <c r="S355" t="n">
+        <v>4.942893065386008</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21084,7 +22151,7 @@
         <v>159.98</v>
       </c>
       <c r="H356" t="n">
-        <v>133.16</v>
+        <v>56.2</v>
       </c>
       <c r="I356" t="n">
         <v>101.96</v>
@@ -21114,6 +22181,9 @@
         <v>0</v>
       </c>
       <c r="R356" t="inlineStr"/>
+      <c r="S356" t="n">
+        <v>2.490543093573463</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21142,7 +22212,7 @@
         <v>164.3</v>
       </c>
       <c r="H357" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I357" t="n">
         <v>101.63</v>
@@ -21172,6 +22242,9 @@
         <v>0</v>
       </c>
       <c r="R357" t="inlineStr"/>
+      <c r="S357" t="n">
+        <v>2.355583500014174</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21200,7 +22273,7 @@
         <v>164.48</v>
       </c>
       <c r="H358" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I358" t="n">
         <v>101.54</v>
@@ -21230,6 +22303,9 @@
         <v>0</v>
       </c>
       <c r="R358" t="inlineStr"/>
+      <c r="S358" t="n">
+        <v>2.412321753272313</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21258,7 +22334,7 @@
         <v>171.32</v>
       </c>
       <c r="H359" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I359" t="n">
         <v>101.68</v>
@@ -21288,6 +22364,9 @@
         <v>0</v>
       </c>
       <c r="R359" t="inlineStr"/>
+      <c r="S359" t="n">
+        <v>1.979781804208401</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -21316,7 +22395,7 @@
         <v>172.4</v>
       </c>
       <c r="H360" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I360" t="n">
         <v>101.21</v>
@@ -21346,6 +22425,9 @@
         <v>0</v>
       </c>
       <c r="R360" t="inlineStr"/>
+      <c r="S360" t="n">
+        <v>2.208821076445604</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -21374,7 +22456,7 @@
         <v>143.42</v>
       </c>
       <c r="H361" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I361" t="n">
         <v>102.27</v>
@@ -21404,6 +22486,9 @@
         <v>0</v>
       </c>
       <c r="R361" t="inlineStr"/>
+      <c r="S361" t="n">
+        <v>2.546220953252903</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -21432,7 +22517,7 @@
         <v>158.9</v>
       </c>
       <c r="H362" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I362" t="n">
         <v>101.35</v>
@@ -21462,6 +22547,9 @@
         <v>0</v>
       </c>
       <c r="R362" t="inlineStr"/>
+      <c r="S362" t="n">
+        <v>3.540305655106633</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -21490,7 +22578,7 @@
         <v>164.66</v>
       </c>
       <c r="H363" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I363" t="n">
         <v>101.2</v>
@@ -21520,6 +22608,9 @@
         <v>0</v>
       </c>
       <c r="R363" t="inlineStr"/>
+      <c r="S363" t="n">
+        <v>3.172098337703449</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -21548,7 +22639,7 @@
         <v>176</v>
       </c>
       <c r="H364" t="n">
-        <v>145.04</v>
+        <v>62.8</v>
       </c>
       <c r="I364" t="n">
         <v>101.08</v>
@@ -21578,6 +22669,9 @@
         <v>0</v>
       </c>
       <c r="R364" t="inlineStr"/>
+      <c r="S364" t="n">
+        <v>2.258302980212183</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -21606,7 +22700,7 @@
         <v>172.4</v>
       </c>
       <c r="H365" t="n">
-        <v>148.46</v>
+        <v>64.7</v>
       </c>
       <c r="I365" t="n">
         <v>100.86</v>
@@ -21636,6 +22730,9 @@
         <v>0</v>
       </c>
       <c r="R365" t="inlineStr"/>
+      <c r="S365" t="n">
+        <v>2.691213932449221</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -21664,7 +22761,7 @@
         <v>168.08</v>
       </c>
       <c r="H366" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I366" t="n">
         <v>100.67</v>
@@ -21694,6 +22791,9 @@
         <v>0</v>
       </c>
       <c r="R366" t="inlineStr"/>
+      <c r="S366" t="n">
+        <v>3.096322243235349</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -21722,7 +22822,7 @@
         <v>172.58</v>
       </c>
       <c r="H367" t="n">
-        <v>152.24</v>
+        <v>66.8</v>
       </c>
       <c r="I367" t="n">
         <v>100.26</v>
@@ -21752,6 +22852,9 @@
         <v>0</v>
       </c>
       <c r="R367" t="inlineStr"/>
+      <c r="S367" t="n">
+        <v>2.944670636707566</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21780,7 +22883,7 @@
         <v>179.24</v>
       </c>
       <c r="H368" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I368" t="n">
         <v>100.03</v>
@@ -21810,6 +22913,9 @@
         <v>0.002794</v>
       </c>
       <c r="R368" t="inlineStr"/>
+      <c r="S368" t="n">
+        <v>2.049581859690304</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21838,7 +22944,7 @@
         <v>182.12</v>
       </c>
       <c r="H369" t="n">
-        <v>152.42</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I369" t="n">
         <v>100.1</v>
@@ -21868,6 +22974,9 @@
         <v>0</v>
       </c>
       <c r="R369" t="inlineStr"/>
+      <c r="S369" t="n">
+        <v>2.345923875577576</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21896,7 +23005,7 @@
         <v>151.7</v>
       </c>
       <c r="H370" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I370" t="n">
         <v>101.37</v>
@@ -21926,6 +23035,9 @@
         <v>0.00508</v>
       </c>
       <c r="R370" t="inlineStr"/>
+      <c r="S370" t="n">
+        <v>3.727267050599721</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21954,7 +23066,7 @@
         <v>148.46</v>
       </c>
       <c r="H371" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I371" t="n">
         <v>101.45</v>
@@ -21984,6 +23096,9 @@
         <v>0.000508</v>
       </c>
       <c r="R371" t="inlineStr"/>
+      <c r="S371" t="n">
+        <v>3.109067259472938</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22012,7 +23127,7 @@
         <v>154.4</v>
       </c>
       <c r="H372" t="n">
-        <v>125.42</v>
+        <v>51.9</v>
       </c>
       <c r="I372" t="n">
         <v>101.64</v>
@@ -22042,6 +23157,9 @@
         <v>0</v>
       </c>
       <c r="R372" t="inlineStr"/>
+      <c r="S372" t="n">
+        <v>2.346829975387054</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22070,7 +23188,7 @@
         <v>142.52</v>
       </c>
       <c r="H373" t="n">
-        <v>130.46</v>
+        <v>54.7</v>
       </c>
       <c r="I373" t="n">
         <v>101.78</v>
@@ -22100,6 +23218,9 @@
         <v>0.006604</v>
       </c>
       <c r="R373" t="inlineStr"/>
+      <c r="S373" t="n">
+        <v>3.75323837813213</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22128,7 +23249,7 @@
         <v>144.14</v>
       </c>
       <c r="H374" t="n">
-        <v>137.12</v>
+        <v>58.4</v>
       </c>
       <c r="I374" t="n">
         <v>101.54</v>
@@ -22158,6 +23279,9 @@
         <v>0</v>
       </c>
       <c r="R374" t="inlineStr"/>
+      <c r="S374" t="n">
+        <v>4.275375647127142</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22186,7 +23310,7 @@
         <v>158.9</v>
       </c>
       <c r="H375" t="n">
-        <v>139.28</v>
+        <v>59.6</v>
       </c>
       <c r="I375" t="n">
         <v>101.1</v>
@@ -22216,6 +23340,9 @@
         <v>0</v>
       </c>
       <c r="R375" t="inlineStr"/>
+      <c r="S375" t="n">
+        <v>3.010675270872087</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22244,7 +23371,7 @@
         <v>164.12</v>
       </c>
       <c r="H376" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I376" t="n">
         <v>100.62</v>
@@ -22274,6 +23401,9 @@
         <v>0</v>
       </c>
       <c r="R376" t="inlineStr"/>
+      <c r="S376" t="n">
+        <v>3.473938999735118</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -22302,7 +23432,7 @@
         <v>169.7</v>
       </c>
       <c r="H377" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I377" t="n">
         <v>100.33</v>
@@ -22332,6 +23462,9 @@
         <v>0</v>
       </c>
       <c r="R377" t="inlineStr"/>
+      <c r="S377" t="n">
+        <v>3.566856103539836</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -22360,7 +23493,7 @@
         <v>171.32</v>
       </c>
       <c r="H378" t="n">
-        <v>131.9</v>
+        <v>55.5</v>
       </c>
       <c r="I378" t="n">
         <v>101.29</v>
@@ -22390,6 +23523,9 @@
         <v>0</v>
       </c>
       <c r="R378" t="inlineStr"/>
+      <c r="S378" t="n">
+        <v>1.799252395895215</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -22418,7 +23554,7 @@
         <v>152.06</v>
       </c>
       <c r="H379" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I379" t="n">
         <v>101.74</v>
@@ -22448,6 +23584,9 @@
         <v>0</v>
       </c>
       <c r="R379" t="inlineStr"/>
+      <c r="S379" t="n">
+        <v>3.21876687802675</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -22476,7 +23615,7 @@
         <v>170.96</v>
       </c>
       <c r="H380" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I380" t="n">
         <v>100.57</v>
@@ -22506,6 +23645,9 @@
         <v>0</v>
       </c>
       <c r="R380" t="inlineStr"/>
+      <c r="S380" t="n">
+        <v>3.787257320878721</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -22534,7 +23676,7 @@
         <v>181.22</v>
       </c>
       <c r="H381" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I381" t="n">
         <v>100.72</v>
@@ -22564,6 +23706,9 @@
         <v>0</v>
       </c>
       <c r="R381" t="inlineStr"/>
+      <c r="S381" t="n">
+        <v>3.011663494439734</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -22592,7 +23737,7 @@
         <v>183.56</v>
       </c>
       <c r="H382" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I382" t="n">
         <v>100.5</v>
@@ -22622,6 +23767,9 @@
         <v>0</v>
       </c>
       <c r="R382" t="inlineStr"/>
+      <c r="S382" t="n">
+        <v>2.148555472911164</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -22650,7 +23798,7 @@
         <v>183.74</v>
       </c>
       <c r="H383" t="n">
-        <v>164.48</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I383" t="n">
         <v>100.22</v>
@@ -22680,6 +23828,9 @@
         <v>0</v>
       </c>
       <c r="R383" t="inlineStr"/>
+      <c r="S383" t="n">
+        <v>3.025963391834041</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -22708,7 +23859,7 @@
         <v>195.8</v>
       </c>
       <c r="H384" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I384" t="n">
         <v>100.46</v>
@@ -22738,6 +23889,9 @@
         <v>0</v>
       </c>
       <c r="R384" t="inlineStr"/>
+      <c r="S384" t="n">
+        <v>1.981185395214868</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22766,7 +23920,7 @@
         <v>156.92</v>
       </c>
       <c r="H385" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I385" t="n">
         <v>101.44</v>
@@ -22796,6 +23950,9 @@
         <v>0</v>
       </c>
       <c r="R385" t="inlineStr"/>
+      <c r="S385" t="n">
+        <v>2.902261119103906</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22824,7 +23981,7 @@
         <v>164.12</v>
       </c>
       <c r="H386" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I386" t="n">
         <v>101.37</v>
@@ -22854,6 +24011,9 @@
         <v>0</v>
       </c>
       <c r="R386" t="inlineStr"/>
+      <c r="S386" t="n">
+        <v>2.576618406286305</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22882,7 +24042,7 @@
         <v>185.54</v>
       </c>
       <c r="H387" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I387" t="n">
         <v>100.71</v>
@@ -22912,6 +24072,9 @@
         <v>0</v>
       </c>
       <c r="R387" t="inlineStr"/>
+      <c r="S387" t="n">
+        <v>2.183703532066001</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22940,7 +24103,7 @@
         <v>186.62</v>
       </c>
       <c r="H388" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I388" t="n">
         <v>100.13</v>
@@ -22970,6 +24133,9 @@
         <v>0</v>
       </c>
       <c r="R388" t="inlineStr"/>
+      <c r="S388" t="n">
+        <v>2.286072516589664</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -22998,7 +24164,7 @@
         <v>194.54</v>
       </c>
       <c r="H389" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I389" t="n">
         <v>99.69</v>
@@ -23028,6 +24194,9 @@
         <v>0.005588</v>
       </c>
       <c r="R389" t="inlineStr"/>
+      <c r="S389" t="n">
+        <v>2.537771989724054</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23056,7 +24225,7 @@
         <v>177.62</v>
       </c>
       <c r="H390" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I390" t="n">
         <v>100.65</v>
@@ -23086,6 +24255,9 @@
         <v>0</v>
       </c>
       <c r="R390" t="inlineStr"/>
+      <c r="S390" t="n">
+        <v>2.72039913079569</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23114,7 +24286,7 @@
         <v>160.52</v>
       </c>
       <c r="H391" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I391" t="n">
         <v>101.21</v>
@@ -23144,6 +24316,9 @@
         <v>0.003556</v>
       </c>
       <c r="R391" t="inlineStr"/>
+      <c r="S391" t="n">
+        <v>3.454314646461476</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23172,7 +24347,7 @@
         <v>168.08</v>
       </c>
       <c r="H392" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I392" t="n">
         <v>101.1</v>
@@ -23202,6 +24377,9 @@
         <v>0.002032</v>
       </c>
       <c r="R392" t="inlineStr"/>
+      <c r="S392" t="n">
+        <v>3.899357105394883</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -23230,7 +24408,7 @@
         <v>165.2</v>
       </c>
       <c r="H393" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I393" t="n">
         <v>101.61</v>
@@ -23260,6 +24438,9 @@
         <v>0.004318</v>
       </c>
       <c r="R393" t="inlineStr"/>
+      <c r="S393" t="n">
+        <v>3.694430875605956</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -23288,7 +24469,7 @@
         <v>167.72</v>
       </c>
       <c r="H394" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I394" t="n">
         <v>101.63</v>
@@ -23318,6 +24499,9 @@
         <v>0</v>
       </c>
       <c r="R394" t="inlineStr"/>
+      <c r="S394" t="n">
+        <v>3.167305981538666</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -23346,7 +24530,7 @@
         <v>183.02</v>
       </c>
       <c r="H395" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I395" t="n">
         <v>100.53</v>
@@ -23376,6 +24560,9 @@
         <v>0</v>
       </c>
       <c r="R395" t="inlineStr"/>
+      <c r="S395" t="n">
+        <v>2.520602809919824</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -23404,7 +24591,7 @@
         <v>202.1</v>
       </c>
       <c r="H396" t="n">
-        <v>159.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I396" t="n">
         <v>100.08</v>
@@ -23434,6 +24621,9 @@
         <v>0</v>
       </c>
       <c r="R396" t="inlineStr"/>
+      <c r="S396" t="n">
+        <v>1.794019625112997</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -23462,7 +24652,7 @@
         <v>189.32</v>
       </c>
       <c r="H397" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I397" t="n">
         <v>100.4</v>
@@ -23492,6 +24682,9 @@
         <v>0.001524</v>
       </c>
       <c r="R397" t="inlineStr"/>
+      <c r="S397" t="n">
+        <v>2.930295793012236</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -23520,7 +24713,7 @@
         <v>199.22</v>
       </c>
       <c r="H398" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I398" t="n">
         <v>100.15</v>
@@ -23550,6 +24743,9 @@
         <v>0</v>
       </c>
       <c r="R398" t="inlineStr"/>
+      <c r="S398" t="n">
+        <v>2.100653309340753</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -23578,7 +24774,7 @@
         <v>171.86</v>
       </c>
       <c r="H399" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I399" t="n">
         <v>100.85</v>
@@ -23608,6 +24804,9 @@
         <v>0</v>
       </c>
       <c r="R399" t="inlineStr"/>
+      <c r="S399" t="n">
+        <v>2.752461783192524</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -23636,7 +24835,7 @@
         <v>192.38</v>
       </c>
       <c r="H400" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I400" t="n">
         <v>100.44</v>
@@ -23666,6 +24865,9 @@
         <v>0</v>
       </c>
       <c r="R400" t="inlineStr"/>
+      <c r="S400" t="n">
+        <v>2.436271867863499</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -23694,7 +24896,7 @@
         <v>186.26</v>
       </c>
       <c r="H401" t="n">
-        <v>162.68</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I401" t="n">
         <v>100.56</v>
@@ -23724,6 +24926,9 @@
         <v>0.004064</v>
       </c>
       <c r="R401" t="inlineStr"/>
+      <c r="S401" t="n">
+        <v>2.73259468785377</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -23752,7 +24957,7 @@
         <v>190.4</v>
       </c>
       <c r="H402" t="n">
-        <v>162.32</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="I402" t="n">
         <v>100.45</v>
@@ -23782,6 +24987,9 @@
         <v>0</v>
       </c>
       <c r="R402" t="inlineStr"/>
+      <c r="S402" t="n">
+        <v>2.462330343396956</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23810,7 +25018,7 @@
         <v>193.82</v>
       </c>
       <c r="H403" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I403" t="n">
         <v>100.53</v>
@@ -23840,6 +25048,9 @@
         <v>0</v>
       </c>
       <c r="R403" t="inlineStr"/>
+      <c r="S403" t="n">
+        <v>2.288439277213068</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23868,7 +25079,7 @@
         <v>197.42</v>
       </c>
       <c r="H404" t="n">
-        <v>160.52</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I404" t="n">
         <v>99.92</v>
@@ -23898,6 +25109,9 @@
         <v>0</v>
       </c>
       <c r="R404" t="inlineStr"/>
+      <c r="S404" t="n">
+        <v>2.013706244995263</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23926,7 +25140,7 @@
         <v>201.92</v>
       </c>
       <c r="H405" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I405" t="n">
         <v>100.03</v>
@@ -23956,6 +25170,9 @@
         <v>0</v>
       </c>
       <c r="R405" t="inlineStr"/>
+      <c r="S405" t="n">
+        <v>2.084623159825909</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -23984,7 +25201,7 @@
         <v>189.5</v>
       </c>
       <c r="H406" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I406" t="n">
         <v>100.38</v>
@@ -24014,6 +25231,9 @@
         <v>0.000254</v>
       </c>
       <c r="R406" t="inlineStr"/>
+      <c r="S406" t="n">
+        <v>2.8572219121165</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24042,7 +25262,7 @@
         <v>183.38</v>
       </c>
       <c r="H407" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I407" t="n">
         <v>100.42</v>
@@ -24072,6 +25292,9 @@
         <v>0</v>
       </c>
       <c r="R407" t="inlineStr"/>
+      <c r="S407" t="n">
+        <v>3.308647190096039</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24100,7 +25323,7 @@
         <v>193.28</v>
       </c>
       <c r="H408" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I408" t="n">
         <v>100.49</v>
@@ -24130,6 +25353,9 @@
         <v>0</v>
       </c>
       <c r="R408" t="inlineStr"/>
+      <c r="S408" t="n">
+        <v>2.356664797823014</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24158,7 +25384,7 @@
         <v>173.66</v>
       </c>
       <c r="H409" t="n">
-        <v>159.8</v>
+        <v>71</v>
       </c>
       <c r="I409" t="n">
         <v>100.91</v>
@@ -24188,6 +25414,9 @@
         <v>0.000762</v>
       </c>
       <c r="R409" t="inlineStr"/>
+      <c r="S409" t="n">
+        <v>3.450089071622718</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -24216,7 +25445,7 @@
         <v>194.18</v>
       </c>
       <c r="H410" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I410" t="n">
         <v>100.11</v>
@@ -24246,6 +25475,9 @@
         <v>0</v>
       </c>
       <c r="R410" t="inlineStr"/>
+      <c r="S410" t="n">
+        <v>1.536853110530411</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -24274,7 +25506,7 @@
         <v>200.12</v>
       </c>
       <c r="H411" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I411" t="n">
         <v>100.05</v>
@@ -24304,6 +25536,9 @@
         <v>0</v>
       </c>
       <c r="R411" t="inlineStr"/>
+      <c r="S411" t="n">
+        <v>1.435692052471043</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -24332,7 +25567,7 @@
         <v>195.44</v>
       </c>
       <c r="H412" t="n">
-        <v>154.4</v>
+        <v>68</v>
       </c>
       <c r="I412" t="n">
         <v>100.06</v>
@@ -24362,6 +25597,9 @@
         <v>0.006096</v>
       </c>
       <c r="R412" t="inlineStr"/>
+      <c r="S412" t="n">
+        <v>1.812775427719362</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -24390,7 +25628,7 @@
         <v>176.18</v>
       </c>
       <c r="H413" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I413" t="n">
         <v>100.39</v>
@@ -24420,6 +25658,9 @@
         <v>0</v>
       </c>
       <c r="R413" t="inlineStr"/>
+      <c r="S413" t="n">
+        <v>3.285456996174261</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -24448,7 +25689,7 @@
         <v>176.36</v>
       </c>
       <c r="H414" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I414" t="n">
         <v>100.49</v>
@@ -24478,6 +25719,9 @@
         <v>0.01016</v>
       </c>
       <c r="R414" t="inlineStr"/>
+      <c r="S414" t="n">
+        <v>3.801520896431117</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -24506,7 +25750,7 @@
         <v>168.26</v>
       </c>
       <c r="H415" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I415" t="n">
         <v>100.59</v>
@@ -24536,6 +25780,9 @@
         <v>0.014224</v>
       </c>
       <c r="R415" t="inlineStr"/>
+      <c r="S415" t="n">
+        <v>4.591653199050427</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -24564,7 +25811,7 @@
         <v>181.22</v>
       </c>
       <c r="H416" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I416" t="n">
         <v>100.55</v>
@@ -24594,6 +25841,9 @@
         <v>0</v>
       </c>
       <c r="R416" t="inlineStr"/>
+      <c r="S416" t="n">
+        <v>3.144182528367511</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -24622,7 +25872,7 @@
         <v>185</v>
       </c>
       <c r="H417" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I417" t="n">
         <v>100.58</v>
@@ -24652,6 +25902,9 @@
         <v>0</v>
       </c>
       <c r="R417" t="inlineStr"/>
+      <c r="S417" t="n">
+        <v>3.039710765107208</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -24680,7 +25933,7 @@
         <v>189.68</v>
       </c>
       <c r="H418" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I418" t="n">
         <v>99.96000000000001</v>
@@ -24710,6 +25963,9 @@
         <v>0</v>
       </c>
       <c r="R418" t="inlineStr"/>
+      <c r="S418" t="n">
+        <v>3.363082146299294</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -24738,7 +25994,7 @@
         <v>197.06</v>
       </c>
       <c r="H419" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I419" t="n">
         <v>100.15</v>
@@ -24768,6 +26024,9 @@
         <v>0</v>
       </c>
       <c r="R419" t="inlineStr"/>
+      <c r="S419" t="n">
+        <v>2.598831088149287</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -24796,7 +26055,7 @@
         <v>188.42</v>
       </c>
       <c r="H420" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I420" t="n">
         <v>100.34</v>
@@ -24826,6 +26085,9 @@
         <v>0</v>
       </c>
       <c r="R420" t="inlineStr"/>
+      <c r="S420" t="n">
+        <v>3.042461357027669</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24854,7 +26116,7 @@
         <v>193.46</v>
       </c>
       <c r="H421" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I421" t="n">
         <v>100.31</v>
@@ -24884,6 +26146,9 @@
         <v>0.000254</v>
       </c>
       <c r="R421" t="inlineStr"/>
+      <c r="S421" t="n">
+        <v>2.678169518634719</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24912,7 +26177,7 @@
         <v>196.52</v>
       </c>
       <c r="H422" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I422" t="n">
         <v>100.22</v>
@@ -24942,6 +26207,9 @@
         <v>0</v>
       </c>
       <c r="R422" t="inlineStr"/>
+      <c r="S422" t="n">
+        <v>2.469461396391583</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24970,7 +26238,7 @@
         <v>202.46</v>
       </c>
       <c r="H423" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I423" t="n">
         <v>100.11</v>
@@ -25000,6 +26268,9 @@
         <v>0</v>
       </c>
       <c r="R423" t="inlineStr"/>
+      <c r="S423" t="n">
+        <v>2.223421213253995</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25028,7 +26299,7 @@
         <v>197.42</v>
       </c>
       <c r="H424" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I424" t="n">
         <v>100.49</v>
@@ -25058,6 +26329,9 @@
         <v>0</v>
       </c>
       <c r="R424" t="inlineStr"/>
+      <c r="S424" t="n">
+        <v>2.204481674506628</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25086,7 +26360,7 @@
         <v>197.6</v>
       </c>
       <c r="H425" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I425" t="n">
         <v>100.32</v>
@@ -25116,6 +26390,9 @@
         <v>0</v>
       </c>
       <c r="R425" t="inlineStr"/>
+      <c r="S425" t="n">
+        <v>2.224079894984646</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25144,7 +26421,7 @@
         <v>192.56</v>
       </c>
       <c r="H426" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I426" t="n">
         <v>100.35</v>
@@ -25174,6 +26451,9 @@
         <v>0</v>
       </c>
       <c r="R426" t="inlineStr"/>
+      <c r="S426" t="n">
+        <v>2.653520171185947</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -25202,7 +26482,7 @@
         <v>200.3</v>
       </c>
       <c r="H427" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I427" t="n">
         <v>100.15</v>
@@ -25232,6 +26512,9 @@
         <v>0</v>
       </c>
       <c r="R427" t="inlineStr"/>
+      <c r="S427" t="n">
+        <v>2.177882998550292</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -25260,7 +26543,7 @@
         <v>180.68</v>
       </c>
       <c r="H428" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I428" t="n">
         <v>100.36</v>
@@ -25290,6 +26573,9 @@
         <v>0.005588</v>
       </c>
       <c r="R428" t="inlineStr"/>
+      <c r="S428" t="n">
+        <v>3.648941645698304</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -25318,7 +26604,7 @@
         <v>182.12</v>
       </c>
       <c r="H429" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I429" t="n">
         <v>100.35</v>
@@ -25348,6 +26634,9 @@
         <v>0.001524</v>
       </c>
       <c r="R429" t="inlineStr"/>
+      <c r="S429" t="n">
+        <v>3.198415568102988</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -25376,7 +26665,7 @@
         <v>186.98</v>
       </c>
       <c r="H430" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I430" t="n">
         <v>100.15</v>
@@ -25406,6 +26695,9 @@
         <v>0</v>
       </c>
       <c r="R430" t="inlineStr"/>
+      <c r="S430" t="n">
+        <v>2.652694190419368</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -25434,7 +26726,7 @@
         <v>166.46</v>
       </c>
       <c r="H431" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I431" t="n">
         <v>100</v>
@@ -25464,6 +26756,9 @@
         <v>0.094996</v>
       </c>
       <c r="R431" t="inlineStr"/>
+      <c r="S431" t="n">
+        <v>4.606358331318351</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -25492,7 +26787,7 @@
         <v>176.36</v>
       </c>
       <c r="H432" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I432" t="n">
         <v>100.56</v>
@@ -25522,6 +26817,9 @@
         <v>0.07010399999999999</v>
       </c>
       <c r="R432" t="inlineStr"/>
+      <c r="S432" t="n">
+        <v>4.084557316539001</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -25550,7 +26848,7 @@
         <v>176.72</v>
       </c>
       <c r="H433" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I433" t="n">
         <v>100.79</v>
@@ -25580,6 +26878,9 @@
         <v>0.001016</v>
       </c>
       <c r="R433" t="inlineStr"/>
+      <c r="S433" t="n">
+        <v>4.134681707739853</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -25608,7 +26909,7 @@
         <v>190.22</v>
       </c>
       <c r="H434" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I434" t="n">
         <v>100.83</v>
@@ -25638,6 +26939,9 @@
         <v>0</v>
       </c>
       <c r="R434" t="inlineStr"/>
+      <c r="S434" t="n">
+        <v>2.822388773088575</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -25666,7 +26970,7 @@
         <v>188.42</v>
       </c>
       <c r="H435" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I435" t="n">
         <v>100.34</v>
@@ -25696,6 +27000,9 @@
         <v>0</v>
       </c>
       <c r="R435" t="inlineStr"/>
+      <c r="S435" t="n">
+        <v>2.991627441600093</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -25724,7 +27031,7 @@
         <v>196.34</v>
       </c>
       <c r="H436" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I436" t="n">
         <v>100.18</v>
@@ -25754,6 +27061,9 @@
         <v>0</v>
       </c>
       <c r="R436" t="inlineStr"/>
+      <c r="S436" t="n">
+        <v>2.458498162187617</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -25782,7 +27092,7 @@
         <v>193.28</v>
       </c>
       <c r="H437" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I437" t="n">
         <v>99.95</v>
@@ -25812,6 +27122,9 @@
         <v>0</v>
       </c>
       <c r="R437" t="inlineStr"/>
+      <c r="S437" t="n">
+        <v>2.407775522734825</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -25840,7 +27153,7 @@
         <v>183.38</v>
       </c>
       <c r="H438" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="I438" t="n">
         <v>100</v>
@@ -25870,6 +27183,9 @@
         <v>0</v>
       </c>
       <c r="R438" t="inlineStr"/>
+      <c r="S438" t="n">
+        <v>3.239325990380797</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25898,7 +27214,7 @@
         <v>196.7</v>
       </c>
       <c r="H439" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I439" t="n">
         <v>100.04</v>
@@ -25928,6 +27244,9 @@
         <v>0</v>
       </c>
       <c r="R439" t="inlineStr"/>
+      <c r="S439" t="n">
+        <v>2.512009679005293</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25956,7 +27275,7 @@
         <v>188.42</v>
       </c>
       <c r="H440" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I440" t="n">
         <v>100.2</v>
@@ -25986,6 +27305,9 @@
         <v>0</v>
       </c>
       <c r="R440" t="inlineStr"/>
+      <c r="S440" t="n">
+        <v>3.226212827882052</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26014,7 +27336,7 @@
         <v>186.26</v>
       </c>
       <c r="H441" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I441" t="n">
         <v>100.22</v>
@@ -26044,6 +27366,9 @@
         <v>0</v>
       </c>
       <c r="R441" t="inlineStr"/>
+      <c r="S441" t="n">
+        <v>3.212150196224577</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26072,7 +27397,7 @@
         <v>188.06</v>
       </c>
       <c r="H442" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I442" t="n">
         <v>100.15</v>
@@ -26102,6 +27427,9 @@
         <v>0</v>
       </c>
       <c r="R442" t="inlineStr"/>
+      <c r="S442" t="n">
+        <v>3.132962864640874</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -26130,7 +27458,7 @@
         <v>178.52</v>
       </c>
       <c r="H443" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I443" t="n">
         <v>100.28</v>
@@ -26160,6 +27488,9 @@
         <v>0.004826</v>
       </c>
       <c r="R443" t="inlineStr"/>
+      <c r="S443" t="n">
+        <v>4.319453846518541</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -26188,7 +27519,7 @@
         <v>186.08</v>
       </c>
       <c r="H444" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I444" t="n">
         <v>100.31</v>
@@ -26218,6 +27549,9 @@
         <v>0.00127</v>
       </c>
       <c r="R444" t="inlineStr"/>
+      <c r="S444" t="n">
+        <v>3.624941545278896</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -26246,7 +27580,7 @@
         <v>177.62</v>
       </c>
       <c r="H445" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I445" t="n">
         <v>100.19</v>
@@ -26276,6 +27610,9 @@
         <v>0</v>
       </c>
       <c r="R445" t="inlineStr"/>
+      <c r="S445" t="n">
+        <v>3.911552908768996</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -26304,7 +27641,7 @@
         <v>185.9</v>
       </c>
       <c r="H446" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I446" t="n">
         <v>100.19</v>
@@ -26334,6 +27671,9 @@
         <v>0</v>
       </c>
       <c r="R446" t="inlineStr"/>
+      <c r="S446" t="n">
+        <v>3.079265420391246</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -26362,7 +27702,7 @@
         <v>189.68</v>
       </c>
       <c r="H447" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I447" t="n">
         <v>100.08</v>
@@ -26392,6 +27732,9 @@
         <v>0.001016</v>
       </c>
       <c r="R447" t="inlineStr"/>
+      <c r="S447" t="n">
+        <v>3.108023820146998</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -26420,7 +27763,7 @@
         <v>185.54</v>
       </c>
       <c r="H448" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I448" t="n">
         <v>100.44</v>
@@ -26450,6 +27793,9 @@
         <v>0.004572</v>
       </c>
       <c r="R448" t="inlineStr"/>
+      <c r="S448" t="n">
+        <v>3.420655309700277</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -26478,7 +27824,7 @@
         <v>177.98</v>
       </c>
       <c r="H449" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I449" t="n">
         <v>100.53</v>
@@ -26508,6 +27854,9 @@
         <v>0.00127</v>
       </c>
       <c r="R449" t="inlineStr"/>
+      <c r="S449" t="n">
+        <v>3.94332934716787</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -26536,7 +27885,7 @@
         <v>185.18</v>
       </c>
       <c r="H450" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I450" t="n">
         <v>100.51</v>
@@ -26566,6 +27915,9 @@
         <v>0</v>
       </c>
       <c r="R450" t="inlineStr"/>
+      <c r="S450" t="n">
+        <v>3.211987069606885</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -26594,7 +27946,7 @@
         <v>183.2</v>
       </c>
       <c r="H451" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I451" t="n">
         <v>100.41</v>
@@ -26624,6 +27976,9 @@
         <v>0</v>
       </c>
       <c r="R451" t="inlineStr"/>
+      <c r="S451" t="n">
+        <v>3.569014174659668</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -26652,7 +28007,7 @@
         <v>179.06</v>
       </c>
       <c r="H452" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I452" t="n">
         <v>100.34</v>
@@ -26682,6 +28037,9 @@
         <v>0.008889999999999999</v>
       </c>
       <c r="R452" t="inlineStr"/>
+      <c r="S452" t="n">
+        <v>4.022754810171164</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -26710,7 +28068,7 @@
         <v>180.32</v>
       </c>
       <c r="H453" t="n">
-        <v>161.24</v>
+        <v>71.8</v>
       </c>
       <c r="I453" t="n">
         <v>100.41</v>
@@ -26740,6 +28098,9 @@
         <v>0</v>
       </c>
       <c r="R453" t="inlineStr"/>
+      <c r="S453" t="n">
+        <v>3.037496214353949</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -26768,7 +28129,7 @@
         <v>177.44</v>
       </c>
       <c r="H454" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I454" t="n">
         <v>100.85</v>
@@ -26798,6 +28159,9 @@
         <v>0</v>
       </c>
       <c r="R454" t="inlineStr"/>
+      <c r="S454" t="n">
+        <v>2.768912404201023</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -26826,7 +28190,7 @@
         <v>181.22</v>
       </c>
       <c r="H455" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I455" t="n">
         <v>100.78</v>
@@ -26856,6 +28220,9 @@
         <v>0</v>
       </c>
       <c r="R455" t="inlineStr"/>
+      <c r="S455" t="n">
+        <v>2.46167898874467</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -26884,7 +28251,7 @@
         <v>179.78</v>
       </c>
       <c r="H456" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I456" t="n">
         <v>100.5</v>
@@ -26914,6 +28281,9 @@
         <v>0</v>
       </c>
       <c r="R456" t="inlineStr"/>
+      <c r="S456" t="n">
+        <v>2.895398567862392</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -26942,7 +28312,7 @@
         <v>170.6</v>
       </c>
       <c r="H457" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I457" t="n">
         <v>100.55</v>
@@ -26972,6 +28342,9 @@
         <v>0.00635</v>
       </c>
       <c r="R457" t="inlineStr"/>
+      <c r="S457" t="n">
+        <v>3.821592254926452</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -27000,7 +28373,7 @@
         <v>166.28</v>
       </c>
       <c r="H458" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I458" t="n">
         <v>100.82</v>
@@ -27030,6 +28403,9 @@
         <v>0.007873999999999999</v>
       </c>
       <c r="R458" t="inlineStr"/>
+      <c r="S458" t="n">
+        <v>4.433082566852642</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -27058,7 +28434,7 @@
         <v>190.58</v>
       </c>
       <c r="H459" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I459" t="n">
         <v>100.69</v>
@@ -27088,6 +28464,9 @@
         <v>0</v>
       </c>
       <c r="R459" t="inlineStr"/>
+      <c r="S459" t="n">
+        <v>2.671620705416829</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -27116,7 +28495,7 @@
         <v>177.26</v>
       </c>
       <c r="H460" t="n">
-        <v>165.38</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="I460" t="n">
         <v>100.85</v>
@@ -27146,6 +28525,9 @@
         <v>0.000254</v>
       </c>
       <c r="R460" t="inlineStr"/>
+      <c r="S460" t="n">
+        <v>3.609929153020652</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -27174,7 +28556,7 @@
         <v>175.82</v>
       </c>
       <c r="H461" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I461" t="n">
         <v>100.68</v>
@@ -27204,6 +28586,9 @@
         <v>0.00508</v>
       </c>
       <c r="R461" t="inlineStr"/>
+      <c r="S461" t="n">
+        <v>4.156240602764817</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -27232,7 +28617,7 @@
         <v>175.82</v>
       </c>
       <c r="H462" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I462" t="n">
         <v>100.38</v>
@@ -27262,6 +28647,9 @@
         <v>0.003556</v>
       </c>
       <c r="R462" t="inlineStr"/>
+      <c r="S462" t="n">
+        <v>4.262086750914483</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -27290,7 +28678,7 @@
         <v>165.74</v>
       </c>
       <c r="H463" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I463" t="n">
         <v>101.01</v>
@@ -27320,6 +28708,9 @@
         <v>0.004826</v>
       </c>
       <c r="R463" t="inlineStr"/>
+      <c r="S463" t="n">
+        <v>4.437145010182189</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -27348,7 +28739,7 @@
         <v>175.64</v>
       </c>
       <c r="H464" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I464" t="n">
         <v>101</v>
@@ -27378,6 +28769,9 @@
         <v>0</v>
       </c>
       <c r="R464" t="inlineStr"/>
+      <c r="S464" t="n">
+        <v>3.552074490297282</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -27406,7 +28800,7 @@
         <v>170.24</v>
       </c>
       <c r="H465" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I465" t="n">
         <v>101.33</v>
@@ -27436,6 +28830,9 @@
         <v>0.013716</v>
       </c>
       <c r="R465" t="inlineStr"/>
+      <c r="S465" t="n">
+        <v>4.595599609780941</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -27464,7 +28861,7 @@
         <v>177.26</v>
       </c>
       <c r="H466" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I466" t="n">
         <v>101.21</v>
@@ -27494,6 +28891,9 @@
         <v>0.000508</v>
       </c>
       <c r="R466" t="inlineStr"/>
+      <c r="S466" t="n">
+        <v>3.912793394303478</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -27522,7 +28922,7 @@
         <v>177.62</v>
       </c>
       <c r="H467" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I467" t="n">
         <v>100.98</v>
@@ -27552,6 +28952,9 @@
         <v>0</v>
       </c>
       <c r="R467" t="inlineStr"/>
+      <c r="S467" t="n">
+        <v>3.671100283065159</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -27580,7 +28983,7 @@
         <v>173.3</v>
       </c>
       <c r="H468" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I468" t="n">
         <v>101.03</v>
@@ -27610,6 +29013,9 @@
         <v>0.01143</v>
       </c>
       <c r="R468" t="inlineStr"/>
+      <c r="S468" t="n">
+        <v>3.650968147260658</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -27638,7 +29044,7 @@
         <v>170.24</v>
       </c>
       <c r="H469" t="n">
-        <v>144.14</v>
+        <v>62.3</v>
       </c>
       <c r="I469" t="n">
         <v>101.91</v>
@@ -27668,6 +29074,9 @@
         <v>0</v>
       </c>
       <c r="R469" t="inlineStr"/>
+      <c r="S469" t="n">
+        <v>2.545777210124695</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -27696,7 +29105,7 @@
         <v>163.58</v>
       </c>
       <c r="H470" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I470" t="n">
         <v>101.75</v>
@@ -27726,6 +29135,9 @@
         <v>0</v>
       </c>
       <c r="R470" t="inlineStr"/>
+      <c r="S470" t="n">
+        <v>3.73426949167595</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -27754,7 +29166,7 @@
         <v>156.56</v>
       </c>
       <c r="H471" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I471" t="n">
         <v>101.63</v>
@@ -27784,6 +29196,9 @@
         <v>0.001778</v>
       </c>
       <c r="R471" t="inlineStr"/>
+      <c r="S471" t="n">
+        <v>4.072008437984957</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -27812,7 +29227,7 @@
         <v>170.96</v>
       </c>
       <c r="H472" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I472" t="n">
         <v>101.66</v>
@@ -27842,6 +29257,9 @@
         <v>0</v>
       </c>
       <c r="R472" t="inlineStr"/>
+      <c r="S472" t="n">
+        <v>2.931710263171987</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -27870,7 +29288,7 @@
         <v>169.34</v>
       </c>
       <c r="H473" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I473" t="n">
         <v>101.64</v>
@@ -27900,6 +29318,9 @@
         <v>0</v>
       </c>
       <c r="R473" t="inlineStr"/>
+      <c r="S473" t="n">
+        <v>3.521089377411821</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -27928,7 +29349,7 @@
         <v>170.96</v>
       </c>
       <c r="H474" t="n">
-        <v>152.24</v>
+        <v>66.8</v>
       </c>
       <c r="I474" t="n">
         <v>101.46</v>
@@ -27958,6 +29379,9 @@
         <v>0</v>
       </c>
       <c r="R474" t="inlineStr"/>
+      <c r="S474" t="n">
+        <v>3.066130934190144</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -27986,7 +29410,7 @@
         <v>165.38</v>
       </c>
       <c r="H475" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I475" t="n">
         <v>101.91</v>
@@ -28016,6 +29440,9 @@
         <v>0</v>
       </c>
       <c r="R475" t="inlineStr"/>
+      <c r="S475" t="n">
+        <v>3.362757450956973</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -28044,7 +29471,7 @@
         <v>155.84</v>
       </c>
       <c r="H476" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I476" t="n">
         <v>102.01</v>
@@ -28074,6 +29501,9 @@
         <v>0</v>
       </c>
       <c r="R476" t="inlineStr"/>
+      <c r="S476" t="n">
+        <v>4.170569710864766</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -28102,7 +29532,7 @@
         <v>162.32</v>
       </c>
       <c r="H477" t="n">
-        <v>145.94</v>
+        <v>63.3</v>
       </c>
       <c r="I477" t="n">
         <v>101.68</v>
@@ -28132,6 +29562,9 @@
         <v>0</v>
       </c>
       <c r="R477" t="inlineStr"/>
+      <c r="S477" t="n">
+        <v>3.264974310510023</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -28160,7 +29593,7 @@
         <v>170.24</v>
       </c>
       <c r="H478" t="n">
-        <v>150.62</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I478" t="n">
         <v>101.26</v>
@@ -28190,6 +29623,9 @@
         <v>0</v>
       </c>
       <c r="R478" t="inlineStr"/>
+      <c r="S478" t="n">
+        <v>2.998607102315126</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -28218,7 +29654,7 @@
         <v>170.96</v>
       </c>
       <c r="H479" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I479" t="n">
         <v>101.03</v>
@@ -28248,6 +29684,9 @@
         <v>0</v>
       </c>
       <c r="R479" t="inlineStr"/>
+      <c r="S479" t="n">
+        <v>3.336102701467049</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -28276,7 +29715,7 @@
         <v>173.3</v>
       </c>
       <c r="H480" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I480" t="n">
         <v>101</v>
@@ -28306,6 +29745,9 @@
         <v>0</v>
       </c>
       <c r="R480" t="inlineStr"/>
+      <c r="S480" t="n">
+        <v>3.526642636101727</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -28334,7 +29776,7 @@
         <v>166.28</v>
       </c>
       <c r="H481" t="n">
-        <v>153.14</v>
+        <v>67.3</v>
       </c>
       <c r="I481" t="n">
         <v>101.82</v>
@@ -28364,6 +29806,9 @@
         <v>0.006858</v>
       </c>
       <c r="R481" t="inlineStr"/>
+      <c r="S481" t="n">
+        <v>3.529958941912364</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -28392,7 +29837,7 @@
         <v>154.22</v>
       </c>
       <c r="H482" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I482" t="n">
         <v>101.65</v>
@@ -28422,6 +29867,9 @@
         <v>0.001016</v>
       </c>
       <c r="R482" t="inlineStr"/>
+      <c r="S482" t="n">
+        <v>4.089065949989655</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -28450,7 +29898,7 @@
         <v>169.7</v>
       </c>
       <c r="H483" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I483" t="n">
         <v>101.58</v>
@@ -28480,6 +29928,9 @@
         <v>0</v>
       </c>
       <c r="R483" t="inlineStr"/>
+      <c r="S483" t="n">
+        <v>4.029192026028177</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -28508,7 +29959,7 @@
         <v>155.84</v>
       </c>
       <c r="H484" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I484" t="n">
         <v>102.2</v>
@@ -28538,6 +29989,9 @@
         <v>0.000762</v>
       </c>
       <c r="R484" t="inlineStr"/>
+      <c r="S484" t="n">
+        <v>3.439851424805831</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -28566,7 +30020,7 @@
         <v>134.42</v>
       </c>
       <c r="H485" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I485" t="n">
         <v>102.81</v>
@@ -28596,6 +30050,9 @@
         <v>0.00381</v>
       </c>
       <c r="R485" t="inlineStr"/>
+      <c r="S485" t="n">
+        <v>4.055424393843031</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -28624,7 +30081,7 @@
         <v>139.46</v>
       </c>
       <c r="H486" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I486" t="n">
         <v>102.61</v>
@@ -28654,6 +30111,9 @@
         <v>0.001778</v>
       </c>
       <c r="R486" t="inlineStr"/>
+      <c r="S486" t="n">
+        <v>4.736950956355837</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -28682,7 +30142,7 @@
         <v>148.1</v>
       </c>
       <c r="H487" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I487" t="n">
         <v>103.19</v>
@@ -28712,6 +30172,9 @@
         <v>0</v>
       </c>
       <c r="R487" t="inlineStr"/>
+      <c r="S487" t="n">
+        <v>2.724633314295703</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -28740,7 +30203,7 @@
         <v>143.42</v>
       </c>
       <c r="H488" t="n">
-        <v>121.82</v>
+        <v>49.9</v>
       </c>
       <c r="I488" t="n">
         <v>102.66</v>
@@ -28770,6 +30233,9 @@
         <v>0</v>
       </c>
       <c r="R488" t="inlineStr"/>
+      <c r="S488" t="n">
+        <v>2.888217788880221</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -28798,7 +30264,7 @@
         <v>156.38</v>
       </c>
       <c r="H489" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I489" t="n">
         <v>101.96</v>
@@ -28828,6 +30294,9 @@
         <v>0</v>
       </c>
       <c r="R489" t="inlineStr"/>
+      <c r="S489" t="n">
+        <v>2.106614157374625</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -28856,7 +30325,7 @@
         <v>144.5</v>
       </c>
       <c r="H490" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I490" t="n">
         <v>101.82</v>
@@ -28886,6 +30355,9 @@
         <v>0</v>
       </c>
       <c r="R490" t="inlineStr"/>
+      <c r="S490" t="n">
+        <v>3.264188446110158</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -28914,7 +30386,7 @@
         <v>154.94</v>
       </c>
       <c r="H491" t="n">
-        <v>132.44</v>
+        <v>55.8</v>
       </c>
       <c r="I491" t="n">
         <v>101.31</v>
@@ -28944,6 +30416,9 @@
         <v>0</v>
       </c>
       <c r="R491" t="inlineStr"/>
+      <c r="S491" t="n">
+        <v>2.796040862950219</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -28972,7 +30447,7 @@
         <v>156.2</v>
       </c>
       <c r="H492" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I492" t="n">
         <v>101.59</v>
@@ -29002,6 +30477,9 @@
         <v>0</v>
       </c>
       <c r="R492" t="inlineStr"/>
+      <c r="S492" t="n">
+        <v>3.190981211829097</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -29030,7 +30508,7 @@
         <v>153.14</v>
       </c>
       <c r="H493" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I493" t="n">
         <v>101.9</v>
@@ -29060,6 +30538,9 @@
         <v>0</v>
       </c>
       <c r="R493" t="inlineStr"/>
+      <c r="S493" t="n">
+        <v>3.667338325589394</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -29088,7 +30569,7 @@
         <v>154.4</v>
       </c>
       <c r="H494" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I494" t="n">
         <v>101.75</v>
@@ -29118,6 +30599,9 @@
         <v>0</v>
       </c>
       <c r="R494" t="inlineStr"/>
+      <c r="S494" t="n">
+        <v>3.241707234596959</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -29146,7 +30630,7 @@
         <v>154.4</v>
       </c>
       <c r="H495" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I495" t="n">
         <v>102.24</v>
@@ -29176,6 +30660,9 @@
         <v>0</v>
       </c>
       <c r="R495" t="inlineStr"/>
+      <c r="S495" t="n">
+        <v>3.610022185450747</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -29204,7 +30691,7 @@
         <v>136.58</v>
       </c>
       <c r="H496" t="n">
-        <v>131.18</v>
+        <v>55.1</v>
       </c>
       <c r="I496" t="n">
         <v>102.29</v>
@@ -29234,6 +30721,9 @@
         <v>0.002286</v>
       </c>
       <c r="R496" t="inlineStr"/>
+      <c r="S496" t="n">
+        <v>4.554624602652938</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -29262,7 +30752,7 @@
         <v>145.4</v>
       </c>
       <c r="H497" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I497" t="n">
         <v>101.99</v>
@@ -29292,6 +30782,9 @@
         <v>0.001016</v>
       </c>
       <c r="R497" t="inlineStr"/>
+      <c r="S497" t="n">
+        <v>3.786444649702536</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -29320,7 +30813,7 @@
         <v>139.64</v>
       </c>
       <c r="H498" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I498" t="n">
         <v>101.87</v>
@@ -29350,6 +30843,9 @@
         <v>0</v>
       </c>
       <c r="R498" t="inlineStr"/>
+      <c r="S498" t="n">
+        <v>3.524609333422948</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -29378,7 +30874,7 @@
         <v>152.78</v>
       </c>
       <c r="H499" t="n">
-        <v>131.9</v>
+        <v>55.5</v>
       </c>
       <c r="I499" t="n">
         <v>101.17</v>
@@ -29408,6 +30904,9 @@
         <v>0</v>
       </c>
       <c r="R499" t="inlineStr"/>
+      <c r="S499" t="n">
+        <v>2.923089772685751</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -29436,7 +30935,7 @@
         <v>168.44</v>
       </c>
       <c r="H500" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I500" t="n">
         <v>100.9</v>
@@ -29466,6 +30965,9 @@
         <v>0</v>
       </c>
       <c r="R500" t="inlineStr"/>
+      <c r="S500" t="n">
+        <v>3.109909567383097</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -29494,7 +30996,7 @@
         <v>165.02</v>
       </c>
       <c r="H501" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I501" t="n">
         <v>101.28</v>
@@ -29524,6 +31026,9 @@
         <v>0</v>
       </c>
       <c r="R501" t="inlineStr"/>
+      <c r="S501" t="n">
+        <v>3.69514917878422</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -29552,7 +31057,7 @@
         <v>129.56</v>
       </c>
       <c r="H502" t="n">
-        <v>100.4</v>
+        <v>38</v>
       </c>
       <c r="I502" t="n">
         <v>102.86</v>
@@ -29582,6 +31087,9 @@
         <v>0</v>
       </c>
       <c r="R502" t="inlineStr"/>
+      <c r="S502" t="n">
+        <v>2.348670232092331</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -29610,7 +31118,7 @@
         <v>118.4</v>
       </c>
       <c r="H503" t="n">
-        <v>113.72</v>
+        <v>45.4</v>
       </c>
       <c r="I503" t="n">
         <v>102.61</v>
@@ -29640,6 +31148,9 @@
         <v>0.000762</v>
       </c>
       <c r="R503" t="inlineStr"/>
+      <c r="S503" t="n">
+        <v>4.958066182990249</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -29668,7 +31179,7 @@
         <v>122.36</v>
       </c>
       <c r="H504" t="n">
-        <v>111.02</v>
+        <v>43.9</v>
       </c>
       <c r="I504" t="n">
         <v>102.81</v>
@@ -29698,6 +31209,9 @@
         <v>0</v>
       </c>
       <c r="R504" t="inlineStr"/>
+      <c r="S504" t="n">
+        <v>4.033362200160718</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -29726,7 +31240,7 @@
         <v>123.44</v>
       </c>
       <c r="H505" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I505" t="n">
         <v>103.09</v>
@@ -29756,6 +31270,9 @@
         <v>0</v>
       </c>
       <c r="R505" t="inlineStr"/>
+      <c r="S505" t="n">
+        <v>2.755394451300195</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -29784,7 +31301,7 @@
         <v>125.42</v>
       </c>
       <c r="H506" t="n">
-        <v>105.26</v>
+        <v>40.7</v>
       </c>
       <c r="I506" t="n">
         <v>103.18</v>
@@ -29814,6 +31331,9 @@
         <v>0</v>
       </c>
       <c r="R506" t="inlineStr"/>
+      <c r="S506" t="n">
+        <v>3.090974547660031</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -29842,7 +31362,7 @@
         <v>138.02</v>
       </c>
       <c r="H507" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I507" t="n">
         <v>102.31</v>
@@ -29872,6 +31392,9 @@
         <v>0</v>
       </c>
       <c r="R507" t="inlineStr"/>
+      <c r="S507" t="n">
+        <v>2.803135242388939</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -29900,7 +31423,7 @@
         <v>147.74</v>
       </c>
       <c r="H508" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I508" t="n">
         <v>101.9</v>
@@ -29930,6 +31453,9 @@
         <v>0</v>
       </c>
       <c r="R508" t="inlineStr"/>
+      <c r="S508" t="n">
+        <v>3.54400028663336</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/NCDC_weather_data/stations_imputed/59211099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59211099999.xlsx
@@ -557,7 +557,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H2" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I2" t="n">
         <v>102.7</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>928.3185325621769</v>
+        <v>89.90666673507779</v>
       </c>
     </row>
     <row r="3">
@@ -618,7 +618,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I3" t="n">
         <v>102.29</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>799.2984669278547</v>
+        <v>78.2892227761775</v>
       </c>
     </row>
     <row r="4">
@@ -679,7 +679,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>55.2</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="I4" t="n">
         <v>101.84</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>792.5931353226829</v>
+        <v>73.56474082515784</v>
       </c>
     </row>
     <row r="5">
@@ -740,7 +740,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H5" t="n">
-        <v>56.5</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="I5" t="n">
         <v>101.57</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>820.3584330367515</v>
+        <v>74.98716968589399</v>
       </c>
     </row>
     <row r="6">
@@ -801,7 +801,7 @@
         <v>17.5</v>
       </c>
       <c r="H6" t="n">
-        <v>57.2</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>101.59</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>881.510739035865</v>
+        <v>79.92583164200444</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +862,7 @@
         <v>18.27777777777778</v>
       </c>
       <c r="H7" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I7" t="n">
         <v>101.88</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>843.3771109685368</v>
+        <v>76.38019728057156</v>
       </c>
     </row>
     <row r="8">
@@ -923,7 +923,7 @@
         <v>13.38888888888889</v>
       </c>
       <c r="H8" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I8" t="n">
         <v>102.18</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>866.1323089628448</v>
+        <v>84.19862779684428</v>
       </c>
     </row>
     <row r="9">
@@ -984,7 +984,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H9" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I9" t="n">
         <v>102.23</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>902.4760104048823</v>
+        <v>89.18276727275119</v>
       </c>
     </row>
     <row r="10">
@@ -1045,7 +1045,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H10" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I10" t="n">
         <v>101.91</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>748.3914807909511</v>
+        <v>76.59300799037106</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>12.5</v>
       </c>
       <c r="H11" t="n">
-        <v>50.4</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="I11" t="n">
         <v>102.17</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>873.5372259347226</v>
+        <v>85.99458914017141</v>
       </c>
     </row>
     <row r="12">
@@ -1167,7 +1167,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H12" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I12" t="n">
         <v>102.18</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>611.3476442944315</v>
+        <v>63.57643982353932</v>
       </c>
     </row>
     <row r="13">
@@ -1228,7 +1228,7 @@
         <v>13.5</v>
       </c>
       <c r="H13" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I13" t="n">
         <v>102.16</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>703.575452885649</v>
+        <v>72.00637857040533</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1289,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H14" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I14" t="n">
         <v>102.19</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>740.6408006762242</v>
+        <v>74.51966207910782</v>
       </c>
     </row>
     <row r="15">
@@ -1350,7 +1350,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H15" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I15" t="n">
         <v>101.7</v>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>798.3120756190579</v>
+        <v>77.50875352724356</v>
       </c>
     </row>
     <row r="16">
@@ -1411,7 +1411,7 @@
         <v>15.88888888888889</v>
       </c>
       <c r="H16" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I16" t="n">
         <v>101.76</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>949.0124588066124</v>
+        <v>86.64624091357882</v>
       </c>
     </row>
     <row r="17">
@@ -1472,7 +1472,7 @@
         <v>12</v>
       </c>
       <c r="H17" t="n">
-        <v>52.2</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="I17" t="n">
         <v>102.35</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>986.8892792969534</v>
+        <v>94.98794985173811</v>
       </c>
     </row>
     <row r="18">
@@ -1533,7 +1533,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I18" t="n">
         <v>102.5</v>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>803.8664876011646</v>
+        <v>81.83780056040838</v>
       </c>
     </row>
     <row r="19">
@@ -1594,7 +1594,7 @@
         <v>12.27777777777778</v>
       </c>
       <c r="H19" t="n">
-        <v>46.5</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="I19" t="n">
         <v>102.32</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>727.9792795976446</v>
+        <v>75.40136138152069</v>
       </c>
     </row>
     <row r="20">
@@ -1655,7 +1655,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H20" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I20" t="n">
         <v>101.92</v>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>803.1775647085681</v>
+        <v>79.37008519480062</v>
       </c>
     </row>
     <row r="21">
@@ -1716,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I21" t="n">
         <v>101.69</v>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>836.5061468750376</v>
+        <v>81.21704624332962</v>
       </c>
     </row>
     <row r="22">
@@ -1777,7 +1777,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H22" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I22" t="n">
         <v>101.53</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>972.3063422436244</v>
+        <v>91.00094860939139</v>
       </c>
     </row>
     <row r="23">
@@ -1838,7 +1838,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H23" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I23" t="n">
         <v>101.02</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1069.700932237183</v>
+        <v>95.12752231337213</v>
       </c>
     </row>
     <row r="24">
@@ -1899,7 +1899,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H24" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I24" t="n">
         <v>101.06</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>998.8468059392934</v>
+        <v>87.16144574459092</v>
       </c>
     </row>
     <row r="25">
@@ -1960,7 +1960,7 @@
         <v>15.5</v>
       </c>
       <c r="H25" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I25" t="n">
         <v>101.46</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>905.3352396018789</v>
+        <v>84.12872263216744</v>
       </c>
     </row>
     <row r="26">
@@ -2021,7 +2021,7 @@
         <v>14.38888888888889</v>
       </c>
       <c r="H26" t="n">
-        <v>53.4</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="I26" t="n">
         <v>101.52</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>895.4929878474019</v>
+        <v>84.93188763508202</v>
       </c>
     </row>
     <row r="27">
@@ -2082,7 +2082,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H27" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I27" t="n">
         <v>101.32</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>974.3891230024076</v>
+        <v>87.64002110835412</v>
       </c>
     </row>
     <row r="28">
@@ -2143,7 +2143,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H28" t="n">
-        <v>61.6</v>
+        <v>16.44444444444445</v>
       </c>
       <c r="I28" t="n">
         <v>101.4</v>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>999.922195104301</v>
+        <v>86.30738026335982</v>
       </c>
     </row>
     <row r="29">
@@ -2204,7 +2204,7 @@
         <v>13.11111111111111</v>
       </c>
       <c r="H29" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I29" t="n">
         <v>101.68</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>843.4532319884688</v>
+        <v>82.92784739104181</v>
       </c>
     </row>
     <row r="30">
@@ -2265,7 +2265,7 @@
         <v>10.44444444444444</v>
       </c>
       <c r="H30" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I30" t="n">
         <v>101.97</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>792.9950761083087</v>
+        <v>82.912536598399</v>
       </c>
     </row>
     <row r="31">
@@ -2326,7 +2326,7 @@
         <v>11.16666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I31" t="n">
         <v>102</v>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>667.3757282394796</v>
+        <v>72.1185787440557</v>
       </c>
     </row>
     <row r="32">
@@ -2387,7 +2387,7 @@
         <v>10.38888888888889</v>
       </c>
       <c r="H32" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I32" t="n">
         <v>102.23</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>684.6645313430341</v>
+        <v>74.50749476577703</v>
       </c>
     </row>
     <row r="33">
@@ -2448,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="H33" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I33" t="n">
         <v>102.19</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>645.823947807728</v>
+        <v>71.89932204715602</v>
       </c>
     </row>
     <row r="34">
@@ -2509,7 +2509,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I34" t="n">
         <v>102.38</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>741.5049842106719</v>
+        <v>80.01737196301725</v>
       </c>
     </row>
     <row r="35">
@@ -2570,7 +2570,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H35" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I35" t="n">
         <v>102.22</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>666.3470332565457</v>
+        <v>72.10819185846854</v>
       </c>
     </row>
     <row r="36">
@@ -2631,7 +2631,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H36" t="n">
-        <v>44.1</v>
+        <v>6.722222222222223</v>
       </c>
       <c r="I36" t="n">
         <v>102.47</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>650.2973776552367</v>
+        <v>69.59220402602625</v>
       </c>
     </row>
     <row r="37">
@@ -2692,7 +2692,7 @@
         <v>11.94444444444444</v>
       </c>
       <c r="H37" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I37" t="n">
         <v>102.3</v>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>627.3150135312944</v>
+        <v>67.97951288205468</v>
       </c>
     </row>
     <row r="38">
@@ -2753,7 +2753,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H38" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I38" t="n">
         <v>101.81</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>889.0279734989898</v>
+        <v>89.44965508723084</v>
       </c>
     </row>
     <row r="39">
@@ -2814,7 +2814,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I39" t="n">
         <v>101.7</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>859.0563686856685</v>
+        <v>83.30244530575122</v>
       </c>
     </row>
     <row r="40">
@@ -2875,7 +2875,7 @@
         <v>10.88888888888889</v>
       </c>
       <c r="H40" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I40" t="n">
         <v>102.05</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>785.8378946280968</v>
+        <v>81.72236547429698</v>
       </c>
     </row>
     <row r="41">
@@ -2936,7 +2936,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I41" t="n">
         <v>102.11</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>684.0439077861436</v>
+        <v>74.75556232741923</v>
       </c>
     </row>
     <row r="42">
@@ -2997,7 +2997,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I42" t="n">
         <v>101.66</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>789.403758187642</v>
+        <v>82.31451041187813</v>
       </c>
     </row>
     <row r="43">
@@ -3058,7 +3058,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H43" t="n">
-        <v>49.3</v>
+        <v>9.611111111111111</v>
       </c>
       <c r="I43" t="n">
         <v>101.84</v>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>860.7195913753495</v>
+        <v>85.9321608586399</v>
       </c>
     </row>
     <row r="44">
@@ -3119,7 +3119,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H44" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I44" t="n">
         <v>101.8</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>938.4982814305348</v>
+        <v>92.86074263106791</v>
       </c>
     </row>
     <row r="45">
@@ -3180,7 +3180,7 @@
         <v>11.61111111111111</v>
       </c>
       <c r="H45" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I45" t="n">
         <v>101.97</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>850.5973898456613</v>
+        <v>85.58295735098113</v>
       </c>
     </row>
     <row r="46">
@@ -3241,7 +3241,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H46" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I46" t="n">
         <v>101.88</v>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>712.8020829169054</v>
+        <v>73.04723959286086</v>
       </c>
     </row>
     <row r="47">
@@ -3302,7 +3302,7 @@
         <v>14.38888888888889</v>
       </c>
       <c r="H47" t="n">
-        <v>51.1</v>
+        <v>10.61111111111111</v>
       </c>
       <c r="I47" t="n">
         <v>101.69</v>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>799.6973050209491</v>
+        <v>78.03314419364517</v>
       </c>
     </row>
     <row r="48">
@@ -3363,7 +3363,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H48" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I48" t="n">
         <v>101.12</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>927.2432638636203</v>
+        <v>85.96038278392415</v>
       </c>
     </row>
     <row r="49">
@@ -3424,7 +3424,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H49" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I49" t="n">
         <v>100.94</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>942.1399956402581</v>
+        <v>83.5015902649009</v>
       </c>
     </row>
     <row r="50">
@@ -3485,7 +3485,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H50" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I50" t="n">
         <v>101.63</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>930.1263640716747</v>
+        <v>88.97457709096378</v>
       </c>
     </row>
     <row r="51">
@@ -3546,7 +3546,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H51" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I51" t="n">
         <v>102.48</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>754.955087604685</v>
+        <v>82.38863950838513</v>
       </c>
     </row>
     <row r="52">
@@ -3607,7 +3607,7 @@
         <v>6.611111111111111</v>
       </c>
       <c r="H52" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I52" t="n">
         <v>102.68</v>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>817.1358704495635</v>
+        <v>90.84069255996091</v>
       </c>
     </row>
     <row r="53">
@@ -3668,7 +3668,7 @@
         <v>7.611111111111113</v>
       </c>
       <c r="H53" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I53" t="n">
         <v>102.71</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>787.6365534101549</v>
+        <v>86.81269584335844</v>
       </c>
     </row>
     <row r="54">
@@ -3729,7 +3729,7 @@
         <v>6.888888888888888</v>
       </c>
       <c r="H54" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I54" t="n">
         <v>103.02</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>840.7368213728562</v>
+        <v>92.2708824545406</v>
       </c>
     </row>
     <row r="55">
@@ -3790,7 +3790,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H55" t="n">
-        <v>37.2</v>
+        <v>2.888888888888891</v>
       </c>
       <c r="I55" t="n">
         <v>103.01</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
-        <v>547.7612772241082</v>
+        <v>64.79882280669551</v>
       </c>
     </row>
     <row r="56">
@@ -3851,7 +3851,7 @@
         <v>10.22222222222222</v>
       </c>
       <c r="H56" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I56" t="n">
         <v>102.84</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>606.5384563364086</v>
+        <v>68.41141671208126</v>
       </c>
     </row>
     <row r="57">
@@ -3912,7 +3912,7 @@
         <v>12.16666666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>44.3</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="I57" t="n">
         <v>102.39</v>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>654.6943736365332</v>
+        <v>69.86934639903836</v>
       </c>
     </row>
     <row r="58">
@@ -3973,7 +3973,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I58" t="n">
         <v>102.35</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>730.5265934336983</v>
+        <v>73.21687041875144</v>
       </c>
     </row>
     <row r="59">
@@ -4034,7 +4034,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H59" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I59" t="n">
         <v>101.64</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>790.8551572743911</v>
+        <v>76.68899374370044</v>
       </c>
     </row>
     <row r="60">
@@ -4095,7 +4095,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H60" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I60" t="n">
         <v>101.39</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>806.4933185929332</v>
+        <v>73.46317468952897</v>
       </c>
     </row>
     <row r="61">
@@ -4156,7 +4156,7 @@
         <v>18.33333333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I61" t="n">
         <v>101.81</v>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>958.9584785752365</v>
+        <v>84.14382407112197</v>
       </c>
     </row>
     <row r="62">
@@ -4217,7 +4217,7 @@
         <v>18.83333333333334</v>
       </c>
       <c r="H62" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I62" t="n">
         <v>101.52</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>866.2378646240894</v>
+        <v>77.29504051466013</v>
       </c>
     </row>
     <row r="63">
@@ -4278,7 +4278,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H63" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I63" t="n">
         <v>101.08</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>853.3237826313785</v>
+        <v>73.89443936434884</v>
       </c>
     </row>
     <row r="64">
@@ -4339,7 +4339,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H64" t="n">
-        <v>63.2</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="I64" t="n">
         <v>101.04</v>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>835.5368164040142</v>
+        <v>70.8914681925428</v>
       </c>
     </row>
     <row r="65">
@@ -4400,7 +4400,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H65" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I65" t="n">
         <v>101.01</v>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>976.8552173524167</v>
+        <v>81.08233910739594</v>
       </c>
     </row>
     <row r="66">
@@ -4461,7 +4461,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H66" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I66" t="n">
         <v>101.43</v>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>1029.031833172163</v>
+        <v>85.06302562029077</v>
       </c>
     </row>
     <row r="67">
@@ -4522,7 +4522,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H67" t="n">
-        <v>56.5</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="I67" t="n">
         <v>101.89</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>757.3319569253168</v>
+        <v>69.22605738602155</v>
       </c>
     </row>
     <row r="68">
@@ -4583,7 +4583,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I68" t="n">
         <v>101.27</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>516.8066244227474</v>
+        <v>50.81213664896475</v>
       </c>
     </row>
     <row r="69">
@@ -4644,7 +4644,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H69" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I69" t="n">
         <v>101.22</v>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>575.9490546291482</v>
+        <v>54.49262774803494</v>
       </c>
     </row>
     <row r="70">
@@ -4705,7 +4705,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H70" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I70" t="n">
         <v>101.35</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>955.8325288301173</v>
+        <v>82.77128832189199</v>
       </c>
     </row>
     <row r="71">
@@ -4766,7 +4766,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H71" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I71" t="n">
         <v>101.05</v>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>850.5752384490199</v>
+        <v>72.32087566103024</v>
       </c>
     </row>
     <row r="72">
@@ -4827,7 +4827,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H72" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I72" t="n">
         <v>100.97</v>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>915.8825953476944</v>
+        <v>76.73381662492838</v>
       </c>
     </row>
     <row r="73">
@@ -4888,7 +4888,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H73" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I73" t="n">
         <v>100.94</v>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>872.2480263666656</v>
+        <v>72.10278032444722</v>
       </c>
     </row>
     <row r="74">
@@ -4949,7 +4949,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H74" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I74" t="n">
         <v>101.09</v>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
-        <v>959.2478231428597</v>
+        <v>78.25523630069185</v>
       </c>
     </row>
     <row r="75">
@@ -5010,7 +5010,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H75" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I75" t="n">
         <v>100.82</v>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>848.6171456586789</v>
+        <v>69.79234624132853</v>
       </c>
     </row>
     <row r="76">
@@ -5071,7 +5071,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H76" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I76" t="n">
         <v>100.48</v>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>827.3949934546345</v>
+        <v>67.97786893329774</v>
       </c>
     </row>
     <row r="77">
@@ -5132,7 +5132,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I77" t="n">
         <v>100.77</v>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>885.2122535945263</v>
+        <v>72.65430523715678</v>
       </c>
     </row>
     <row r="78">
@@ -5193,7 +5193,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I78" t="n">
         <v>100.75</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>882.1630207780919</v>
+        <v>72.62511028786452</v>
       </c>
     </row>
     <row r="79">
@@ -5254,7 +5254,7 @@
         <v>27</v>
       </c>
       <c r="H79" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I79" t="n">
         <v>100.37</v>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>840.6327647340688</v>
+        <v>67.36382941453981</v>
       </c>
     </row>
     <row r="80">
@@ -5315,7 +5315,7 @@
         <v>26.5</v>
       </c>
       <c r="H80" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I80" t="n">
         <v>100.43</v>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
-        <v>873.4303661644116</v>
+        <v>69.85513876940534</v>
       </c>
     </row>
     <row r="81">
@@ -5376,7 +5376,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H81" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I81" t="n">
         <v>100.48</v>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
-        <v>844.7357606607521</v>
+        <v>67.03680232729229</v>
       </c>
     </row>
     <row r="82">
@@ -5437,7 +5437,7 @@
         <v>18.38888888888889</v>
       </c>
       <c r="H82" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I82" t="n">
         <v>101.45</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
-        <v>916.1909529168307</v>
+        <v>81.20173425275321</v>
       </c>
     </row>
     <row r="83">
@@ -5498,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="H83" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I83" t="n">
         <v>101.62</v>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
-        <v>933.3293190160539</v>
+        <v>85.41308973923924</v>
       </c>
     </row>
     <row r="84">
@@ -5559,7 +5559,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H84" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I84" t="n">
         <v>100.87</v>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>1001.201579711604</v>
+        <v>90.46516989966619</v>
       </c>
     </row>
     <row r="85">
@@ -5620,7 +5620,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H85" t="n">
-        <v>66.5</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="I85" t="n">
         <v>100.43</v>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>989.9453330135427</v>
+        <v>81.16803806882318</v>
       </c>
     </row>
     <row r="86">
@@ -5681,7 +5681,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H86" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I86" t="n">
         <v>101.1</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>770.3614536322849</v>
+        <v>65.78068287880215</v>
       </c>
     </row>
     <row r="87">
@@ -5742,7 +5742,7 @@
         <v>18.5</v>
       </c>
       <c r="H87" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I87" t="n">
         <v>101.84</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>770.4550787562384</v>
+        <v>71.08862927716874</v>
       </c>
     </row>
     <row r="88">
@@ -5803,7 +5803,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H88" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I88" t="n">
         <v>101.55</v>
@@ -5834,7 +5834,7 @@
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>643.7293933432082</v>
+        <v>60.46581024037597</v>
       </c>
     </row>
     <row r="89">
@@ -5864,7 +5864,7 @@
         <v>19</v>
       </c>
       <c r="H89" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I89" t="n">
         <v>101.33</v>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
-        <v>919.7609296331955</v>
+        <v>80.70443463363704</v>
       </c>
     </row>
     <row r="90">
@@ -5925,7 +5925,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H90" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I90" t="n">
         <v>101.39</v>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>1046.736256519705</v>
+        <v>86.52652924404349</v>
       </c>
     </row>
     <row r="91">
@@ -5986,7 +5986,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I91" t="n">
         <v>102.03</v>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>1064.933958494314</v>
+        <v>90.06831820378433</v>
       </c>
     </row>
     <row r="92">
@@ -6047,7 +6047,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H92" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I92" t="n">
         <v>102.76</v>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>703.3458189983365</v>
+        <v>68.20323875577502</v>
       </c>
     </row>
     <row r="93">
@@ -6108,7 +6108,7 @@
         <v>15.11111111111111</v>
       </c>
       <c r="H93" t="n">
-        <v>50.4</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="I93" t="n">
         <v>102.76</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
-        <v>737.1960874578238</v>
+        <v>72.57260798341153</v>
       </c>
     </row>
     <row r="94">
@@ -6169,7 +6169,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H94" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I94" t="n">
         <v>102.26</v>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>545.6021611164717</v>
+        <v>56.06120715591442</v>
       </c>
     </row>
     <row r="95">
@@ -6230,7 +6230,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H95" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I95" t="n">
         <v>102.04</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>470.9768326274441</v>
+        <v>47.88494468426648</v>
       </c>
     </row>
     <row r="96">
@@ -6291,7 +6291,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H96" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I96" t="n">
         <v>101.99</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>622.5868634404333</v>
+        <v>57.44507103438167</v>
       </c>
     </row>
     <row r="97">
@@ -6352,7 +6352,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I97" t="n">
         <v>101.91</v>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
-        <v>617.1606410803396</v>
+        <v>56.87741704397948</v>
       </c>
     </row>
     <row r="98">
@@ -6413,7 +6413,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H98" t="n">
-        <v>54.2</v>
+        <v>12.33333333333334</v>
       </c>
       <c r="I98" t="n">
         <v>101.7</v>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="n">
-        <v>546.7314180638698</v>
+        <v>51.35474396378269</v>
       </c>
     </row>
     <row r="99">
@@ -6474,7 +6474,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H99" t="n">
-        <v>52.2</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="I99" t="n">
         <v>101.34</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
-        <v>485.9073731456396</v>
+        <v>46.76851411926194</v>
       </c>
     </row>
     <row r="100">
@@ -6535,7 +6535,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H100" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I100" t="n">
         <v>100.99</v>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="n">
-        <v>638.3693687313904</v>
+        <v>56.57848909094149</v>
       </c>
     </row>
     <row r="101">
@@ -6596,7 +6596,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H101" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I101" t="n">
         <v>100.97</v>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="n">
-        <v>662.7247290079473</v>
+        <v>58.54018649848081</v>
       </c>
     </row>
     <row r="102">
@@ -6657,7 +6657,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I102" t="n">
         <v>100.7</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="n">
-        <v>668.8816493117257</v>
+        <v>57.36096077663893</v>
       </c>
     </row>
     <row r="103">
@@ -6718,7 +6718,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H103" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I103" t="n">
         <v>100.58</v>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="n">
-        <v>928.629255981865</v>
+        <v>76.37273757061379</v>
       </c>
     </row>
     <row r="104">
@@ -6779,7 +6779,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H104" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I104" t="n">
         <v>100.76</v>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>813.0756474956545</v>
+        <v>68.40610140877634</v>
       </c>
     </row>
     <row r="105">
@@ -6840,7 +6840,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I105" t="n">
         <v>100.54</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="n">
-        <v>685.3054344305395</v>
+        <v>57.00015465688806</v>
       </c>
     </row>
     <row r="106">
@@ -6901,7 +6901,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H106" t="n">
-        <v>66.90000000000001</v>
+        <v>19.38888888888889</v>
       </c>
       <c r="I106" t="n">
         <v>100.73</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="n">
-        <v>890.2909020716461</v>
+        <v>72.70286732199438</v>
       </c>
     </row>
     <row r="107">
@@ -6962,7 +6962,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H107" t="n">
-        <v>52.9</v>
+        <v>11.61111111111111</v>
       </c>
       <c r="I107" t="n">
         <v>101.54</v>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="n">
-        <v>698.9138862790064</v>
+        <v>66.69333111720634</v>
       </c>
     </row>
     <row r="108">
@@ -7023,7 +7023,7 @@
         <v>16.05555555555556</v>
       </c>
       <c r="H108" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I108" t="n">
         <v>101.85</v>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="n">
-        <v>899.3241257623021</v>
+        <v>82.97916535190664</v>
       </c>
     </row>
     <row r="109">
@@ -7084,7 +7084,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H109" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I109" t="n">
         <v>101.99</v>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="n">
-        <v>821.2555058466698</v>
+        <v>74.29119888683617</v>
       </c>
     </row>
     <row r="110">
@@ -7145,7 +7145,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I110" t="n">
         <v>101.78</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="n">
-        <v>696.3504245470164</v>
+        <v>63.72610405563461</v>
       </c>
     </row>
     <row r="111">
@@ -7206,7 +7206,7 @@
         <v>20.88888888888889</v>
       </c>
       <c r="H111" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I111" t="n">
         <v>101.31</v>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="n">
-        <v>869.0805553231547</v>
+        <v>75.17703971784503</v>
       </c>
     </row>
     <row r="112">
@@ -7267,7 +7267,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I112" t="n">
         <v>100.97</v>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="n">
-        <v>857.7193665852184</v>
+        <v>72.38998297872567</v>
       </c>
     </row>
     <row r="113">
@@ -7328,7 +7328,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H113" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I113" t="n">
         <v>100.69</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="n">
-        <v>910.4072002448207</v>
+        <v>73.75242097745036</v>
       </c>
     </row>
     <row r="114">
@@ -7389,7 +7389,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H114" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I114" t="n">
         <v>100.64</v>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="n">
-        <v>964.8381895892489</v>
+        <v>75.54868431609422</v>
       </c>
     </row>
     <row r="115">
@@ -7450,7 +7450,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H115" t="n">
-        <v>71.7</v>
+        <v>22.05555555555556</v>
       </c>
       <c r="I115" t="n">
         <v>100.15</v>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="n">
-        <v>885.4789811847565</v>
+        <v>69.00806122647653</v>
       </c>
     </row>
     <row r="116">
@@ -7511,7 +7511,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H116" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I116" t="n">
         <v>100.26</v>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="n">
-        <v>852.341713828831</v>
+        <v>65.32375169682564</v>
       </c>
     </row>
     <row r="117">
@@ -7572,7 +7572,7 @@
         <v>31.83333333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I117" t="n">
         <v>100.35</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="n">
-        <v>793.3803692108933</v>
+        <v>60.58282701596175</v>
       </c>
     </row>
     <row r="118">
@@ -7633,7 +7633,7 @@
         <v>31.11111111111111</v>
       </c>
       <c r="H118" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I118" t="n">
         <v>100.54</v>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>788.5990896543866</v>
+        <v>60.82983735501442</v>
       </c>
     </row>
     <row r="119">
@@ -7694,7 +7694,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H119" t="n">
-        <v>71.40000000000001</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="I119" t="n">
         <v>100.78</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="n">
-        <v>854.4885252627971</v>
+        <v>66.78156258019375</v>
       </c>
     </row>
     <row r="120">
@@ -7755,7 +7755,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H120" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I120" t="n">
         <v>101.23</v>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="n">
-        <v>962.3978493728499</v>
+        <v>78.0419260581842</v>
       </c>
     </row>
     <row r="121">
@@ -7816,7 +7816,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H121" t="n">
-        <v>54.6</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="I121" t="n">
         <v>101.9</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="n">
-        <v>710.5973324287428</v>
+        <v>66.4272967244118</v>
       </c>
     </row>
     <row r="122">
@@ -7877,7 +7877,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H122" t="n">
-        <v>53.1</v>
+        <v>11.72222222222222</v>
       </c>
       <c r="I122" t="n">
         <v>101.76</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="n">
-        <v>532.3753006716241</v>
+        <v>50.67740438243089</v>
       </c>
     </row>
     <row r="123">
@@ -7938,7 +7938,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I123" t="n">
         <v>101.72</v>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="n">
-        <v>733.7509720766039</v>
+        <v>67.30584031954284</v>
       </c>
     </row>
     <row r="124">
@@ -7999,7 +7999,7 @@
         <v>22</v>
       </c>
       <c r="H124" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I124" t="n">
         <v>101.34</v>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="n">
-        <v>620.478776613787</v>
+        <v>57.25056131274356</v>
       </c>
     </row>
     <row r="125">
@@ -8060,7 +8060,7 @@
         <v>25</v>
       </c>
       <c r="H125" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I125" t="n">
         <v>101.04</v>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="n">
-        <v>569.5854577752692</v>
+        <v>51.3478738636223</v>
       </c>
     </row>
     <row r="126">
@@ -8121,7 +8121,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H126" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I126" t="n">
         <v>101.11</v>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="n">
-        <v>887.7630753350675</v>
+        <v>73.76336603221436</v>
       </c>
     </row>
     <row r="127">
@@ -8182,7 +8182,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I127" t="n">
         <v>100.93</v>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="n">
-        <v>878.6281707558139</v>
+        <v>69.126238570563</v>
       </c>
     </row>
     <row r="128">
@@ -8243,7 +8243,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H128" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I128" t="n">
         <v>100.97</v>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="n">
-        <v>975.8101683877403</v>
+        <v>77.21486457726543</v>
       </c>
     </row>
     <row r="129">
@@ -8304,7 +8304,7 @@
         <v>25</v>
       </c>
       <c r="H129" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I129" t="n">
         <v>100.9</v>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="n">
-        <v>1055.796039724525</v>
+        <v>82.59259648861894</v>
       </c>
     </row>
     <row r="130">
@@ -8365,7 +8365,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I130" t="n">
         <v>100.6</v>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="n">
-        <v>923.6844677763208</v>
+        <v>72.8101097484688</v>
       </c>
     </row>
     <row r="131">
@@ -8426,7 +8426,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I131" t="n">
         <v>100.53</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="n">
-        <v>1172.190849108096</v>
+        <v>91.0101047820026</v>
       </c>
     </row>
     <row r="132">
@@ -8487,7 +8487,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H132" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I132" t="n">
         <v>100.58</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="n">
-        <v>1050.191675460218</v>
+        <v>83.58399879374161</v>
       </c>
     </row>
     <row r="133">
@@ -8548,7 +8548,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H133" t="n">
-        <v>69.09999999999999</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="I133" t="n">
         <v>100.7</v>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="n">
-        <v>1111.082696836773</v>
+        <v>88.77530318111592</v>
       </c>
     </row>
     <row r="134">
@@ -8609,7 +8609,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I134" t="n">
         <v>100.89</v>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="n">
-        <v>1047.30839113318</v>
+        <v>84.09067089706913</v>
       </c>
     </row>
     <row r="135">
@@ -8670,7 +8670,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H135" t="n">
-        <v>62.5</v>
+        <v>16.94444444444445</v>
       </c>
       <c r="I135" t="n">
         <v>101.49</v>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="n">
-        <v>933.2821530874124</v>
+        <v>79.77772402971216</v>
       </c>
     </row>
     <row r="136">
@@ -8731,7 +8731,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>61.6</v>
+        <v>16.44444444444445</v>
       </c>
       <c r="I136" t="n">
         <v>101.54</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="n">
-        <v>907.7367772040948</v>
+        <v>78.35047926005736</v>
       </c>
     </row>
     <row r="137">
@@ -8792,7 +8792,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I137" t="n">
         <v>101.3</v>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
-        <v>732.1290425687627</v>
+        <v>63.81691446224424</v>
       </c>
     </row>
     <row r="138">
@@ -8853,7 +8853,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H138" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I138" t="n">
         <v>101.1</v>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="n">
-        <v>817.0949004567237</v>
+        <v>67.47456082910318</v>
       </c>
     </row>
     <row r="139">
@@ -8914,7 +8914,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H139" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I139" t="n">
         <v>100.95</v>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
-        <v>837.5956473876112</v>
+        <v>67.51813341144415</v>
       </c>
     </row>
     <row r="140">
@@ -8975,7 +8975,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H140" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I140" t="n">
         <v>100.57</v>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
-        <v>1185.246168327396</v>
+        <v>95.636633448716</v>
       </c>
     </row>
     <row r="141">
@@ -9036,7 +9036,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H141" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I141" t="n">
         <v>100.67</v>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="n">
-        <v>1194.468333365901</v>
+        <v>94.69946269118327</v>
       </c>
     </row>
     <row r="142">
@@ -9097,7 +9097,7 @@
         <v>23.5</v>
       </c>
       <c r="H142" t="n">
-        <v>71</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I142" t="n">
         <v>100.9</v>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="n">
-        <v>1140.291563984264</v>
+        <v>89.45667162089991</v>
       </c>
     </row>
     <row r="143">
@@ -9158,7 +9158,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H143" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I143" t="n">
         <v>100.56</v>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="n">
-        <v>1220.770021082669</v>
+        <v>93.21846353103321</v>
       </c>
     </row>
     <row r="144">
@@ -9219,7 +9219,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H144" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I144" t="n">
         <v>100.16</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="n">
-        <v>1060.931382441046</v>
+        <v>79.71022490962852</v>
       </c>
     </row>
     <row r="145">
@@ -9280,7 +9280,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I145" t="n">
         <v>100.04</v>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="n">
-        <v>1032.022965442746</v>
+        <v>76.99169679498078</v>
       </c>
     </row>
     <row r="146">
@@ -9341,7 +9341,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H146" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I146" t="n">
         <v>100.16</v>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="n">
-        <v>1057.9225840821</v>
+        <v>78.99335086733377</v>
       </c>
     </row>
     <row r="147">
@@ -9402,7 +9402,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H147" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I147" t="n">
         <v>100.54</v>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
-        <v>1184.735198502199</v>
+        <v>91.04928861829221</v>
       </c>
     </row>
     <row r="148">
@@ -9463,7 +9463,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H148" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I148" t="n">
         <v>100.39</v>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="n">
-        <v>1042.895326011979</v>
+        <v>79.34663159853579</v>
       </c>
     </row>
     <row r="149">
@@ -9524,7 +9524,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H149" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I149" t="n">
         <v>100.14</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="n">
-        <v>986.2520845838185</v>
+        <v>74.23149284563586</v>
       </c>
     </row>
     <row r="150">
@@ -9585,7 +9585,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H150" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I150" t="n">
         <v>99.90000000000001</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="n">
-        <v>972.2299701784099</v>
+        <v>72.65881583949557</v>
       </c>
     </row>
     <row r="151">
@@ -9646,7 +9646,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H151" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I151" t="n">
         <v>99.82000000000001</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="n">
-        <v>975.6497528542294</v>
+        <v>73.30281912681151</v>
       </c>
     </row>
     <row r="152">
@@ -9707,7 +9707,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H152" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I152" t="n">
         <v>100.36</v>
@@ -9738,7 +9738,7 @@
       </c>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="n">
-        <v>1260.495515186951</v>
+        <v>95.12747590318101</v>
       </c>
     </row>
     <row r="153">
@@ -9768,7 +9768,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H153" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I153" t="n">
         <v>100.35</v>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="n">
-        <v>832.2998778150605</v>
+        <v>64.37986010844357</v>
       </c>
     </row>
     <row r="154">
@@ -9829,7 +9829,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I154" t="n">
         <v>100.33</v>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="n">
-        <v>1235.46811150658</v>
+        <v>92.6588595047879</v>
       </c>
     </row>
     <row r="155">
@@ -9890,7 +9890,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H155" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I155" t="n">
         <v>100.39</v>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="n">
-        <v>1097.802061304903</v>
+        <v>83.59995701893874</v>
       </c>
     </row>
     <row r="156">
@@ -9951,7 +9951,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I156" t="n">
         <v>100.61</v>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="n">
-        <v>1169.290348558925</v>
+        <v>88.72188718026055</v>
       </c>
     </row>
     <row r="157">
@@ -10012,7 +10012,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H157" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I157" t="n">
         <v>100.72</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="n">
-        <v>833.8314736930294</v>
+        <v>66.17145654223458</v>
       </c>
     </row>
     <row r="158">
@@ -10073,7 +10073,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H158" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I158" t="n">
         <v>100.41</v>
@@ -10104,7 +10104,7 @@
       </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="n">
-        <v>1111.789880269017</v>
+        <v>83.68025156354021</v>
       </c>
     </row>
     <row r="159">
@@ -10134,7 +10134,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H159" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I159" t="n">
         <v>100.01</v>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="n">
-        <v>1056.757997983141</v>
+        <v>79.68040355945308</v>
       </c>
     </row>
     <row r="160">
@@ -10195,7 +10195,7 @@
         <v>29.5</v>
       </c>
       <c r="H160" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I160" t="n">
         <v>99.86</v>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="n">
-        <v>1038.126147095444</v>
+        <v>77.04124950158958</v>
       </c>
     </row>
     <row r="161">
@@ -10256,7 +10256,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H161" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I161" t="n">
         <v>99.78</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="n">
-        <v>1089.068924727759</v>
+        <v>80.61115876536367</v>
       </c>
     </row>
     <row r="162">
@@ -10317,7 +10317,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H162" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I162" t="n">
         <v>99.72</v>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="n">
-        <v>1121.45017711591</v>
+        <v>82.01516721685664</v>
       </c>
     </row>
     <row r="163">
@@ -10378,7 +10378,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H163" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I163" t="n">
         <v>99.91</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="n">
-        <v>1071.333472159909</v>
+        <v>79.09261058346026</v>
       </c>
     </row>
     <row r="164">
@@ -10439,7 +10439,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H164" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I164" t="n">
         <v>100.57</v>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="n">
-        <v>1045.829164117233</v>
+        <v>77.5453217320926</v>
       </c>
     </row>
     <row r="165">
@@ -10500,7 +10500,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I165" t="n">
         <v>100.51</v>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>926.1200461624937</v>
+        <v>69.83019685071179</v>
       </c>
     </row>
     <row r="166">
@@ -10561,7 +10561,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H166" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I166" t="n">
         <v>100.34</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="n">
-        <v>806.3177333163417</v>
+        <v>62.19659294254691</v>
       </c>
     </row>
     <row r="167">
@@ -10622,7 +10622,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H167" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I167" t="n">
         <v>100.38</v>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="n">
-        <v>848.009284474539</v>
+        <v>64.57770688594334</v>
       </c>
     </row>
     <row r="168">
@@ -10683,7 +10683,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H168" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I168" t="n">
         <v>100.28</v>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="n">
-        <v>927.0193189574236</v>
+        <v>69.64910231955832</v>
       </c>
     </row>
     <row r="169">
@@ -10744,7 +10744,7 @@
         <v>28.5</v>
       </c>
       <c r="H169" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I169" t="n">
         <v>100.05</v>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="n">
-        <v>1002.633877267504</v>
+        <v>75.87110663787388</v>
       </c>
     </row>
     <row r="170">
@@ -10805,7 +10805,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H170" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I170" t="n">
         <v>100.12</v>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="n">
-        <v>1080.729948175555</v>
+        <v>81.27002836010246</v>
       </c>
     </row>
     <row r="171">
@@ -10866,7 +10866,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H171" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I171" t="n">
         <v>100.32</v>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="n">
-        <v>1086.720268017787</v>
+        <v>81.79335593963356</v>
       </c>
     </row>
     <row r="172">
@@ -10927,7 +10927,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I172" t="n">
         <v>100.09</v>
@@ -10958,7 +10958,7 @@
       </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="n">
-        <v>1159.653155910994</v>
+        <v>86.51325324813716</v>
       </c>
     </row>
     <row r="173">
@@ -10988,7 +10988,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H173" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I173" t="n">
         <v>99.77000000000001</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="n">
-        <v>942.2625857314011</v>
+        <v>71.56042619878879</v>
       </c>
     </row>
     <row r="174">
@@ -11049,7 +11049,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H174" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I174" t="n">
         <v>99.71000000000001</v>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="n">
-        <v>882.9291497615799</v>
+        <v>66.9333022380232</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>31.83333333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I175" t="n">
         <v>99.78999999999999</v>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>810.4776697990875</v>
+        <v>61.60772155857913</v>
       </c>
     </row>
     <row r="176">
@@ -11171,7 +11171,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H176" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I176" t="n">
         <v>100.14</v>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="n">
-        <v>1044.448099626077</v>
+        <v>78.89341792973765</v>
       </c>
     </row>
     <row r="177">
@@ -11232,7 +11232,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H177" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I177" t="n">
         <v>100.2</v>
@@ -11263,7 +11263,7 @@
       </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="n">
-        <v>931.9802638955392</v>
+        <v>70.08417098620333</v>
       </c>
     </row>
     <row r="178">
@@ -11293,7 +11293,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H178" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I178" t="n">
         <v>100.35</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="n">
-        <v>884.8003142417689</v>
+        <v>67.13572360702788</v>
       </c>
     </row>
     <row r="179">
@@ -11354,7 +11354,7 @@
         <v>26.38888888888889</v>
       </c>
       <c r="H179" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I179" t="n">
         <v>100.54</v>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="n">
-        <v>1208.921934468691</v>
+        <v>90.26822565051714</v>
       </c>
     </row>
     <row r="180">
@@ -11415,7 +11415,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H180" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I180" t="n">
         <v>100.5</v>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="n">
-        <v>1215.275127851477</v>
+        <v>91.14440614249187</v>
       </c>
     </row>
     <row r="181">
@@ -11476,7 +11476,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I181" t="n">
         <v>100.47</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="n">
-        <v>1082.83888915212</v>
+        <v>81.28392099547189</v>
       </c>
     </row>
     <row r="182">
@@ -11537,7 +11537,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H182" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I182" t="n">
         <v>100.47</v>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="n">
-        <v>909.5281803782868</v>
+        <v>68.51789392454489</v>
       </c>
     </row>
     <row r="183">
@@ -11598,7 +11598,7 @@
         <v>31.72222222222222</v>
       </c>
       <c r="H183" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I183" t="n">
         <v>100.38</v>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
-        <v>876.4898531125906</v>
+        <v>65.61953705976913</v>
       </c>
     </row>
     <row r="184">
@@ -11659,7 +11659,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H184" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I184" t="n">
         <v>100.35</v>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="n">
-        <v>875.4522992854593</v>
+        <v>66.48649813995189</v>
       </c>
     </row>
     <row r="185">
@@ -11720,7 +11720,7 @@
         <v>32.16666666666667</v>
       </c>
       <c r="H185" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I185" t="n">
         <v>100.34</v>
@@ -11751,7 +11751,7 @@
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="n">
-        <v>765.3256743071311</v>
+        <v>58.65481356188155</v>
       </c>
     </row>
     <row r="186">
@@ -11781,7 +11781,7 @@
         <v>31.38888888888889</v>
       </c>
       <c r="H186" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I186" t="n">
         <v>100.29</v>
@@ -11812,7 +11812,7 @@
       </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="n">
-        <v>882.0365100429038</v>
+        <v>66.21057547497925</v>
       </c>
     </row>
     <row r="187">
@@ -11842,7 +11842,7 @@
         <v>33.05555555555556</v>
       </c>
       <c r="H187" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I187" t="n">
         <v>100.18</v>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="n">
-        <v>826.6502242101426</v>
+        <v>61.67033636754963</v>
       </c>
     </row>
     <row r="188">
@@ -11903,7 +11903,7 @@
         <v>33.88888888888889</v>
       </c>
       <c r="H188" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I188" t="n">
         <v>99.92999999999999</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="n">
-        <v>846.9955609968279</v>
+        <v>62.26186348657045</v>
       </c>
     </row>
     <row r="189">
@@ -11964,7 +11964,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H189" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I189" t="n">
         <v>100.04</v>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="n">
-        <v>1043.620588952694</v>
+        <v>78.20116176117683</v>
       </c>
     </row>
     <row r="190">
@@ -12025,7 +12025,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H190" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I190" t="n">
         <v>100.15</v>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="n">
-        <v>947.629535029459</v>
+        <v>70.63363242760052</v>
       </c>
     </row>
     <row r="191">
@@ -12086,7 +12086,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H191" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I191" t="n">
         <v>100.73</v>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="n">
-        <v>1035.625576647597</v>
+        <v>78.36764779670001</v>
       </c>
     </row>
     <row r="192">
@@ -12147,7 +12147,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H192" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I192" t="n">
         <v>100.98</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="n">
-        <v>984.2506332610706</v>
+        <v>74.21328990323907</v>
       </c>
     </row>
     <row r="193">
@@ -12208,7 +12208,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H193" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I193" t="n">
         <v>100.91</v>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="n">
-        <v>901.8935758461491</v>
+        <v>68.43270380486803</v>
       </c>
     </row>
     <row r="194">
@@ -12269,7 +12269,7 @@
         <v>32.5</v>
       </c>
       <c r="H194" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I194" t="n">
         <v>100.71</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="n">
-        <v>747.8242476856771</v>
+        <v>57.36614284464759</v>
       </c>
     </row>
     <row r="195">
@@ -12330,7 +12330,7 @@
         <v>33.5</v>
       </c>
       <c r="H195" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I195" t="n">
         <v>100.47</v>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="n">
-        <v>737.7450310418614</v>
+        <v>56.07901629778311</v>
       </c>
     </row>
     <row r="196">
@@ -12391,7 +12391,7 @@
         <v>33.5</v>
       </c>
       <c r="H196" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I196" t="n">
         <v>100.54</v>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="n">
-        <v>734.6097756696126</v>
+        <v>55.89133423546504</v>
       </c>
     </row>
     <row r="197">
@@ -12452,7 +12452,7 @@
         <v>31.55555555555556</v>
       </c>
       <c r="H197" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I197" t="n">
         <v>100.43</v>
@@ -12483,7 +12483,7 @@
       </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="n">
-        <v>826.8817098128166</v>
+        <v>62.79778956123783</v>
       </c>
     </row>
     <row r="198">
@@ -12513,7 +12513,7 @@
         <v>29.5</v>
       </c>
       <c r="H198" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I198" t="n">
         <v>100.45</v>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="n">
-        <v>906.7503908353763</v>
+        <v>69.2398050247612</v>
       </c>
     </row>
     <row r="199">
@@ -12574,7 +12574,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I199" t="n">
         <v>100.42</v>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="n">
-        <v>821.7331561105397</v>
+        <v>63.56250559082933</v>
       </c>
     </row>
     <row r="200">
@@ -12635,7 +12635,7 @@
         <v>32.94444444444444</v>
       </c>
       <c r="H200" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I200" t="n">
         <v>100.32</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="n">
-        <v>726.1953473097125</v>
+        <v>55.75821544242871</v>
       </c>
     </row>
     <row r="201">
@@ -12696,7 +12696,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H201" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I201" t="n">
         <v>100.2</v>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="n">
-        <v>1037.932498181445</v>
+        <v>77.70614775298156</v>
       </c>
     </row>
     <row r="202">
@@ -12757,7 +12757,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H202" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I202" t="n">
         <v>100.3</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="n">
-        <v>866.7637259235714</v>
+        <v>67.10816117933143</v>
       </c>
     </row>
     <row r="203">
@@ -12818,7 +12818,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I203" t="n">
         <v>100.59</v>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="n">
-        <v>872.5967465463167</v>
+        <v>66.63181974528327</v>
       </c>
     </row>
     <row r="204">
@@ -12879,7 +12879,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H204" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I204" t="n">
         <v>100.51</v>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="n">
-        <v>1158.049202344278</v>
+        <v>86.24202202766602</v>
       </c>
     </row>
     <row r="205">
@@ -12940,7 +12940,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H205" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I205" t="n">
         <v>100.39</v>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="n">
-        <v>921.2430421046561</v>
+        <v>69.58700232366328</v>
       </c>
     </row>
     <row r="206">
@@ -13001,7 +13001,7 @@
         <v>30.5</v>
       </c>
       <c r="H206" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I206" t="n">
         <v>100.36</v>
@@ -13032,7 +13032,7 @@
       </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="n">
-        <v>908.57468255243</v>
+        <v>68.50726231346164</v>
       </c>
     </row>
     <row r="207">
@@ -13062,7 +13062,7 @@
         <v>34.77777777777778</v>
       </c>
       <c r="H207" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I207" t="n">
         <v>100.24</v>
@@ -13093,7 +13093,7 @@
       </c>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="n">
-        <v>669.600657797258</v>
+        <v>51.17766127007422</v>
       </c>
     </row>
     <row r="208">
@@ -13123,7 +13123,7 @@
         <v>33.5</v>
       </c>
       <c r="H208" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I208" t="n">
         <v>100.27</v>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="n">
-        <v>706.8998136433157</v>
+        <v>54.22679969500259</v>
       </c>
     </row>
     <row r="209">
@@ -13184,7 +13184,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H209" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I209" t="n">
         <v>100.49</v>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="n">
-        <v>1059.147696640211</v>
+        <v>79.93209478028798</v>
       </c>
     </row>
     <row r="210">
@@ -13245,7 +13245,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I210" t="n">
         <v>100.49</v>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="n">
-        <v>969.416464844441</v>
+        <v>72.83449780329336</v>
       </c>
     </row>
     <row r="211">
@@ -13306,7 +13306,7 @@
         <v>33.00000000000001</v>
       </c>
       <c r="H211" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I211" t="n">
         <v>100.45</v>
@@ -13337,7 +13337,7 @@
       </c>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="n">
-        <v>829.2383551744274</v>
+        <v>61.86341791819363</v>
       </c>
     </row>
     <row r="212">
@@ -13367,7 +13367,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H212" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I212" t="n">
         <v>100.15</v>
@@ -13398,7 +13398,7 @@
       </c>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="n">
-        <v>919.401359718044</v>
+        <v>69.95083702187635</v>
       </c>
     </row>
     <row r="213">
@@ -13428,7 +13428,7 @@
         <v>31.55555555555556</v>
       </c>
       <c r="H213" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I213" t="n">
         <v>100.75</v>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="n">
-        <v>844.6331205683624</v>
+        <v>63.8574844823127</v>
       </c>
     </row>
     <row r="214">
@@ -13489,7 +13489,7 @@
         <v>32.27777777777778</v>
       </c>
       <c r="H214" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I214" t="n">
         <v>100.67</v>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="n">
-        <v>797.0750493251553</v>
+        <v>60.47942043443907</v>
       </c>
     </row>
     <row r="215">
@@ -13550,7 +13550,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H215" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I215" t="n">
         <v>100.68</v>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="n">
-        <v>840.8056115217848</v>
+        <v>64.14573244992337</v>
       </c>
     </row>
     <row r="216">
@@ -13611,7 +13611,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H216" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I216" t="n">
         <v>100.81</v>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>725.6891639169758</v>
+        <v>59.62182906750617</v>
       </c>
     </row>
     <row r="217">
@@ -13672,7 +13672,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I217" t="n">
         <v>101.4</v>
@@ -13703,7 +13703,7 @@
       </c>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="n">
-        <v>1144.654475948233</v>
+        <v>87.24714423076433</v>
       </c>
     </row>
     <row r="218">
@@ -13733,7 +13733,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H218" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I218" t="n">
         <v>101.37</v>
@@ -13764,7 +13764,7 @@
       </c>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="n">
-        <v>1134.248203600224</v>
+        <v>85.59980369323537</v>
       </c>
     </row>
     <row r="219">
@@ -13794,7 +13794,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H219" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I219" t="n">
         <v>100.92</v>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="n">
-        <v>996.5328012328055</v>
+        <v>75.81923044726359</v>
       </c>
     </row>
     <row r="220">
@@ -13855,7 +13855,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H220" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I220" t="n">
         <v>100.98</v>
@@ -13886,7 +13886,7 @@
       </c>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="n">
-        <v>1049.714716605503</v>
+        <v>79.86547146640635</v>
       </c>
     </row>
     <row r="221">
@@ -13916,7 +13916,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H221" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I221" t="n">
         <v>100.85</v>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="n">
-        <v>1103.100563430835</v>
+        <v>82.87849286416581</v>
       </c>
     </row>
     <row r="222">
@@ -13977,7 +13977,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H222" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I222" t="n">
         <v>100.43</v>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="n">
-        <v>1174.887011009945</v>
+        <v>87.11460188101054</v>
       </c>
     </row>
     <row r="223">
@@ -14038,7 +14038,7 @@
         <v>31.5</v>
       </c>
       <c r="H223" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I223" t="n">
         <v>100.54</v>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>788.057112305035</v>
+        <v>60.50804155056404</v>
       </c>
     </row>
     <row r="224">
@@ -14099,7 +14099,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H224" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I224" t="n">
         <v>100.82</v>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="n">
-        <v>1122.501373988792</v>
+        <v>83.74163011093279</v>
       </c>
     </row>
     <row r="225">
@@ -14160,7 +14160,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H225" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I225" t="n">
         <v>100.91</v>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
-        <v>975.3647846197387</v>
+        <v>74.34365027125904</v>
       </c>
     </row>
     <row r="226">
@@ -14221,7 +14221,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H226" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I226" t="n">
         <v>101.02</v>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="n">
-        <v>770.7055850339262</v>
+        <v>61.88162938282006</v>
       </c>
     </row>
     <row r="227">
@@ -14282,7 +14282,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H227" t="n">
-        <v>69.09999999999999</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="I227" t="n">
         <v>101.28</v>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="n">
-        <v>918.6184895341878</v>
+        <v>73.39744840626993</v>
       </c>
     </row>
     <row r="228">
@@ -14343,7 +14343,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H228" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I228" t="n">
         <v>101.32</v>
@@ -14374,7 +14374,7 @@
       </c>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="n">
-        <v>952.6727566319794</v>
+        <v>76.3421172215882</v>
       </c>
     </row>
     <row r="229">
@@ -14404,7 +14404,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H229" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I229" t="n">
         <v>101.2</v>
@@ -14435,7 +14435,7 @@
       </c>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="n">
-        <v>1098.087249358239</v>
+        <v>85.41656949735481</v>
       </c>
     </row>
     <row r="230">
@@ -14465,7 +14465,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H230" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I230" t="n">
         <v>100.75</v>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="n">
-        <v>905.6830683775256</v>
+        <v>71.80408014850292</v>
       </c>
     </row>
     <row r="231">
@@ -14526,7 +14526,7 @@
         <v>29.5</v>
       </c>
       <c r="H231" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I231" t="n">
         <v>100.83</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="n">
-        <v>789.8205532838284</v>
+        <v>62.13928236248817</v>
       </c>
     </row>
     <row r="232">
@@ -14587,7 +14587,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I232" t="n">
         <v>101.05</v>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="n">
-        <v>1333.00155500061</v>
+        <v>99.01083364883878</v>
       </c>
     </row>
     <row r="233">
@@ -14648,7 +14648,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H233" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I233" t="n">
         <v>101.24</v>
@@ -14679,7 +14679,7 @@
       </c>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="n">
-        <v>1023.768101607826</v>
+        <v>77.8207993812405</v>
       </c>
     </row>
     <row r="234">
@@ -14709,7 +14709,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H234" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I234" t="n">
         <v>101.33</v>
@@ -14740,7 +14740,7 @@
       </c>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="n">
-        <v>1147.970543166716</v>
+        <v>87.26193480247015</v>
       </c>
     </row>
     <row r="235">
@@ -14770,7 +14770,7 @@
         <v>31.27777777777778</v>
       </c>
       <c r="H235" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I235" t="n">
         <v>101.11</v>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="n">
-        <v>703.9793753988155</v>
+        <v>55.5448734125118</v>
       </c>
     </row>
     <row r="236">
@@ -14831,7 +14831,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H236" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I236" t="n">
         <v>101.37</v>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
-        <v>941.7522699102802</v>
+        <v>72.98208600785475</v>
       </c>
     </row>
     <row r="237">
@@ -14892,7 +14892,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I237" t="n">
         <v>101.61</v>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="n">
-        <v>886.1305213142929</v>
+        <v>72.8775378566894</v>
       </c>
     </row>
     <row r="238">
@@ -14953,7 +14953,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H238" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I238" t="n">
         <v>101.61</v>
@@ -14984,7 +14984,7 @@
       </c>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="n">
-        <v>862.4090854320203</v>
+        <v>71.58291696882164</v>
       </c>
     </row>
     <row r="239">
@@ -15014,7 +15014,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H239" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I239" t="n">
         <v>102.4</v>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="n">
-        <v>793.4652416901253</v>
+        <v>70.24580707215799</v>
       </c>
     </row>
     <row r="240">
@@ -15075,7 +15075,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H240" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I240" t="n">
         <v>101.72</v>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="n">
-        <v>683.0075071783452</v>
+        <v>60.33181666532218</v>
       </c>
     </row>
     <row r="241">
@@ -15136,7 +15136,7 @@
         <v>23</v>
       </c>
       <c r="H241" t="n">
-        <v>56.7</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="I241" t="n">
         <v>101.63</v>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="n">
-        <v>612.5218591206242</v>
+        <v>55.85918634804241</v>
       </c>
     </row>
     <row r="242">
@@ -15197,7 +15197,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H242" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I242" t="n">
         <v>101.52</v>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="n">
-        <v>646.1290673032228</v>
+        <v>58.78747476166851</v>
       </c>
     </row>
     <row r="243">
@@ -15258,7 +15258,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H243" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I243" t="n">
         <v>101.44</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="n">
-        <v>572.7788102827398</v>
+        <v>52.6633370773691</v>
       </c>
     </row>
     <row r="244">
@@ -15319,7 +15319,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H244" t="n">
-        <v>59.4</v>
+        <v>15.22222222222222</v>
       </c>
       <c r="I244" t="n">
         <v>101.69</v>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="n">
-        <v>822.1819000520217</v>
+        <v>72.70667514741478</v>
       </c>
     </row>
     <row r="245">
@@ -15380,7 +15380,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H245" t="n">
-        <v>44.7</v>
+        <v>7.055555555555557</v>
       </c>
       <c r="I245" t="n">
         <v>101.69</v>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="n">
-        <v>340.6688403925202</v>
+        <v>36.15675379236806</v>
       </c>
     </row>
     <row r="246">
@@ -15441,7 +15441,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H246" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I246" t="n">
         <v>101.82</v>
@@ -15472,7 +15472,7 @@
       </c>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="n">
-        <v>551.1546251219968</v>
+        <v>52.72267465604218</v>
       </c>
     </row>
     <row r="247">
@@ -15502,7 +15502,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H247" t="n">
-        <v>62.1</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="I247" t="n">
         <v>102.08</v>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="n">
-        <v>1152.574948970797</v>
+        <v>98.94725946176706</v>
       </c>
     </row>
     <row r="248">
@@ -15563,7 +15563,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H248" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I248" t="n">
         <v>101.52</v>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="n">
-        <v>818.0919925771077</v>
+        <v>64.54850490718147</v>
       </c>
     </row>
     <row r="249">
@@ -15624,7 +15624,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H249" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I249" t="n">
         <v>101.41</v>
@@ -15655,7 +15655,7 @@
       </c>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="n">
-        <v>710.6596867321525</v>
+        <v>58.92652027893346</v>
       </c>
     </row>
     <row r="250">
@@ -15685,7 +15685,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H250" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I250" t="n">
         <v>101.27</v>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="n">
-        <v>911.5403741820519</v>
+        <v>73.11768848388817</v>
       </c>
     </row>
     <row r="251">
@@ -15746,7 +15746,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H251" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I251" t="n">
         <v>101.7</v>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="n">
-        <v>884.3105121163325</v>
+        <v>74.39926992648009</v>
       </c>
     </row>
     <row r="252">
@@ -15807,7 +15807,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H252" t="n">
-        <v>61</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="I252" t="n">
         <v>101.67</v>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="n">
-        <v>770.4329873905484</v>
+        <v>66.93525425403374</v>
       </c>
     </row>
     <row r="253">
@@ -15868,7 +15868,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H253" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I253" t="n">
         <v>101.86</v>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="n">
-        <v>734.572721353436</v>
+        <v>66.9119543917608</v>
       </c>
     </row>
     <row r="254">
@@ -15929,7 +15929,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H254" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I254" t="n">
         <v>101.58</v>
@@ -15960,7 +15960,7 @@
       </c>
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="n">
-        <v>645.0176614221505</v>
+        <v>59.44471518018312</v>
       </c>
     </row>
     <row r="255">
@@ -15990,7 +15990,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H255" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I255" t="n">
         <v>101.58</v>
@@ -16021,7 +16021,7 @@
       </c>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="n">
-        <v>695.8127593418549</v>
+        <v>63.16161621609487</v>
       </c>
     </row>
     <row r="256">
@@ -16051,7 +16051,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H256" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I256" t="n">
         <v>101.97</v>
@@ -16082,7 +16082,7 @@
       </c>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="n">
-        <v>855.9623325444312</v>
+        <v>76.7254775857681</v>
       </c>
     </row>
     <row r="257">
@@ -16112,7 +16112,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H257" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I257" t="n">
         <v>101.8</v>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="R257" t="inlineStr"/>
       <c r="S257" t="n">
-        <v>751.062121916072</v>
+        <v>67.70791384057249</v>
       </c>
     </row>
     <row r="258">
@@ -16173,7 +16173,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H258" t="n">
-        <v>61.2</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="I258" t="n">
         <v>101.59</v>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="n">
-        <v>823.7271395241505</v>
+        <v>71.40928211109032</v>
       </c>
     </row>
     <row r="259">
@@ -16234,7 +16234,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H259" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I259" t="n">
         <v>101.74</v>
@@ -16265,7 +16265,7 @@
       </c>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="n">
-        <v>815.5971188436121</v>
+        <v>71.32765950301383</v>
       </c>
     </row>
     <row r="260">
@@ -16295,7 +16295,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H260" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I260" t="n">
         <v>101.54</v>
@@ -16326,7 +16326,7 @@
       </c>
       <c r="R260" t="inlineStr"/>
       <c r="S260" t="n">
-        <v>729.6726762115862</v>
+        <v>63.60280231453616</v>
       </c>
     </row>
     <row r="261">
@@ -16356,7 +16356,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H261" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I261" t="n">
         <v>101.37</v>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="R261" t="inlineStr"/>
       <c r="S261" t="n">
-        <v>890.1132869367947</v>
+        <v>73.13073542122406</v>
       </c>
     </row>
     <row r="262">
@@ -16417,7 +16417,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H262" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I262" t="n">
         <v>101.38</v>
@@ -16448,7 +16448,7 @@
       </c>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="n">
-        <v>802.0037929284484</v>
+        <v>66.16071083630956</v>
       </c>
     </row>
     <row r="263">
@@ -16478,7 +16478,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H263" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I263" t="n">
         <v>101.47</v>
@@ -16509,7 +16509,7 @@
       </c>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="n">
-        <v>944.3642022023439</v>
+        <v>77.19634775463572</v>
       </c>
     </row>
     <row r="264">
@@ -16539,7 +16539,7 @@
         <v>24</v>
       </c>
       <c r="H264" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I264" t="n">
         <v>101.25</v>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="R264" t="inlineStr"/>
       <c r="S264" t="n">
-        <v>1216.769266721174</v>
+        <v>93.51117134666474</v>
       </c>
     </row>
     <row r="265">
@@ -16600,7 +16600,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H265" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I265" t="n">
         <v>101.61</v>
@@ -16631,7 +16631,7 @@
       </c>
       <c r="R265" t="inlineStr"/>
       <c r="S265" t="n">
-        <v>1206.743077354657</v>
+        <v>97.95384741184438</v>
       </c>
     </row>
     <row r="266">
@@ -16661,7 +16661,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H266" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I266" t="n">
         <v>101.42</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="n">
-        <v>1018.796224388811</v>
+        <v>84.73819035489029</v>
       </c>
     </row>
     <row r="267">
@@ -16722,7 +16722,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>68.3</v>
+        <v>20.16666666666666</v>
       </c>
       <c r="I267" t="n">
         <v>101.13</v>
@@ -16753,7 +16753,7 @@
       </c>
       <c r="R267" t="inlineStr"/>
       <c r="S267" t="n">
-        <v>963.3642203078427</v>
+        <v>77.57958070327226</v>
       </c>
     </row>
     <row r="268">
@@ -16783,7 +16783,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H268" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I268" t="n">
         <v>101.26</v>
@@ -16814,7 +16814,7 @@
       </c>
       <c r="R268" t="inlineStr"/>
       <c r="S268" t="n">
-        <v>1079.003553785776</v>
+        <v>86.12811834564835</v>
       </c>
     </row>
     <row r="269">
@@ -16844,7 +16844,7 @@
         <v>23</v>
       </c>
       <c r="H269" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I269" t="n">
         <v>101.37</v>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="R269" t="inlineStr"/>
       <c r="S269" t="n">
-        <v>933.805180863607</v>
+        <v>77.112333516577</v>
       </c>
     </row>
     <row r="270">
@@ -16905,7 +16905,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H270" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I270" t="n">
         <v>101.47</v>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="R270" t="inlineStr"/>
       <c r="S270" t="n">
-        <v>966.8859786154999</v>
+        <v>79.51906385657718</v>
       </c>
     </row>
     <row r="271">
@@ -16966,7 +16966,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H271" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I271" t="n">
         <v>101.57</v>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>1240.549175557689</v>
+        <v>100</v>
       </c>
     </row>
     <row r="272">
@@ -17027,7 +17027,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H272" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I272" t="n">
         <v>101.1</v>
@@ -17058,7 +17058,7 @@
       </c>
       <c r="R272" t="inlineStr"/>
       <c r="S272" t="n">
-        <v>1236.344114578432</v>
+        <v>98.97700997293846</v>
       </c>
     </row>
     <row r="273">
@@ -17088,7 +17088,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H273" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I273" t="n">
         <v>100.52</v>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="R273" t="inlineStr"/>
       <c r="S273" t="n">
-        <v>1003.973329300911</v>
+        <v>79.06327620046268</v>
       </c>
     </row>
     <row r="274">
@@ -17149,7 +17149,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H274" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I274" t="n">
         <v>100.58</v>
@@ -17180,7 +17180,7 @@
       </c>
       <c r="R274" t="inlineStr"/>
       <c r="S274" t="n">
-        <v>948.413265974118</v>
+        <v>75.63043617144832</v>
       </c>
     </row>
     <row r="275">
@@ -17210,7 +17210,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H275" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I275" t="n">
         <v>100.91</v>
@@ -17241,7 +17241,7 @@
       </c>
       <c r="R275" t="inlineStr"/>
       <c r="S275" t="n">
-        <v>956.4161513617929</v>
+        <v>74.81832692347764</v>
       </c>
     </row>
     <row r="276">
@@ -17271,7 +17271,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H276" t="n">
-        <v>52.2</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="I276" t="n">
         <v>102.06</v>
@@ -17302,7 +17302,7 @@
       </c>
       <c r="R276" t="inlineStr"/>
       <c r="S276" t="n">
-        <v>774.9105623453106</v>
+        <v>74.58502912107352</v>
       </c>
     </row>
     <row r="277">
@@ -17332,7 +17332,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H277" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I277" t="n">
         <v>102.57</v>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="R277" t="inlineStr"/>
       <c r="S277" t="n">
-        <v>688.4329503125543</v>
+        <v>74.29025647804166</v>
       </c>
     </row>
     <row r="278">
@@ -17393,7 +17393,7 @@
         <v>10.83333333333333</v>
       </c>
       <c r="H278" t="n">
-        <v>41.2</v>
+        <v>5.111111111111112</v>
       </c>
       <c r="I278" t="n">
         <v>102.28</v>
@@ -17424,7 +17424,7 @@
       </c>
       <c r="R278" t="inlineStr"/>
       <c r="S278" t="n">
-        <v>607.6553508316854</v>
+        <v>67.74750936807348</v>
       </c>
     </row>
     <row r="279">
@@ -17454,7 +17454,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H279" t="n">
-        <v>48.5</v>
+        <v>9.166666666666668</v>
       </c>
       <c r="I279" t="n">
         <v>102.06</v>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="R279" t="inlineStr"/>
       <c r="S279" t="n">
-        <v>832.8403061544507</v>
+        <v>84.01451119168226</v>
       </c>
     </row>
     <row r="280">
@@ -17515,7 +17515,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H280" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I280" t="n">
         <v>102.28</v>
@@ -17546,7 +17546,7 @@
       </c>
       <c r="R280" t="inlineStr"/>
       <c r="S280" t="n">
-        <v>592.8958658429611</v>
+        <v>61.574795258211</v>
       </c>
     </row>
     <row r="281">
@@ -17576,7 +17576,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H281" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I281" t="n">
         <v>101.95</v>
@@ -17607,7 +17607,7 @@
       </c>
       <c r="R281" t="inlineStr"/>
       <c r="S281" t="n">
-        <v>615.7485233453752</v>
+        <v>64.03410450052669</v>
       </c>
     </row>
     <row r="282">
@@ -17637,7 +17637,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H282" t="n">
-        <v>49.4</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="I282" t="n">
         <v>102.08</v>
@@ -17668,7 +17668,7 @@
       </c>
       <c r="R282" t="inlineStr"/>
       <c r="S282" t="n">
-        <v>764.4028283070924</v>
+        <v>76.21799566650458</v>
       </c>
     </row>
     <row r="283">
@@ -17698,7 +17698,7 @@
         <v>14.05555555555556</v>
       </c>
       <c r="H283" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I283" t="n">
         <v>101.96</v>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="R283" t="inlineStr"/>
       <c r="S283" t="n">
-        <v>942.1783976048257</v>
+        <v>88.71270186642512</v>
       </c>
     </row>
     <row r="284">
@@ -17759,7 +17759,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H284" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I284" t="n">
         <v>101.78</v>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="n">
-        <v>940.5890031235396</v>
+        <v>87.19760380242684</v>
       </c>
     </row>
     <row r="285">
@@ -17820,7 +17820,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H285" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I285" t="n">
         <v>101.82</v>
@@ -17851,7 +17851,7 @@
       </c>
       <c r="R285" t="inlineStr"/>
       <c r="S285" t="n">
-        <v>657.373786891516</v>
+        <v>63.98477292807422</v>
       </c>
     </row>
     <row r="286">
@@ -17881,7 +17881,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H286" t="n">
-        <v>50.4</v>
+        <v>10.22222222222222</v>
       </c>
       <c r="I286" t="n">
         <v>101.95</v>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="R286" t="inlineStr"/>
       <c r="S286" t="n">
-        <v>686.5488661436514</v>
+        <v>67.58668768294221</v>
       </c>
     </row>
     <row r="287">
@@ -17942,7 +17942,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H287" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I287" t="n">
         <v>102.14</v>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="R287" t="inlineStr"/>
       <c r="S287" t="n">
-        <v>697.2679190935278</v>
+        <v>69.43475269301587</v>
       </c>
     </row>
     <row r="288">
@@ -18003,7 +18003,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H288" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I288" t="n">
         <v>102.1</v>
@@ -18034,7 +18034,7 @@
       </c>
       <c r="R288" t="inlineStr"/>
       <c r="S288" t="n">
-        <v>476.6017965844384</v>
+        <v>52.45593177070062</v>
       </c>
     </row>
     <row r="289">
@@ -18064,7 +18064,7 @@
         <v>13.5</v>
       </c>
       <c r="H289" t="n">
-        <v>43.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I289" t="n">
         <v>101.54</v>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="R289" t="inlineStr"/>
       <c r="S289" t="n">
-        <v>572.4696133831878</v>
+        <v>61.86274559349824</v>
       </c>
     </row>
     <row r="290">
@@ -18125,7 +18125,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H290" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I290" t="n">
         <v>102.35</v>
@@ -18156,7 +18156,7 @@
       </c>
       <c r="R290" t="inlineStr"/>
       <c r="S290" t="n">
-        <v>564.9764232825885</v>
+        <v>59.31231943582252</v>
       </c>
     </row>
     <row r="291">
@@ -18186,7 +18186,7 @@
         <v>13</v>
       </c>
       <c r="H291" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I291" t="n">
         <v>103.34</v>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="R291" t="inlineStr"/>
       <c r="S291" t="n">
-        <v>336.4708627866107</v>
+        <v>42.51418192450358</v>
       </c>
     </row>
     <row r="292">
@@ -18247,7 +18247,7 @@
         <v>12.72222222222222</v>
       </c>
       <c r="H292" t="n">
-        <v>34.3</v>
+        <v>1.277777777777776</v>
       </c>
       <c r="I292" t="n">
         <v>102.62</v>
@@ -18278,7 +18278,7 @@
       </c>
       <c r="R292" t="inlineStr"/>
       <c r="S292" t="n">
-        <v>368.5282401203291</v>
+        <v>45.6060511553138</v>
       </c>
     </row>
     <row r="293">
@@ -18308,7 +18308,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H293" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I293" t="n">
         <v>102.02</v>
@@ -18339,7 +18339,7 @@
       </c>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="n">
-        <v>412.5869386427947</v>
+        <v>48.51236878010718</v>
       </c>
     </row>
     <row r="294">
@@ -18369,7 +18369,7 @@
         <v>13.44444444444445</v>
       </c>
       <c r="H294" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I294" t="n">
         <v>101.86</v>
@@ -18400,7 +18400,7 @@
       </c>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="n">
-        <v>688.3715350302109</v>
+        <v>70.91922575997344</v>
       </c>
     </row>
     <row r="295">
@@ -18430,7 +18430,7 @@
         <v>13.27777777777778</v>
       </c>
       <c r="H295" t="n">
-        <v>45.4</v>
+        <v>7.444444444444444</v>
       </c>
       <c r="I295" t="n">
         <v>102.1</v>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="R295" t="inlineStr"/>
       <c r="S295" t="n">
-        <v>644.3679969866945</v>
+        <v>67.73895182750186</v>
       </c>
     </row>
     <row r="296">
@@ -18491,7 +18491,7 @@
         <v>14.5</v>
       </c>
       <c r="H296" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I296" t="n">
         <v>102.11</v>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="R296" t="inlineStr"/>
       <c r="S296" t="n">
-        <v>571.0831474611331</v>
+        <v>60.69499534950725</v>
       </c>
     </row>
     <row r="297">
@@ -18552,7 +18552,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H297" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I297" t="n">
         <v>101.85</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="n">
-        <v>519.3017661334432</v>
+        <v>54.96500417435954</v>
       </c>
     </row>
     <row r="298">
@@ -18613,7 +18613,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H298" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I298" t="n">
         <v>102.07</v>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="R298" t="inlineStr"/>
       <c r="S298" t="n">
-        <v>601.2726279550549</v>
+        <v>60.57577066613726</v>
       </c>
     </row>
     <row r="299">
@@ -18674,7 +18674,7 @@
         <v>15.11111111111111</v>
       </c>
       <c r="H299" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I299" t="n">
         <v>102.2</v>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="n">
-        <v>673.6019166104892</v>
+        <v>67.86265218764891</v>
       </c>
     </row>
     <row r="300">
@@ -18735,7 +18735,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H300" t="n">
-        <v>42.3</v>
+        <v>5.722222222222221</v>
       </c>
       <c r="I300" t="n">
         <v>102.85</v>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="R300" t="inlineStr"/>
       <c r="S300" t="n">
-        <v>704.107529031469</v>
+        <v>77.27581496969661</v>
       </c>
     </row>
     <row r="301">
@@ -18796,7 +18796,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H301" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I301" t="n">
         <v>103.05</v>
@@ -18827,7 +18827,7 @@
       </c>
       <c r="R301" t="inlineStr"/>
       <c r="S301" t="n">
-        <v>879.7842997166656</v>
+        <v>91.36939764189684</v>
       </c>
     </row>
     <row r="302">
@@ -18857,7 +18857,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H302" t="n">
-        <v>47.3</v>
+        <v>8.499999999999998</v>
       </c>
       <c r="I302" t="n">
         <v>102.72</v>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="R302" t="inlineStr"/>
       <c r="S302" t="n">
-        <v>741.8855164740743</v>
+        <v>76.02768057381294</v>
       </c>
     </row>
     <row r="303">
@@ -18918,7 +18918,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H303" t="n">
-        <v>50.3</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I303" t="n">
         <v>102.49</v>
@@ -18949,7 +18949,7 @@
       </c>
       <c r="R303" t="inlineStr"/>
       <c r="S303" t="n">
-        <v>760.2817603319528</v>
+        <v>74.94028998231423</v>
       </c>
     </row>
     <row r="304">
@@ -18979,7 +18979,7 @@
         <v>14.38888888888889</v>
       </c>
       <c r="H304" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I304" t="n">
         <v>102.72</v>
@@ -19010,7 +19010,7 @@
       </c>
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="n">
-        <v>760.8898458697033</v>
+        <v>75.1912086992248</v>
       </c>
     </row>
     <row r="305">
@@ -19040,7 +19040,7 @@
         <v>15.5</v>
       </c>
       <c r="H305" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I305" t="n">
         <v>102.5</v>
@@ -19071,7 +19071,7 @@
       </c>
       <c r="R305" t="inlineStr"/>
       <c r="S305" t="n">
-        <v>687.3914469125758</v>
+        <v>68.4512420730875</v>
       </c>
     </row>
     <row r="306">
@@ -19101,7 +19101,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H306" t="n">
-        <v>48.2</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="I306" t="n">
         <v>102.21</v>
@@ -19132,7 +19132,7 @@
       </c>
       <c r="R306" t="inlineStr"/>
       <c r="S306" t="n">
-        <v>572.8900375124582</v>
+        <v>58.01812991486671</v>
       </c>
     </row>
     <row r="307">
@@ -19162,7 +19162,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H307" t="n">
-        <v>51.8</v>
+        <v>11</v>
       </c>
       <c r="I307" t="n">
         <v>102.56</v>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="n">
-        <v>710.3256970830324</v>
+        <v>68.70873337572895</v>
       </c>
     </row>
     <row r="308">
@@ -19223,7 +19223,7 @@
         <v>14</v>
       </c>
       <c r="H308" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I308" t="n">
         <v>102.76</v>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="R308" t="inlineStr"/>
       <c r="S308" t="n">
-        <v>608.4747381171775</v>
+        <v>64.1400621671727</v>
       </c>
     </row>
     <row r="309">
@@ -19284,7 +19284,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I309" t="n">
         <v>102.1</v>
@@ -19315,7 +19315,7 @@
       </c>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="n">
-        <v>556.8570777135211</v>
+        <v>59.92435823855512</v>
       </c>
     </row>
     <row r="310">
@@ -19345,7 +19345,7 @@
         <v>15.5</v>
       </c>
       <c r="H310" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I310" t="n">
         <v>101.93</v>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="n">
-        <v>660.3032132366186</v>
+        <v>66.43648618225721</v>
       </c>
     </row>
     <row r="311">
@@ -19406,7 +19406,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H311" t="n">
-        <v>53.8</v>
+        <v>12.11111111111111</v>
       </c>
       <c r="I311" t="n">
         <v>102.01</v>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="R311" t="inlineStr"/>
       <c r="S311" t="n">
-        <v>862.2655907769386</v>
+        <v>81.38469967475432</v>
       </c>
     </row>
     <row r="312">
@@ -19467,7 +19467,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H312" t="n">
-        <v>54.6</v>
+        <v>12.55555555555556</v>
       </c>
       <c r="I312" t="n">
         <v>101.82</v>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="n">
-        <v>814.5053057933992</v>
+        <v>76.14071030441349</v>
       </c>
     </row>
     <row r="313">
@@ -19528,7 +19528,7 @@
         <v>18.61111111111111</v>
       </c>
       <c r="H313" t="n">
-        <v>60.3</v>
+        <v>15.72222222222222</v>
       </c>
       <c r="I313" t="n">
         <v>101.33</v>
@@ -19559,7 +19559,7 @@
       </c>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="n">
-        <v>951.2364730250712</v>
+        <v>83.2818116997083</v>
       </c>
     </row>
     <row r="314">
@@ -19589,7 +19589,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I314" t="n">
         <v>100.82</v>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="R314" t="inlineStr"/>
       <c r="S314" t="n">
-        <v>907.3643265633086</v>
+        <v>79.09151016768192</v>
       </c>
     </row>
     <row r="315">
@@ -19650,7 +19650,7 @@
         <v>20.38888888888889</v>
       </c>
       <c r="H315" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I315" t="n">
         <v>100.38</v>
@@ -19681,7 +19681,7 @@
       </c>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="n">
-        <v>812.7328395507897</v>
+        <v>71.95157550529213</v>
       </c>
     </row>
     <row r="316">
@@ -19711,7 +19711,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H316" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I316" t="n">
         <v>100.88</v>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="R316" t="inlineStr"/>
       <c r="S316" t="n">
-        <v>712.2216980458234</v>
+        <v>64.8760080399651</v>
       </c>
     </row>
     <row r="317">
@@ -19772,7 +19772,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H317" t="n">
-        <v>34.8</v>
+        <v>1.555555555555554</v>
       </c>
       <c r="I317" t="n">
         <v>102.24</v>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="R317" t="inlineStr"/>
       <c r="S317" t="n">
-        <v>394.4496494923502</v>
+        <v>48.42968174546245</v>
       </c>
     </row>
     <row r="318">
@@ -19833,7 +19833,7 @@
         <v>10.05555555555556</v>
       </c>
       <c r="H318" t="n">
-        <v>30.4</v>
+        <v>-0.8888888888888897</v>
       </c>
       <c r="I318" t="n">
         <v>102.5</v>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="R318" t="inlineStr"/>
       <c r="S318" t="n">
-        <v>352.6911699958408</v>
+        <v>46.5101138841532</v>
       </c>
     </row>
     <row r="319">
@@ -19894,7 +19894,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H319" t="n">
-        <v>34.3</v>
+        <v>1.277777777777776</v>
       </c>
       <c r="I319" t="n">
         <v>102.72</v>
@@ -19925,7 +19925,7 @@
       </c>
       <c r="R319" t="inlineStr"/>
       <c r="S319" t="n">
-        <v>419.0245105657986</v>
+        <v>51.85505799488924</v>
       </c>
     </row>
     <row r="320">
@@ -19955,7 +19955,7 @@
         <v>11</v>
       </c>
       <c r="H320" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I320" t="n">
         <v>102.6</v>
@@ -19986,7 +19986,7 @@
       </c>
       <c r="R320" t="inlineStr"/>
       <c r="S320" t="n">
-        <v>461.2149069369615</v>
+        <v>55.31848142764141</v>
       </c>
     </row>
     <row r="321">
@@ -20016,7 +20016,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H321" t="n">
-        <v>42.8</v>
+        <v>5.999999999999999</v>
       </c>
       <c r="I321" t="n">
         <v>102.48</v>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="R321" t="inlineStr"/>
       <c r="S321" t="n">
-        <v>621.0914612878853</v>
+        <v>67.6845127381112</v>
       </c>
     </row>
     <row r="322">
@@ -20077,7 +20077,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H322" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I322" t="n">
         <v>102.22</v>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="R322" t="inlineStr"/>
       <c r="S322" t="n">
-        <v>576.3923636734215</v>
+        <v>62.11303157036986</v>
       </c>
     </row>
     <row r="323">
@@ -20138,7 +20138,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="H323" t="n">
-        <v>45.5</v>
+        <v>7.5</v>
       </c>
       <c r="I323" t="n">
         <v>101.48</v>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="R323" t="inlineStr"/>
       <c r="S323" t="n">
-        <v>631.4914318318771</v>
+        <v>66.29519389176878</v>
       </c>
     </row>
     <row r="324">
@@ -20199,7 +20199,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H324" t="n">
-        <v>32.8</v>
+        <v>0.4444444444444429</v>
       </c>
       <c r="I324" t="n">
         <v>102.8</v>
@@ -20230,7 +20230,7 @@
       </c>
       <c r="R324" t="inlineStr"/>
       <c r="S324" t="n">
-        <v>352.6869550595249</v>
+        <v>44.70748625399818</v>
       </c>
     </row>
     <row r="325">
@@ -20260,7 +20260,7 @@
         <v>13.5</v>
       </c>
       <c r="H325" t="n">
-        <v>31.8</v>
+        <v>-0.1111111111111107</v>
       </c>
       <c r="I325" t="n">
         <v>101.72</v>
@@ -20291,7 +20291,7 @@
       </c>
       <c r="R325" t="inlineStr"/>
       <c r="S325" t="n">
-        <v>304.3101618134182</v>
+        <v>39.2092572424305</v>
       </c>
     </row>
     <row r="326">
@@ -20321,7 +20321,7 @@
         <v>11.38888888888889</v>
       </c>
       <c r="H326" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I326" t="n">
         <v>102.14</v>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="R326" t="inlineStr"/>
       <c r="S326" t="n">
-        <v>685.6210839316441</v>
+        <v>73.27099306497075</v>
       </c>
     </row>
     <row r="327">
@@ -20382,7 +20382,7 @@
         <v>13.11111111111111</v>
       </c>
       <c r="H327" t="n">
-        <v>30.2</v>
+        <v>-1</v>
       </c>
       <c r="I327" t="n">
         <v>102.8</v>
@@ -20413,7 +20413,7 @@
       </c>
       <c r="R327" t="inlineStr"/>
       <c r="S327" t="n">
-        <v>284.8764135564452</v>
+        <v>37.69341514691743</v>
       </c>
     </row>
     <row r="328">
@@ -20443,7 +20443,7 @@
         <v>12.11111111111111</v>
       </c>
       <c r="H328" t="n">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I328" t="n">
         <v>102.71</v>
@@ -20474,7 +20474,7 @@
       </c>
       <c r="R328" t="inlineStr"/>
       <c r="S328" t="n">
-        <v>260.0903378224643</v>
+        <v>36.04070837648851</v>
       </c>
     </row>
     <row r="329">
@@ -20504,7 +20504,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H329" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I329" t="n">
         <v>102.39</v>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="R329" t="inlineStr"/>
       <c r="S329" t="n">
-        <v>307.4854274305947</v>
+        <v>39.74887197275901</v>
       </c>
     </row>
     <row r="330">
@@ -20565,7 +20565,7 @@
         <v>14.16666666666667</v>
       </c>
       <c r="H330" t="n">
-        <v>35</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I330" t="n">
         <v>101.85</v>
@@ -20596,7 +20596,7 @@
       </c>
       <c r="R330" t="inlineStr"/>
       <c r="S330" t="n">
-        <v>348.7339778464768</v>
+        <v>42.68234789804931</v>
       </c>
     </row>
     <row r="331">
@@ -20626,7 +20626,7 @@
         <v>13.61111111111111</v>
       </c>
       <c r="H331" t="n">
-        <v>41.8</v>
+        <v>5.444444444444443</v>
       </c>
       <c r="I331" t="n">
         <v>101.06</v>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="R331" t="inlineStr"/>
       <c r="S331" t="n">
-        <v>522.4970744642042</v>
+        <v>57.75382067626757</v>
       </c>
     </row>
     <row r="332">
@@ -20687,7 +20687,7 @@
         <v>17.88888888888889</v>
       </c>
       <c r="H332" t="n">
-        <v>51.6</v>
+        <v>10.88888888888889</v>
       </c>
       <c r="I332" t="n">
         <v>101.26</v>
@@ -20718,7 +20718,7 @@
       </c>
       <c r="R332" t="inlineStr"/>
       <c r="S332" t="n">
-        <v>655.6183771904609</v>
+        <v>63.57512265570249</v>
       </c>
     </row>
     <row r="333">
@@ -20748,7 +20748,7 @@
         <v>18.94444444444444</v>
       </c>
       <c r="H333" t="n">
-        <v>61.7</v>
+        <v>16.5</v>
       </c>
       <c r="I333" t="n">
         <v>101.6</v>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="n">
-        <v>994.1421027882996</v>
+        <v>85.71551751992608</v>
       </c>
     </row>
     <row r="334">
@@ -20809,7 +20809,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H334" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I334" t="n">
         <v>101.46</v>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="R334" t="inlineStr"/>
       <c r="S334" t="n">
-        <v>1119.808510277408</v>
+        <v>98.58535607664798</v>
       </c>
     </row>
     <row r="335">
@@ -20870,7 +20870,7 @@
         <v>13.55555555555556</v>
       </c>
       <c r="H335" t="n">
-        <v>55.5</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="I335" t="n">
         <v>101.43</v>
@@ -20901,7 +20901,7 @@
       </c>
       <c r="R335" t="inlineStr"/>
       <c r="S335" t="n">
-        <v>1046.539390754016</v>
+        <v>96.79053384679811</v>
       </c>
     </row>
     <row r="336">
@@ -20931,7 +20931,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H336" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I336" t="n">
         <v>101.34</v>
@@ -20962,7 +20962,7 @@
       </c>
       <c r="R336" t="inlineStr"/>
       <c r="S336" t="n">
-        <v>1071.710110144139</v>
+        <v>97.50858495638106</v>
       </c>
     </row>
     <row r="337">
@@ -20992,7 +20992,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H337" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I337" t="n">
         <v>101.38</v>
@@ -21023,7 +21023,7 @@
       </c>
       <c r="R337" t="inlineStr"/>
       <c r="S337" t="n">
-        <v>1124.035337953536</v>
+        <v>99.28894371149049</v>
       </c>
     </row>
     <row r="338">
@@ -21053,7 +21053,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H338" t="n">
-        <v>61.9</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="I338" t="n">
         <v>101.26</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="R338" t="inlineStr"/>
       <c r="S338" t="n">
-        <v>1114.200064298903</v>
+        <v>95.85938874453804</v>
       </c>
     </row>
     <row r="339">
@@ -21114,7 +21114,7 @@
         <v>16.05555555555556</v>
       </c>
       <c r="H339" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I339" t="n">
         <v>101.17</v>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="R339" t="inlineStr"/>
       <c r="S339" t="n">
-        <v>1149.753070372314</v>
+        <v>100</v>
       </c>
     </row>
     <row r="340">
@@ -21175,7 +21175,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H340" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I340" t="n">
         <v>100.51</v>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="R340" t="inlineStr"/>
       <c r="S340" t="n">
-        <v>665.8431187893111</v>
+        <v>58.42441304613723</v>
       </c>
     </row>
     <row r="341">
@@ -21236,7 +21236,7 @@
         <v>18.88888888888889</v>
       </c>
       <c r="H341" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I341" t="n">
         <v>101.68</v>
@@ -21267,7 +21267,7 @@
       </c>
       <c r="R341" t="inlineStr"/>
       <c r="S341" t="n">
-        <v>522.1498619997094</v>
+        <v>52.81049122784717</v>
       </c>
     </row>
     <row r="342">
@@ -21297,7 +21297,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H342" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I342" t="n">
         <v>102.42</v>
@@ -21328,7 +21328,7 @@
       </c>
       <c r="R342" t="inlineStr"/>
       <c r="S342" t="n">
-        <v>449.7014361335824</v>
+        <v>50.57439674616736</v>
       </c>
     </row>
     <row r="343">
@@ -21358,7 +21358,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H343" t="n">
-        <v>53.5</v>
+        <v>11.94444444444444</v>
       </c>
       <c r="I343" t="n">
         <v>101.64</v>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="n">
-        <v>683.0321519911532</v>
+        <v>64.70262707100891</v>
       </c>
     </row>
     <row r="344">
@@ -21419,7 +21419,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H344" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I344" t="n">
         <v>101.8</v>
@@ -21450,7 +21450,7 @@
       </c>
       <c r="R344" t="inlineStr"/>
       <c r="S344" t="n">
-        <v>819.5641326534684</v>
+        <v>73.13030915048094</v>
       </c>
     </row>
     <row r="345">
@@ -21480,7 +21480,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H345" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I345" t="n">
         <v>101.9</v>
@@ -21511,7 +21511,7 @@
       </c>
       <c r="R345" t="inlineStr"/>
       <c r="S345" t="n">
-        <v>619.9383730502833</v>
+        <v>59.59528352751185</v>
       </c>
     </row>
     <row r="346">
@@ -21541,7 +21541,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H346" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I346" t="n">
         <v>101.91</v>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="R346" t="inlineStr"/>
       <c r="S346" t="n">
-        <v>1116.885636067849</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347">
@@ -21602,7 +21602,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H347" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I347" t="n">
         <v>101.6</v>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="R347" t="inlineStr"/>
       <c r="S347" t="n">
-        <v>969.9647584196902</v>
+        <v>86.45289046327969</v>
       </c>
     </row>
     <row r="348">
@@ -21663,7 +21663,7 @@
         <v>14.5</v>
       </c>
       <c r="H348" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I348" t="n">
         <v>102.67</v>
@@ -21694,7 +21694,7 @@
       </c>
       <c r="R348" t="inlineStr"/>
       <c r="S348" t="n">
-        <v>659.3697077702203</v>
+        <v>67.48220763079505</v>
       </c>
     </row>
     <row r="349">
@@ -21724,7 +21724,7 @@
         <v>14.5</v>
       </c>
       <c r="H349" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I349" t="n">
         <v>102.98</v>
@@ -21755,7 +21755,7 @@
       </c>
       <c r="R349" t="inlineStr"/>
       <c r="S349" t="n">
-        <v>530.9177445002537</v>
+        <v>57.53334269556094</v>
       </c>
     </row>
     <row r="350">
@@ -21785,7 +21785,7 @@
         <v>17.5</v>
       </c>
       <c r="H350" t="n">
-        <v>40.6</v>
+        <v>4.777777777777779</v>
       </c>
       <c r="I350" t="n">
         <v>102.68</v>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="R350" t="inlineStr"/>
       <c r="S350" t="n">
-        <v>382.0587167140232</v>
+        <v>42.96715012866207</v>
       </c>
     </row>
     <row r="351">
@@ -21846,7 +21846,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H351" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I351" t="n">
         <v>102.31</v>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="R351" t="inlineStr"/>
       <c r="S351" t="n">
-        <v>495.6064363703691</v>
+        <v>53.11131275429582</v>
       </c>
     </row>
     <row r="352">
@@ -21907,7 +21907,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H352" t="n">
-        <v>50.2</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="I352" t="n">
         <v>101.94</v>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="R352" t="inlineStr"/>
       <c r="S352" t="n">
-        <v>512.635451803963</v>
+        <v>50.59426493950024</v>
       </c>
     </row>
     <row r="353">
@@ -21968,7 +21968,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H353" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I353" t="n">
         <v>102.35</v>
@@ -21999,7 +21999,7 @@
       </c>
       <c r="R353" t="inlineStr"/>
       <c r="S353" t="n">
-        <v>707.6240913404731</v>
+        <v>65.99152998408391</v>
       </c>
     </row>
     <row r="354">
@@ -22029,7 +22029,7 @@
         <v>18.66666666666666</v>
       </c>
       <c r="H354" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I354" t="n">
         <v>102.39</v>
@@ -22060,7 +22060,7 @@
       </c>
       <c r="R354" t="inlineStr"/>
       <c r="S354" t="n">
-        <v>649.4747311876307</v>
+        <v>62.35763913537357</v>
       </c>
     </row>
     <row r="355">
@@ -22090,7 +22090,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H355" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I355" t="n">
         <v>102.7</v>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="R355" t="inlineStr"/>
       <c r="S355" t="n">
-        <v>1077.475575619717</v>
+        <v>96.14393652397573</v>
       </c>
     </row>
     <row r="356">
@@ -22151,7 +22151,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H356" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I356" t="n">
         <v>101.96</v>
@@ -22182,7 +22182,7 @@
       </c>
       <c r="R356" t="inlineStr"/>
       <c r="S356" t="n">
-        <v>646.4241629268521</v>
+        <v>59.29548735794599</v>
       </c>
     </row>
     <row r="357">
@@ -22212,7 +22212,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H357" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I357" t="n">
         <v>101.63</v>
@@ -22243,7 +22243,7 @@
       </c>
       <c r="R357" t="inlineStr"/>
       <c r="S357" t="n">
-        <v>631.161881952623</v>
+        <v>57.09523110422416</v>
       </c>
     </row>
     <row r="358">
@@ -22273,7 +22273,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H358" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I358" t="n">
         <v>101.54</v>
@@ -22304,7 +22304,7 @@
       </c>
       <c r="R358" t="inlineStr"/>
       <c r="S358" t="n">
-        <v>647.1998007891401</v>
+        <v>58.14504310075995</v>
       </c>
     </row>
     <row r="359">
@@ -22334,7 +22334,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H359" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I359" t="n">
         <v>101.68</v>
@@ -22365,7 +22365,7 @@
       </c>
       <c r="R359" t="inlineStr"/>
       <c r="S359" t="n">
-        <v>556.7772893555102</v>
+        <v>50.30850240201437</v>
       </c>
     </row>
     <row r="360">
@@ -22395,7 +22395,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H360" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I360" t="n">
         <v>101.21</v>
@@ -22426,7 +22426,7 @@
       </c>
       <c r="R360" t="inlineStr"/>
       <c r="S360" t="n">
-        <v>625.6152377752635</v>
+        <v>54.7128841298512</v>
       </c>
     </row>
     <row r="361">
@@ -22456,7 +22456,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H361" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I361" t="n">
         <v>102.27</v>
@@ -22487,7 +22487,7 @@
       </c>
       <c r="R361" t="inlineStr"/>
       <c r="S361" t="n">
-        <v>575.898457515581</v>
+        <v>58.93946723112752</v>
       </c>
     </row>
     <row r="362">
@@ -22517,7 +22517,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H362" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I362" t="n">
         <v>101.35</v>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="R362" t="inlineStr"/>
       <c r="S362" t="n">
-        <v>911.3819814919614</v>
+        <v>77.40870019056054</v>
       </c>
     </row>
     <row r="363">
@@ -22578,7 +22578,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H363" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I363" t="n">
         <v>101.2</v>
@@ -22609,7 +22609,7 @@
       </c>
       <c r="R363" t="inlineStr"/>
       <c r="S363" t="n">
-        <v>852.1371368095055</v>
+        <v>71.69244285487825</v>
       </c>
     </row>
     <row r="364">
@@ -22639,7 +22639,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H364" t="n">
-        <v>62.8</v>
+        <v>17.11111111111111</v>
       </c>
       <c r="I364" t="n">
         <v>101.08</v>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="R364" t="inlineStr"/>
       <c r="S364" t="n">
-        <v>654.5198828861967</v>
+        <v>55.76978026459896</v>
       </c>
     </row>
     <row r="365">
@@ -22700,7 +22700,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H365" t="n">
-        <v>64.7</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I365" t="n">
         <v>100.86</v>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="R365" t="inlineStr"/>
       <c r="S365" t="n">
-        <v>762.2457347077855</v>
+        <v>63.66283884036473</v>
       </c>
     </row>
     <row r="366">
@@ -22761,7 +22761,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H366" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I366" t="n">
         <v>100.67</v>
@@ -22792,7 +22792,7 @@
       </c>
       <c r="R366" t="inlineStr"/>
       <c r="S366" t="n">
-        <v>851.9672970967063</v>
+        <v>70.64347274320467</v>
       </c>
     </row>
     <row r="367">
@@ -22822,7 +22822,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H367" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I367" t="n">
         <v>100.26</v>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="R367" t="inlineStr"/>
       <c r="S367" t="n">
-        <v>835.0133966733337</v>
+        <v>68.25754766968893</v>
       </c>
     </row>
     <row r="368">
@@ -22883,7 +22883,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H368" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I368" t="n">
         <v>100.03</v>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="R368" t="inlineStr"/>
       <c r="S368" t="n">
-        <v>605.9531383505347</v>
+        <v>51.85292016338371</v>
       </c>
     </row>
     <row r="369">
@@ -22944,7 +22944,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H369" t="n">
-        <v>66.90000000000001</v>
+        <v>19.38888888888889</v>
       </c>
       <c r="I369" t="n">
         <v>100.1</v>
@@ -22975,7 +22975,7 @@
       </c>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>705.4766551480742</v>
+        <v>57.61058047279387</v>
       </c>
     </row>
     <row r="370">
@@ -23005,7 +23005,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H370" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I370" t="n">
         <v>101.37</v>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>906.0040969921671</v>
+        <v>79.58550894823624</v>
       </c>
     </row>
     <row r="371">
@@ -23066,7 +23066,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H371" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I371" t="n">
         <v>101.45</v>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="R371" t="inlineStr"/>
       <c r="S371" t="n">
-        <v>735.3133477449248</v>
+        <v>68.98537267207683</v>
       </c>
     </row>
     <row r="372">
@@ -23127,7 +23127,7 @@
         <v>20</v>
       </c>
       <c r="H372" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I372" t="n">
         <v>101.64</v>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="R372" t="inlineStr"/>
       <c r="S372" t="n">
-        <v>583.1860384143555</v>
+        <v>56.34064655407845</v>
       </c>
     </row>
     <row r="373">
@@ -23188,7 +23188,7 @@
         <v>16.33333333333333</v>
       </c>
       <c r="H373" t="n">
-        <v>54.7</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I373" t="n">
         <v>101.78</v>
@@ -23219,7 +23219,7 @@
       </c>
       <c r="R373" t="inlineStr"/>
       <c r="S373" t="n">
-        <v>841.9304171865124</v>
+        <v>78.61042337913705</v>
       </c>
     </row>
     <row r="374">
@@ -23249,7 +23249,7 @@
         <v>16.83333333333333</v>
       </c>
       <c r="H374" t="n">
-        <v>58.4</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I374" t="n">
         <v>101.54</v>
@@ -23280,7 +23280,7 @@
       </c>
       <c r="R374" t="inlineStr"/>
       <c r="S374" t="n">
-        <v>973.3344230605761</v>
+        <v>87.04832395555542</v>
       </c>
     </row>
     <row r="375">
@@ -23310,7 +23310,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H375" t="n">
-        <v>59.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I375" t="n">
         <v>101.1</v>
@@ -23341,7 +23341,7 @@
       </c>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>775.0390676122581</v>
+        <v>68.38482662991542</v>
       </c>
     </row>
     <row r="376">
@@ -23371,7 +23371,7 @@
         <v>23</v>
       </c>
       <c r="H376" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I376" t="n">
         <v>100.62</v>
@@ -23402,7 +23402,7 @@
       </c>
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="n">
-        <v>929.6134266506281</v>
+        <v>76.84478572872176</v>
       </c>
     </row>
     <row r="377">
@@ -23432,7 +23432,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H377" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I377" t="n">
         <v>100.33</v>
@@ -23463,7 +23463,7 @@
       </c>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>992.3191500146045</v>
+        <v>78.97796619029599</v>
       </c>
     </row>
     <row r="378">
@@ -23493,7 +23493,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H378" t="n">
-        <v>55.5</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="I378" t="n">
         <v>101.29</v>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>506.0067072661572</v>
+        <v>46.79867739241512</v>
       </c>
     </row>
     <row r="379">
@@ -23554,7 +23554,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H379" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I379" t="n">
         <v>101.74</v>
@@ -23585,7 +23585,7 @@
       </c>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>784.7373961707469</v>
+        <v>71.23364954421992</v>
       </c>
     </row>
     <row r="380">
@@ -23615,7 +23615,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H380" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I380" t="n">
         <v>100.57</v>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="R380" t="inlineStr"/>
       <c r="S380" t="n">
-        <v>1062.558059166078</v>
+        <v>82.8863950248617</v>
       </c>
     </row>
     <row r="381">
@@ -23676,7 +23676,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H381" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I381" t="n">
         <v>100.72</v>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="R381" t="inlineStr"/>
       <c r="S381" t="n">
-        <v>900.9319828040759</v>
+        <v>69.94928702851105</v>
       </c>
     </row>
     <row r="382">
@@ -23737,7 +23737,7 @@
         <v>29</v>
       </c>
       <c r="H382" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I382" t="n">
         <v>100.5</v>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="R382" t="inlineStr"/>
       <c r="S382" t="n">
-        <v>651.5032495703608</v>
+        <v>53.85531897401891</v>
       </c>
     </row>
     <row r="383">
@@ -23798,7 +23798,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H383" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I383" t="n">
         <v>100.22</v>
@@ -23829,7 +23829,7 @@
       </c>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>918.5005008470587</v>
+        <v>70.32967429457949</v>
       </c>
     </row>
     <row r="384">
@@ -23859,7 +23859,7 @@
         <v>32.77777777777778</v>
       </c>
       <c r="H384" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I384" t="n">
         <v>100.46</v>
@@ -23890,7 +23890,7 @@
       </c>
       <c r="R384" t="inlineStr"/>
       <c r="S384" t="n">
-        <v>640.9775197175213</v>
+        <v>50.67113216973242</v>
       </c>
     </row>
     <row r="385">
@@ -23920,7 +23920,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H385" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I385" t="n">
         <v>101.44</v>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>735.7773181866753</v>
+        <v>66.32999563143704</v>
       </c>
     </row>
     <row r="386">
@@ -23981,7 +23981,7 @@
         <v>23</v>
       </c>
       <c r="H386" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I386" t="n">
         <v>101.37</v>
@@ -24012,7 +24012,7 @@
       </c>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>689.4937032635079</v>
+        <v>61.10962379960598</v>
       </c>
     </row>
     <row r="387">
@@ -24042,7 +24042,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H387" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I387" t="n">
         <v>100.71</v>
@@ -24073,7 +24073,7 @@
       </c>
       <c r="R387" t="inlineStr"/>
       <c r="S387" t="n">
-        <v>669.5958180574873</v>
+        <v>54.57062305708376</v>
       </c>
     </row>
     <row r="388">
@@ -24103,7 +24103,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H388" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I388" t="n">
         <v>100.13</v>
@@ -24134,7 +24134,7 @@
       </c>
       <c r="R388" t="inlineStr"/>
       <c r="S388" t="n">
-        <v>705.1873901834468</v>
+        <v>56.56542856312529</v>
       </c>
     </row>
     <row r="389">
@@ -24164,7 +24164,7 @@
         <v>32.38888888888889</v>
       </c>
       <c r="H389" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I389" t="n">
         <v>99.69</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>815.9597566657583</v>
+        <v>61.52402236224949</v>
       </c>
     </row>
     <row r="390">
@@ -24225,7 +24225,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H390" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I390" t="n">
         <v>100.65</v>
@@ -24256,7 +24256,7 @@
       </c>
       <c r="R390" t="inlineStr"/>
       <c r="S390" t="n">
-        <v>796.4012583398447</v>
+        <v>64.45259457384668</v>
       </c>
     </row>
     <row r="391">
@@ -24286,7 +24286,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H391" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I391" t="n">
         <v>101.21</v>
@@ -24317,7 +24317,7 @@
       </c>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>900.2243748927592</v>
+        <v>76.13776873758766</v>
       </c>
     </row>
     <row r="392">
@@ -24347,7 +24347,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H392" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I392" t="n">
         <v>101.1</v>
@@ -24378,7 +24378,7 @@
       </c>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>1072.92603047247</v>
+        <v>84.49332727691008</v>
       </c>
     </row>
     <row r="393">
@@ -24408,7 +24408,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H393" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I393" t="n">
         <v>101.61</v>
@@ -24439,7 +24439,7 @@
       </c>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>996.2824815770906</v>
+        <v>80.70920899348471</v>
       </c>
     </row>
     <row r="394">
@@ -24469,7 +24469,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H394" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I394" t="n">
         <v>101.63</v>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="n">
-        <v>869.3409251192154</v>
+        <v>71.86247014168997</v>
       </c>
     </row>
     <row r="395">
@@ -24530,7 +24530,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H395" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I395" t="n">
         <v>100.53</v>
@@ -24561,7 +24561,7 @@
       </c>
       <c r="R395" t="inlineStr"/>
       <c r="S395" t="n">
-        <v>761.9586068558751</v>
+        <v>60.93985998242785</v>
       </c>
     </row>
     <row r="396">
@@ -24591,7 +24591,7 @@
         <v>34.72222222222222</v>
       </c>
       <c r="H396" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I396" t="n">
         <v>100.08</v>
@@ -24622,7 +24622,7 @@
       </c>
       <c r="R396" t="inlineStr"/>
       <c r="S396" t="n">
-        <v>597.8805633989414</v>
+        <v>46.85962042376713</v>
       </c>
     </row>
     <row r="397">
@@ -24652,7 +24652,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H397" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I397" t="n">
         <v>100.4</v>
@@ -24683,7 +24683,7 @@
       </c>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>917.2012055331484</v>
+        <v>68.7891632730866</v>
       </c>
     </row>
     <row r="398">
@@ -24713,7 +24713,7 @@
         <v>33.83333333333334</v>
       </c>
       <c r="H398" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I398" t="n">
         <v>100.15</v>
@@ -24744,7 +24744,7 @@
       </c>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>690.8575821304083</v>
+        <v>53.04493625188982</v>
       </c>
     </row>
     <row r="399">
@@ -24774,7 +24774,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H399" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I399" t="n">
         <v>100.85</v>
@@ -24805,7 +24805,7 @@
       </c>
       <c r="R399" t="inlineStr"/>
       <c r="S399" t="n">
-        <v>776.8402400274861</v>
+        <v>64.74733231986282</v>
       </c>
     </row>
     <row r="400">
@@ -24835,7 +24835,7 @@
         <v>31.72222222222222</v>
       </c>
       <c r="H400" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I400" t="n">
         <v>100.44</v>
@@ -24866,7 +24866,7 @@
       </c>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>774.8342121018117</v>
+        <v>59.54757138825225</v>
       </c>
     </row>
     <row r="401">
@@ -24896,7 +24896,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H401" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I401" t="n">
         <v>100.56</v>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>841.2565181246016</v>
+        <v>65.01219033272253</v>
       </c>
     </row>
     <row r="402">
@@ -24957,7 +24957,7 @@
         <v>31.11111111111111</v>
       </c>
       <c r="H402" t="n">
-        <v>72.40000000000001</v>
+        <v>22.44444444444445</v>
       </c>
       <c r="I402" t="n">
         <v>100.45</v>
@@ -24988,7 +24988,7 @@
       </c>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>775.1321760051582</v>
+        <v>60.01369628985468</v>
       </c>
     </row>
     <row r="403">
@@ -25018,7 +25018,7 @@
         <v>32.16666666666667</v>
       </c>
       <c r="H403" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I403" t="n">
         <v>100.53</v>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>733.1489518036421</v>
+        <v>56.71036151017974</v>
       </c>
     </row>
     <row r="404">
@@ -25079,7 +25079,7 @@
         <v>33.27777777777779</v>
       </c>
       <c r="H404" t="n">
-        <v>71.40000000000001</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="I404" t="n">
         <v>99.92</v>
@@ -25110,7 +25110,7 @@
       </c>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>656.6346861104589</v>
+        <v>51.31852457506687</v>
       </c>
     </row>
     <row r="405">
@@ -25140,7 +25140,7 @@
         <v>34.66666666666667</v>
       </c>
       <c r="H405" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I405" t="n">
         <v>100.03</v>
@@ -25171,7 +25171,7 @@
       </c>
       <c r="R405" t="inlineStr"/>
       <c r="S405" t="n">
-        <v>694.1631251451374</v>
+        <v>52.71843522080511</v>
       </c>
     </row>
     <row r="406">
@@ -25201,7 +25201,7 @@
         <v>30.83333333333334</v>
       </c>
       <c r="H406" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I406" t="n">
         <v>100.38</v>
@@ -25232,7 +25232,7 @@
       </c>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>895.1837085734608</v>
+        <v>67.43727540306278</v>
       </c>
     </row>
     <row r="407">
@@ -25262,7 +25262,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H407" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I407" t="n">
         <v>100.42</v>
@@ -25293,7 +25293,7 @@
       </c>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>1002.244721180933</v>
+        <v>75.43519857939103</v>
       </c>
     </row>
     <row r="408">
@@ -25323,7 +25323,7 @@
         <v>32</v>
       </c>
       <c r="H408" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I408" t="n">
         <v>100.49</v>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="R408" t="inlineStr"/>
       <c r="S408" t="n">
-        <v>752.9545087335817</v>
+        <v>58.02658209825936</v>
       </c>
     </row>
     <row r="409">
@@ -25384,7 +25384,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H409" t="n">
-        <v>71</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I409" t="n">
         <v>100.91</v>
@@ -25415,7 +25415,7 @@
       </c>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>985.1987200950422</v>
+        <v>77.28952942257258</v>
       </c>
     </row>
     <row r="410">
@@ -25445,7 +25445,7 @@
         <v>32.27777777777778</v>
       </c>
       <c r="H410" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I410" t="n">
         <v>100.11</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="R410" t="inlineStr"/>
       <c r="S410" t="n">
-        <v>493.2517462521971</v>
+        <v>41.62956662338073</v>
       </c>
     </row>
     <row r="411">
@@ -25506,7 +25506,7 @@
         <v>34.11111111111111</v>
       </c>
       <c r="H411" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I411" t="n">
         <v>100.05</v>
@@ -25537,7 +25537,7 @@
       </c>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>474.1508421202457</v>
+        <v>39.43740991052518</v>
       </c>
     </row>
     <row r="412">
@@ -25567,7 +25567,7 @@
         <v>32.66666666666666</v>
       </c>
       <c r="H412" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I412" t="n">
         <v>100.06</v>
@@ -25598,7 +25598,7 @@
       </c>
       <c r="R412" t="inlineStr"/>
       <c r="S412" t="n">
-        <v>585.4559787344913</v>
+        <v>47.28683805339436</v>
       </c>
     </row>
     <row r="413">
@@ -25628,7 +25628,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H413" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I413" t="n">
         <v>100.39</v>
@@ -25659,7 +25659,7 @@
       </c>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>953.2897387909524</v>
+        <v>74.57375456081964</v>
       </c>
     </row>
     <row r="414">
@@ -25689,7 +25689,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H414" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I414" t="n">
         <v>100.49</v>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>1104.266646329879</v>
+        <v>83.63708689430383</v>
       </c>
     </row>
     <row r="415">
@@ -25750,7 +25750,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H415" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I415" t="n">
         <v>100.59</v>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="R415" t="inlineStr"/>
       <c r="S415" t="n">
-        <v>1264.976567123361</v>
+        <v>96.06904025013735</v>
       </c>
     </row>
     <row r="416">
@@ -25811,7 +25811,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H416" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I416" t="n">
         <v>100.55</v>
@@ -25842,7 +25842,7 @@
       </c>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>940.5747371211689</v>
+        <v>72.35174391335583</v>
       </c>
     </row>
     <row r="417">
@@ -25872,7 +25872,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H417" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I417" t="n">
         <v>100.58</v>
@@ -25903,7 +25903,7 @@
       </c>
       <c r="R417" t="inlineStr"/>
       <c r="S417" t="n">
-        <v>929.2670644622998</v>
+        <v>70.63738915242847</v>
       </c>
     </row>
     <row r="418">
@@ -25933,7 +25933,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H418" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I418" t="n">
         <v>99.96000000000001</v>
@@ -25964,7 +25964,7 @@
       </c>
       <c r="R418" t="inlineStr"/>
       <c r="S418" t="n">
-        <v>1054.67774735704</v>
+        <v>76.74077049977684</v>
       </c>
     </row>
     <row r="419">
@@ -25994,7 +25994,7 @@
         <v>33.16666666666667</v>
       </c>
       <c r="H419" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I419" t="n">
         <v>100.15</v>
@@ -26025,7 +26025,7 @@
       </c>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>845.968300717159</v>
+        <v>62.72619497051065</v>
       </c>
     </row>
     <row r="420">
@@ -26055,7 +26055,7 @@
         <v>30.5</v>
       </c>
       <c r="H420" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I420" t="n">
         <v>100.34</v>
@@ -26086,7 +26086,7 @@
       </c>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>947.7394697456295</v>
+        <v>70.82853821450531</v>
       </c>
     </row>
     <row r="421">
@@ -26116,7 +26116,7 @@
         <v>32.05555555555556</v>
       </c>
       <c r="H421" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I421" t="n">
         <v>100.31</v>
@@ -26147,7 +26147,7 @@
       </c>
       <c r="R421" t="inlineStr"/>
       <c r="S421" t="n">
-        <v>856.4536273363682</v>
+        <v>64.17626229422146</v>
       </c>
     </row>
     <row r="422">
@@ -26177,7 +26177,7 @@
         <v>33.00000000000001</v>
       </c>
       <c r="H422" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I422" t="n">
         <v>100.22</v>
@@ -26208,7 +26208,7 @@
       </c>
       <c r="R422" t="inlineStr"/>
       <c r="S422" t="n">
-        <v>801.7597299700352</v>
+        <v>60.23806012067495</v>
       </c>
     </row>
     <row r="423">
@@ -26238,7 +26238,7 @@
         <v>34.83333333333334</v>
       </c>
       <c r="H423" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I423" t="n">
         <v>100.11</v>
@@ -26269,7 +26269,7 @@
       </c>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>742.1864503187701</v>
+        <v>55.46670054039235</v>
       </c>
     </row>
     <row r="424">
@@ -26299,7 +26299,7 @@
         <v>33.27777777777779</v>
       </c>
       <c r="H424" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I424" t="n">
         <v>100.49</v>
@@ -26330,7 +26330,7 @@
       </c>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>718.8432453708378</v>
+        <v>55.09238478849696</v>
       </c>
     </row>
     <row r="425">
@@ -26360,7 +26360,7 @@
         <v>33.33333333333334</v>
       </c>
       <c r="H425" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I425" t="n">
         <v>100.32</v>
@@ -26391,7 +26391,7 @@
       </c>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>725.8595870273741</v>
+        <v>55.477538204227</v>
       </c>
     </row>
     <row r="426">
@@ -26421,7 +26421,7 @@
         <v>31.77777777777778</v>
       </c>
       <c r="H426" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I426" t="n">
         <v>100.35</v>
@@ -26452,7 +26452,7 @@
       </c>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>844.7045242692576</v>
+        <v>63.69140097423143</v>
       </c>
     </row>
     <row r="427">
@@ -26482,7 +26482,7 @@
         <v>34.16666666666667</v>
       </c>
       <c r="H427" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I427" t="n">
         <v>100.15</v>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>719.8656363684671</v>
+        <v>54.57174476890758</v>
       </c>
     </row>
     <row r="428">
@@ -26543,7 +26543,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H428" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I428" t="n">
         <v>100.36</v>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="R428" t="inlineStr"/>
       <c r="S428" t="n">
-        <v>1088.104276995516</v>
+        <v>81.31858788705787</v>
       </c>
     </row>
     <row r="429">
@@ -26604,7 +26604,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H429" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I429" t="n">
         <v>100.35</v>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="R429" t="inlineStr"/>
       <c r="S429" t="n">
-        <v>961.8417461237044</v>
+        <v>73.37967594477658</v>
       </c>
     </row>
     <row r="430">
@@ -26665,7 +26665,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H430" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I430" t="n">
         <v>100.15</v>
@@ -26696,7 +26696,7 @@
       </c>
       <c r="R430" t="inlineStr"/>
       <c r="S430" t="n">
-        <v>819.8968242918697</v>
+        <v>63.53876965301806</v>
       </c>
     </row>
     <row r="431">
@@ -26726,7 +26726,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H431" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I431" t="n">
         <v>100</v>
@@ -26757,7 +26757,7 @@
       </c>
       <c r="R431" t="inlineStr"/>
       <c r="S431" t="n">
-        <v>1253.295533808619</v>
+        <v>96.05298546927158</v>
       </c>
     </row>
     <row r="432">
@@ -26787,7 +26787,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H432" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I432" t="n">
         <v>100.56</v>
@@ -26818,7 +26818,7 @@
       </c>
       <c r="R432" t="inlineStr"/>
       <c r="S432" t="n">
-        <v>1186.483129399897</v>
+        <v>88.5148416362297</v>
       </c>
     </row>
     <row r="433">
@@ -26848,7 +26848,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H433" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I433" t="n">
         <v>100.79</v>
@@ -26879,7 +26879,7 @@
       </c>
       <c r="R433" t="inlineStr"/>
       <c r="S433" t="n">
-        <v>1203.733603918133</v>
+        <v>89.40924874990185</v>
       </c>
     </row>
     <row r="434">
@@ -26909,7 +26909,7 @@
         <v>31.05555555555556</v>
       </c>
       <c r="H434" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I434" t="n">
         <v>100.83</v>
@@ -26940,7 +26940,7 @@
       </c>
       <c r="R434" t="inlineStr"/>
       <c r="S434" t="n">
-        <v>887.638008726482</v>
+        <v>66.80918147017054</v>
       </c>
     </row>
     <row r="435">
@@ -26970,7 +26970,7 @@
         <v>30.5</v>
       </c>
       <c r="H435" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I435" t="n">
         <v>100.34</v>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>931.9044919434818</v>
+        <v>69.89189489121991</v>
       </c>
     </row>
     <row r="436">
@@ -27031,7 +27031,7 @@
         <v>32.94444444444444</v>
       </c>
       <c r="H436" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I436" t="n">
         <v>100.18</v>
@@ -27062,7 +27062,7 @@
       </c>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>797.5026287986079</v>
+        <v>60.02502971542106</v>
       </c>
     </row>
     <row r="437">
@@ -27092,7 +27092,7 @@
         <v>32</v>
       </c>
       <c r="H437" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I437" t="n">
         <v>99.95</v>
@@ -27123,7 +27123,7 @@
       </c>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>769.2843876380997</v>
+        <v>59.01236581453215</v>
       </c>
     </row>
     <row r="438">
@@ -27153,7 +27153,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H438" t="n">
-        <v>75</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="I438" t="n">
         <v>100</v>
@@ -27184,7 +27184,7 @@
       </c>
       <c r="R438" t="inlineStr"/>
       <c r="S438" t="n">
-        <v>981.2461672436921</v>
+        <v>74.18595171348286</v>
       </c>
     </row>
     <row r="439">
@@ -27214,7 +27214,7 @@
         <v>33.05555555555556</v>
       </c>
       <c r="H439" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I439" t="n">
         <v>100.04</v>
@@ -27245,7 +27245,7 @@
       </c>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>816.2857082117982</v>
+        <v>61.05830030883076</v>
       </c>
     </row>
     <row r="440">
@@ -27275,7 +27275,7 @@
         <v>30.5</v>
       </c>
       <c r="H440" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I440" t="n">
         <v>100.2</v>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="R440" t="inlineStr"/>
       <c r="S440" t="n">
-        <v>1004.978823386146</v>
+        <v>74.19389087363479</v>
       </c>
     </row>
     <row r="441">
@@ -27336,7 +27336,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H441" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I441" t="n">
         <v>100.22</v>
@@ -27367,7 +27367,7 @@
       </c>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>988.8924624571874</v>
+        <v>73.83898447041767</v>
       </c>
     </row>
     <row r="442">
@@ -27397,7 +27397,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H442" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I442" t="n">
         <v>100.15</v>
@@ -27428,7 +27428,7 @@
       </c>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>974.0401463557153</v>
+        <v>72.47500983787739</v>
       </c>
     </row>
     <row r="443">
@@ -27458,7 +27458,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H443" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I443" t="n">
         <v>100.28</v>
@@ -27489,7 +27489,7 @@
       </c>
       <c r="R443" t="inlineStr"/>
       <c r="S443" t="n">
-        <v>1271.490632325756</v>
+        <v>92.75153039056453</v>
       </c>
     </row>
     <row r="444">
@@ -27519,7 +27519,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H444" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I444" t="n">
         <v>100.31</v>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>1114.86462010175</v>
+        <v>81.25729229352481</v>
       </c>
     </row>
     <row r="445">
@@ -27580,7 +27580,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H445" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I445" t="n">
         <v>100.19</v>
@@ -27611,7 +27611,7 @@
       </c>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>1145.113459029578</v>
+        <v>85.65466817038821</v>
       </c>
     </row>
     <row r="446">
@@ -27641,7 +27641,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H446" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I446" t="n">
         <v>100.19</v>
@@ -27672,7 +27672,7 @@
       </c>
       <c r="R446" t="inlineStr"/>
       <c r="S446" t="n">
-        <v>946.0959685171341</v>
+        <v>71.40027105440512</v>
       </c>
     </row>
     <row r="447">
@@ -27702,7 +27702,7 @@
         <v>30.88888888888889</v>
       </c>
       <c r="H447" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I447" t="n">
         <v>100.08</v>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="R447" t="inlineStr"/>
       <c r="S447" t="n">
-        <v>974.6903045385611</v>
+        <v>72.08248017685493</v>
       </c>
     </row>
     <row r="448">
@@ -27763,7 +27763,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H448" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I448" t="n">
         <v>100.44</v>
@@ -27794,7 +27794,7 @@
       </c>
       <c r="R448" t="inlineStr"/>
       <c r="S448" t="n">
-        <v>1048.88619574858</v>
+        <v>77.56958088201915</v>
       </c>
     </row>
     <row r="449">
@@ -27824,7 +27824,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H449" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I449" t="n">
         <v>100.53</v>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>1156.963011679069</v>
+        <v>86.23675928033266</v>
       </c>
     </row>
     <row r="450">
@@ -27885,7 +27885,7 @@
         <v>29.5</v>
       </c>
       <c r="H450" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I450" t="n">
         <v>100.51</v>
@@ -27916,7 +27916,7 @@
       </c>
       <c r="R450" t="inlineStr"/>
       <c r="S450" t="n">
-        <v>982.924059301253</v>
+        <v>73.78375710476314</v>
       </c>
     </row>
     <row r="451">
@@ -27946,7 +27946,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H451" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I451" t="n">
         <v>100.41</v>
@@ -27977,7 +27977,7 @@
       </c>
       <c r="R451" t="inlineStr"/>
       <c r="S451" t="n">
-        <v>1080.000377155884</v>
+        <v>80.07902207242948</v>
       </c>
     </row>
     <row r="452">
@@ -28007,7 +28007,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H452" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I452" t="n">
         <v>100.34</v>
@@ -28038,7 +28038,7 @@
       </c>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>1188.027553284039</v>
+        <v>87.70770546809756</v>
       </c>
     </row>
     <row r="453">
@@ -28068,7 +28068,7 @@
         <v>28</v>
       </c>
       <c r="H453" t="n">
-        <v>71.8</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="I453" t="n">
         <v>100.41</v>
@@ -28099,7 +28099,7 @@
       </c>
       <c r="R453" t="inlineStr"/>
       <c r="S453" t="n">
-        <v>903.8429732460987</v>
+        <v>70.37300896022667</v>
       </c>
     </row>
     <row r="454">
@@ -28129,7 +28129,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H454" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I454" t="n">
         <v>100.85</v>
@@ -28160,7 +28160,7 @@
       </c>
       <c r="R454" t="inlineStr"/>
       <c r="S454" t="n">
-        <v>809.7079652975241</v>
+        <v>65.33473462896247</v>
       </c>
     </row>
     <row r="455">
@@ -28190,7 +28190,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H455" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I455" t="n">
         <v>100.78</v>
@@ -28221,7 +28221,7 @@
       </c>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>736.405423929824</v>
+        <v>59.77556108049396</v>
       </c>
     </row>
     <row r="456">
@@ -28251,7 +28251,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H456" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I456" t="n">
         <v>100.5</v>
@@ -28282,7 +28282,7 @@
       </c>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>858.7929042054391</v>
+        <v>67.7598589086943</v>
       </c>
     </row>
     <row r="457">
@@ -28312,7 +28312,7 @@
         <v>25</v>
       </c>
       <c r="H457" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I457" t="n">
         <v>100.55</v>
@@ -28343,7 +28343,7 @@
       </c>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>1069.624774528898</v>
+        <v>83.43764448933862</v>
       </c>
     </row>
     <row r="458">
@@ -28373,7 +28373,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H458" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I458" t="n">
         <v>100.82</v>
@@ -28404,7 +28404,7 @@
       </c>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>1204.629574513873</v>
+        <v>93.18021731937549</v>
       </c>
     </row>
     <row r="459">
@@ -28434,7 +28434,7 @@
         <v>31.16666666666666</v>
       </c>
       <c r="H459" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I459" t="n">
         <v>100.69</v>
@@ -28465,7 +28465,7 @@
       </c>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>841.809295154431</v>
+        <v>63.98936651043601</v>
       </c>
     </row>
     <row r="460">
@@ -28495,7 +28495,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H460" t="n">
-        <v>74.09999999999999</v>
+        <v>23.38888888888889</v>
       </c>
       <c r="I460" t="n">
         <v>100.85</v>
@@ -28526,7 +28526,7 @@
       </c>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>1054.476041260555</v>
+        <v>80.37361945711359</v>
       </c>
     </row>
     <row r="461">
@@ -28556,7 +28556,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H461" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I461" t="n">
         <v>100.68</v>
@@ -28587,7 +28587,7 @@
       </c>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>1203.238630990825</v>
+        <v>89.68601340760569</v>
       </c>
     </row>
     <row r="462">
@@ -28617,7 +28617,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H462" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I462" t="n">
         <v>100.38</v>
@@ -28648,7 +28648,7 @@
       </c>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>1233.881268549039</v>
+        <v>91.48886188271594</v>
       </c>
     </row>
     <row r="463">
@@ -28678,7 +28678,7 @@
         <v>23.5</v>
       </c>
       <c r="H463" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I463" t="n">
         <v>101.01</v>
@@ -28709,7 +28709,7 @@
       </c>
       <c r="R463" t="inlineStr"/>
       <c r="S463" t="n">
-        <v>1201.158088426357</v>
+        <v>93.17198014653768</v>
       </c>
     </row>
     <row r="464">
@@ -28739,7 +28739,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H464" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I464" t="n">
         <v>101</v>
@@ -28770,7 +28770,7 @@
       </c>
       <c r="R464" t="inlineStr"/>
       <c r="S464" t="n">
-        <v>1027.17051319363</v>
+        <v>79.2324212304366</v>
       </c>
     </row>
     <row r="465">
@@ -28800,7 +28800,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H465" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I465" t="n">
         <v>101.33</v>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="R465" t="inlineStr"/>
       <c r="S465" t="n">
-        <v>1283.169716394695</v>
+        <v>96.40750418345641</v>
       </c>
     </row>
     <row r="466">
@@ -28861,7 +28861,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H466" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I466" t="n">
         <v>101.21</v>
@@ -28892,7 +28892,7 @@
       </c>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>1142.94400632299</v>
+        <v>85.64371963198502</v>
       </c>
     </row>
     <row r="467">
@@ -28922,7 +28922,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H467" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I467" t="n">
         <v>100.98</v>
@@ -28953,7 +28953,7 @@
       </c>
       <c r="R467" t="inlineStr"/>
       <c r="S467" t="n">
-        <v>1074.720562813041</v>
+        <v>81.47267113290849</v>
       </c>
     </row>
     <row r="468">
@@ -28983,7 +28983,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H468" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I468" t="n">
         <v>101.03</v>
@@ -29014,7 +29014,7 @@
       </c>
       <c r="R468" t="inlineStr"/>
       <c r="S468" t="n">
-        <v>1040.144403208748</v>
+        <v>80.75788272572679</v>
       </c>
     </row>
     <row r="469">
@@ -29044,7 +29044,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H469" t="n">
-        <v>62.3</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="I469" t="n">
         <v>101.91</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="R469" t="inlineStr"/>
       <c r="S469" t="n">
-        <v>710.8243750755073</v>
+        <v>60.8923371415562</v>
       </c>
     </row>
     <row r="470">
@@ -29105,7 +29105,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H470" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I470" t="n">
         <v>101.75</v>
@@ -29136,7 +29136,7 @@
       </c>
       <c r="R470" t="inlineStr"/>
       <c r="S470" t="n">
-        <v>995.3884553286922</v>
+        <v>81.20358149734029</v>
       </c>
     </row>
     <row r="471">
@@ -29166,7 +29166,7 @@
         <v>20.66666666666667</v>
       </c>
       <c r="H471" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I471" t="n">
         <v>101.63</v>
@@ -29197,7 +29197,7 @@
       </c>
       <c r="R471" t="inlineStr"/>
       <c r="S471" t="n">
-        <v>1029.421469459739</v>
+        <v>85.8881972933997</v>
       </c>
     </row>
     <row r="472">
@@ -29227,7 +29227,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H472" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I472" t="n">
         <v>101.66</v>
@@ -29258,7 +29258,7 @@
       </c>
       <c r="R472" t="inlineStr"/>
       <c r="S472" t="n">
-        <v>822.524614342954</v>
+        <v>67.92293905260732</v>
       </c>
     </row>
     <row r="473">
@@ -29288,7 +29288,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H473" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I473" t="n">
         <v>101.64</v>
@@ -29319,7 +29319,7 @@
       </c>
       <c r="R473" t="inlineStr"/>
       <c r="S473" t="n">
-        <v>977.2068136374884</v>
+        <v>78.15496256768063</v>
       </c>
     </row>
     <row r="474">
@@ -29349,7 +29349,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H474" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I474" t="n">
         <v>101.46</v>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="R474" t="inlineStr"/>
       <c r="S474" t="n">
-        <v>860.2378604224984</v>
+        <v>70.31950265587287</v>
       </c>
     </row>
     <row r="475">
@@ -29410,7 +29410,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H475" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I475" t="n">
         <v>101.91</v>
@@ -29441,7 +29441,7 @@
       </c>
       <c r="R475" t="inlineStr"/>
       <c r="S475" t="n">
-        <v>907.9993188641638</v>
+        <v>75.05809522495758</v>
       </c>
     </row>
     <row r="476">
@@ -29471,7 +29471,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H476" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I476" t="n">
         <v>102.01</v>
@@ -29502,7 +29502,7 @@
       </c>
       <c r="R476" t="inlineStr"/>
       <c r="S476" t="n">
-        <v>1048.368625926903</v>
+        <v>87.37841877784997</v>
       </c>
     </row>
     <row r="477">
@@ -29532,7 +29532,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H477" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I477" t="n">
         <v>101.68</v>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="R477" t="inlineStr"/>
       <c r="S477" t="n">
-        <v>862.3314618110719</v>
+        <v>73.08736414011541</v>
       </c>
     </row>
     <row r="478">
@@ -29593,7 +29593,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H478" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I478" t="n">
         <v>101.26</v>
@@ -29624,7 +29624,7 @@
       </c>
       <c r="R478" t="inlineStr"/>
       <c r="S478" t="n">
-        <v>837.2621968344687</v>
+        <v>69.06932683781034</v>
       </c>
     </row>
     <row r="479">
@@ -29654,7 +29654,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H479" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I479" t="n">
         <v>101.03</v>
@@ -29685,7 +29685,7 @@
       </c>
       <c r="R479" t="inlineStr"/>
       <c r="S479" t="n">
-        <v>935.9815062228389</v>
+        <v>75.07819306423156</v>
       </c>
     </row>
     <row r="480">
@@ -29715,7 +29715,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H480" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I480" t="n">
         <v>101</v>
@@ -29746,7 +29746,7 @@
       </c>
       <c r="R480" t="inlineStr"/>
       <c r="S480" t="n">
-        <v>1004.724624292009</v>
+        <v>78.59739225578156</v>
       </c>
     </row>
     <row r="481">
@@ -29776,7 +29776,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H481" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I481" t="n">
         <v>101.82</v>
@@ -29807,7 +29807,7 @@
       </c>
       <c r="R481" t="inlineStr"/>
       <c r="S481" t="n">
-        <v>959.2180777418574</v>
+        <v>78.01759583907344</v>
       </c>
     </row>
     <row r="482">
@@ -29837,7 +29837,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H482" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I482" t="n">
         <v>101.65</v>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="R482" t="inlineStr"/>
       <c r="S482" t="n">
-        <v>1014.65797960934</v>
+        <v>85.81615512071295</v>
       </c>
     </row>
     <row r="483">
@@ -29898,7 +29898,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H483" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I483" t="n">
         <v>101.58</v>
@@ -29929,7 +29929,7 @@
       </c>
       <c r="R483" t="inlineStr"/>
       <c r="S483" t="n">
-        <v>1120.943567795165</v>
+        <v>86.86870474182355</v>
       </c>
     </row>
     <row r="484">
@@ -29959,7 +29959,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H484" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I484" t="n">
         <v>102.2</v>
@@ -29990,7 +29990,7 @@
       </c>
       <c r="R484" t="inlineStr"/>
       <c r="S484" t="n">
-        <v>864.6857771545651</v>
+        <v>75.37138273299593</v>
       </c>
     </row>
     <row r="485">
@@ -30020,7 +30020,7 @@
         <v>13.83333333333333</v>
       </c>
       <c r="H485" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I485" t="n">
         <v>102.81</v>
@@ -30051,7 +30051,7 @@
       </c>
       <c r="R485" t="inlineStr"/>
       <c r="S485" t="n">
-        <v>841.4361464006279</v>
+        <v>81.79785948688892</v>
       </c>
     </row>
     <row r="486">
@@ -30081,7 +30081,7 @@
         <v>15.38888888888889</v>
       </c>
       <c r="H486" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I486" t="n">
         <v>102.61</v>
@@ -30112,7 +30112,7 @@
       </c>
       <c r="R486" t="inlineStr"/>
       <c r="S486" t="n">
-        <v>1032.583325365402</v>
+        <v>93.08692421965208</v>
       </c>
     </row>
     <row r="487">
@@ -30142,7 +30142,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H487" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I487" t="n">
         <v>103.19</v>
@@ -30173,7 +30173,7 @@
       </c>
       <c r="R487" t="inlineStr"/>
       <c r="S487" t="n">
-        <v>642.3938579775003</v>
+        <v>62.44852060950734</v>
       </c>
     </row>
     <row r="488">
@@ -30203,7 +30203,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H488" t="n">
-        <v>49.9</v>
+        <v>9.944444444444445</v>
       </c>
       <c r="I488" t="n">
         <v>102.66</v>
@@ -30234,7 +30234,7 @@
       </c>
       <c r="R488" t="inlineStr"/>
       <c r="S488" t="n">
-        <v>653.2505230782194</v>
+        <v>64.71911951548289</v>
       </c>
     </row>
     <row r="489">
@@ -30264,7 +30264,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H489" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I489" t="n">
         <v>101.96</v>
@@ -30295,7 +30295,7 @@
       </c>
       <c r="R489" t="inlineStr"/>
       <c r="S489" t="n">
-        <v>531.8081320168943</v>
+        <v>52.08923455299389</v>
       </c>
     </row>
     <row r="490">
@@ -30325,7 +30325,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H490" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I490" t="n">
         <v>101.82</v>
@@ -30356,7 +30356,7 @@
       </c>
       <c r="R490" t="inlineStr"/>
       <c r="S490" t="n">
-        <v>745.5443014651198</v>
+        <v>71.05598885613428</v>
       </c>
     </row>
     <row r="491">
@@ -30386,7 +30386,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H491" t="n">
-        <v>55.8</v>
+        <v>13.22222222222222</v>
       </c>
       <c r="I491" t="n">
         <v>101.31</v>
@@ -30417,7 +30417,7 @@
       </c>
       <c r="R491" t="inlineStr"/>
       <c r="S491" t="n">
-        <v>697.8322874219738</v>
+        <v>64.31210190101373</v>
       </c>
     </row>
     <row r="492">
@@ -30447,7 +30447,7 @@
         <v>20.55555555555556</v>
       </c>
       <c r="H492" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I492" t="n">
         <v>101.59</v>
@@ -30478,7 +30478,7 @@
       </c>
       <c r="R492" t="inlineStr"/>
       <c r="S492" t="n">
-        <v>804.4116989417619</v>
+        <v>71.21490147455954</v>
       </c>
     </row>
     <row r="493">
@@ -30508,7 +30508,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H493" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I493" t="n">
         <v>101.9</v>
@@ -30539,7 +30539,7 @@
       </c>
       <c r="R493" t="inlineStr"/>
       <c r="S493" t="n">
-        <v>902.0688779903944</v>
+        <v>78.80309604559096</v>
       </c>
     </row>
     <row r="494">
@@ -30569,7 +30569,7 @@
         <v>20</v>
       </c>
       <c r="H494" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I494" t="n">
         <v>101.75</v>
@@ -30600,7 +30600,7 @@
       </c>
       <c r="R494" t="inlineStr"/>
       <c r="S494" t="n">
-        <v>805.5625757600785</v>
+        <v>71.88093995116461</v>
       </c>
     </row>
     <row r="495">
@@ -30630,7 +30630,7 @@
         <v>20</v>
       </c>
       <c r="H495" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I495" t="n">
         <v>102.24</v>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="R495" t="inlineStr"/>
       <c r="S495" t="n">
-        <v>897.0886510744066</v>
+        <v>78.02446231206068</v>
       </c>
     </row>
     <row r="496">
@@ -30691,7 +30691,7 @@
         <v>14.5</v>
       </c>
       <c r="H496" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I496" t="n">
         <v>102.29</v>
@@ -30722,7 +30722,7 @@
       </c>
       <c r="R496" t="inlineStr"/>
       <c r="S496" t="n">
-        <v>965.5471666578087</v>
+        <v>89.72394558257881</v>
       </c>
     </row>
     <row r="497">
@@ -30752,7 +30752,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H497" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I497" t="n">
         <v>101.99</v>
@@ -30783,7 +30783,7 @@
       </c>
       <c r="R497" t="inlineStr"/>
       <c r="S497" t="n">
-        <v>871.8285886009984</v>
+        <v>79.59923942227296</v>
       </c>
     </row>
     <row r="498">
@@ -30813,7 +30813,7 @@
         <v>15.44444444444444</v>
       </c>
       <c r="H498" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I498" t="n">
         <v>101.87</v>
@@ -30844,7 +30844,7 @@
       </c>
       <c r="R498" t="inlineStr"/>
       <c r="S498" t="n">
-        <v>769.6282514921494</v>
+        <v>74.53768107572579</v>
       </c>
     </row>
     <row r="499">
@@ -30874,7 +30874,7 @@
         <v>19.5</v>
       </c>
       <c r="H499" t="n">
-        <v>55.5</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="I499" t="n">
         <v>101.17</v>
@@ -30905,7 +30905,7 @@
       </c>
       <c r="R499" t="inlineStr"/>
       <c r="S499" t="n">
-        <v>716.8883063273752</v>
+        <v>66.30233175261617</v>
       </c>
     </row>
     <row r="500">
@@ -30935,7 +30935,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H500" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I500" t="n">
         <v>100.9</v>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="R500" t="inlineStr"/>
       <c r="S500" t="n">
-        <v>857.8209684567893</v>
+        <v>70.91019409236718</v>
       </c>
     </row>
     <row r="501">
@@ -30996,7 +30996,7 @@
         <v>23.27777777777778</v>
       </c>
       <c r="H501" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I501" t="n">
         <v>101.28</v>
@@ -31027,7 +31027,7 @@
       </c>
       <c r="R501" t="inlineStr"/>
       <c r="S501" t="n">
-        <v>995.2008263719061</v>
+        <v>80.70195642620395</v>
       </c>
     </row>
     <row r="502">
@@ -31057,7 +31057,7 @@
         <v>12.33333333333334</v>
       </c>
       <c r="H502" t="n">
-        <v>38</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I502" t="n">
         <v>102.86</v>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="R502" t="inlineStr"/>
       <c r="S502" t="n">
-        <v>463.4134381486327</v>
+        <v>54.16034995624736</v>
       </c>
     </row>
     <row r="503">
@@ -31118,7 +31118,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H503" t="n">
-        <v>45.4</v>
+        <v>7.444444444444444</v>
       </c>
       <c r="I503" t="n">
         <v>102.61</v>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="R503" t="inlineStr"/>
       <c r="S503" t="n">
-        <v>862.341871438141</v>
+        <v>90.65337627155965</v>
       </c>
     </row>
     <row r="504">
@@ -31179,7 +31179,7 @@
         <v>10.11111111111111</v>
       </c>
       <c r="H504" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I504" t="n">
         <v>102.81</v>
@@ -31210,7 +31210,7 @@
       </c>
       <c r="R504" t="inlineStr"/>
       <c r="S504" t="n">
-        <v>734.9214484534753</v>
+        <v>78.86664498766436</v>
       </c>
     </row>
     <row r="505">
@@ -31240,7 +31240,7 @@
         <v>10.44444444444444</v>
       </c>
       <c r="H505" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I505" t="n">
         <v>103.09</v>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="R505" t="inlineStr"/>
       <c r="S505" t="n">
-        <v>508.2982455723966</v>
+        <v>59.94778980015528</v>
       </c>
     </row>
     <row r="506">
@@ -31301,7 +31301,7 @@
         <v>11.05555555555556</v>
       </c>
       <c r="H506" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I506" t="n">
         <v>103.18</v>
@@ -31332,7 +31332,7 @@
       </c>
       <c r="R506" t="inlineStr"/>
       <c r="S506" t="n">
-        <v>583.0371053446241</v>
+        <v>65.47447779681843</v>
       </c>
     </row>
     <row r="507">
@@ -31362,7 +31362,7 @@
         <v>14.94444444444444</v>
       </c>
       <c r="H507" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I507" t="n">
         <v>102.31</v>
@@ -31393,7 +31393,7 @@
       </c>
       <c r="R507" t="inlineStr"/>
       <c r="S507" t="n">
-        <v>602.6511738469685</v>
+        <v>62.67205974578762</v>
       </c>
     </row>
     <row r="508">
@@ -31423,7 +31423,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H508" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I508" t="n">
         <v>101.9</v>
@@ -31454,7 +31454,7 @@
       </c>
       <c r="R508" t="inlineStr"/>
       <c r="S508" t="n">
-        <v>832.9761451410873</v>
+        <v>76.05195387836984</v>
       </c>
     </row>
   </sheetData>
